--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="141">
   <si>
     <t>Staff Name</t>
   </si>
@@ -995,11 +995,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A38" sqref="A38:XFD38"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1643,56 +1643,6 @@
       <c r="H34" s="25"/>
       <c r="I34" s="25"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="D35" s="23"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="23"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="10">
-        <v>42584</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B37" s="10">
-        <v>42584</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="F37" s="19" t="s">
-        <v>117</v>
-      </c>
-    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0"/>
   <sortState ref="A427:G515">
@@ -1700,13 +1650,13 @@
     <sortCondition ref="D427:D515"/>
   </sortState>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A1048576">
       <formula1>Task_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D1048576">
       <formula1>Building</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A2 A9 A17 A21 A24 A28 A32 A35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A2 A9 A17 A21 A24 A28 A32">
       <formula1>Staff_Name</formula1>
     </dataValidation>
   </dataValidations>

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="141">
   <si>
     <t>Staff Name</t>
   </si>
@@ -995,11 +995,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1643,6 +1643,56 @@
       <c r="H34" s="25"/>
       <c r="I34" s="25"/>
     </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" s="23"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="23"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="10">
+        <v>42584</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="10">
+        <v>42584</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>117</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0"/>
   <sortState ref="A427:G515">
@@ -1650,13 +1700,13 @@
     <sortCondition ref="D427:D515"/>
   </sortState>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A1048576">
       <formula1>Task_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D1048576">
       <formula1>Building</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A2 A9 A17 A21 A24 A28 A32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A2 A9 A17 A21 A24 A28 A32 A35">
       <formula1>Staff_Name</formula1>
     </dataValidation>
   </dataValidations>

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="142">
   <si>
     <t>Staff Name</t>
   </si>
@@ -468,6 +468,9 @@
   </si>
   <si>
     <t>Lock upper cinema doors (2) with allen key. Pull side stage door shut from inside. Lock booth and turn off all lights. MK2 key</t>
+  </si>
+  <si>
+    <t>Turn off PC and projector. Leave equipment in room. Lock room. Key for room in Founders 164 storeroom.</t>
   </si>
 </sst>
 </file>
@@ -995,11 +998,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A38" sqref="A38:XFD38"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1693,6 +1696,56 @@
         <v>117</v>
       </c>
     </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" s="23"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="23"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="26">
+        <v>42585</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="F39" s="29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="26">
+        <v>42585</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F40" s="29" t="s">
+        <v>141</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0"/>
   <sortState ref="A427:G515">
@@ -1700,13 +1753,13 @@
     <sortCondition ref="D427:D515"/>
   </sortState>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A1048576">
       <formula1>Task_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D1048576">
       <formula1>Building</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A2 A9 A17 A21 A24 A28 A32 A35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A2 A9 A17 A21 A24 A28 A32 A35 A38">
       <formula1>Staff_Name</formula1>
     </dataValidation>
   </dataValidations>

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="143">
   <si>
     <t>Staff Name</t>
   </si>
@@ -471,6 +471,9 @@
   </si>
   <si>
     <t>Turn off PC and projector. Leave equipment in room. Lock room. Key for room in Founders 164 storeroom.</t>
+  </si>
+  <si>
+    <t>FRIDAY</t>
   </si>
 </sst>
 </file>
@@ -603,7 +606,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -691,6 +694,21 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -998,11 +1016,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
+      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1743,6 +1761,36 @@
         <v>127</v>
       </c>
       <c r="F40" s="29" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="36"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="D41" s="36"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="40"/>
+    </row>
+    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="26">
+        <v>42587</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F42" s="29" t="s">
         <v>141</v>
       </c>
     </row>

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="143">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1016,11 +1016,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
+      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1792,6 +1792,56 @@
       </c>
       <c r="F42" s="29" t="s">
         <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="36"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" s="36"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="40"/>
+    </row>
+    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="10">
+        <v>42590</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="26">
+        <v>42590</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="E45" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="F45" s="29" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="147">
   <si>
     <t>Staff Name</t>
   </si>
@@ -474,6 +474,18 @@
   </si>
   <si>
     <t>FRIDAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pick up mic and clip and mic stand - return to Founders 156A storeroom. Leave mic cables and matts. Turn off amp. </t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pick up wireless keyboard and return to Founders 156A storeroom. </t>
   </si>
 </sst>
 </file>
@@ -1016,11 +1028,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1842,6 +1854,76 @@
       </c>
       <c r="F45" s="29" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="36"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="D46" s="36"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="40"/>
+    </row>
+    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="10">
+        <v>42594</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" s="10">
+        <v>42594</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" s="10">
+        <v>42594</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="F49" s="19" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="151">
   <si>
     <t>Staff Name</t>
   </si>
@@ -486,6 +486,18 @@
   </si>
   <si>
     <t xml:space="preserve">Pick up wireless keyboard and return to Founders 156A storeroom. </t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>N927</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>York Room N927 is opposite Senate Chamber when you step off the elevator. Flat screen TV w/PC in back. Turn off wireless keyboard and store with TV remote in canvas bag before transporting. Door will be locked at 1710 by client if you are late. To Vari 1155.</t>
   </si>
 </sst>
 </file>
@@ -618,7 +630,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -630,38 +642,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -707,20 +689,32 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1028,625 +1022,625 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19" style="10" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="9" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="60.42578125" style="19" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="19" style="26" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="23" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="24" customWidth="1"/>
+    <col min="6" max="6" width="60.42578125" style="25" customWidth="1"/>
     <col min="7" max="16384" width="22.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22" t="s">
+    <row r="2" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="26">
         <v>42570</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="25" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="26">
         <v>42570</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="25" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="26">
         <v>42570</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="25" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="22" t="s">
+    <row r="6" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="16">
         <v>42571</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="19" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="16">
         <v>42571</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="25" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22" t="s">
+    <row r="9" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="16">
         <v>42573</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="19" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="16">
         <v>42573</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="25" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="16">
         <v>42573</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="25" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="16">
         <v>42573</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="25" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="16">
         <v>42573</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="25" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="16">
         <v>42573</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="25" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="16">
         <v>42573</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="25" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="22" t="s">
+    <row r="17" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-    </row>
-    <row r="18" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="D17" s="13"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="16">
         <v>42576</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="F18" s="29" t="s">
+      <c r="F18" s="19" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="16">
         <v>42576</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="F19" s="31" t="s">
+      <c r="F19" s="21" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="16">
         <v>42576</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="E20" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="25" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="22" t="s">
+    <row r="21" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="26">
         <v>42577</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="25" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="26">
         <v>42577</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="25" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="22" t="s">
+    <row r="24" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="16">
         <v>42578</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="E25" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="F25" s="29" t="s">
+      <c r="F25" s="19" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B26" s="16">
         <v>42578</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="F26" s="19" t="s">
+      <c r="F26" s="25" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B27" s="16">
         <v>42578</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="30" t="s">
+      <c r="E27" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="F27" s="31" t="s">
+      <c r="F27" s="21" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="22" t="s">
+    <row r="28" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="26">
+      <c r="B29" s="16">
         <v>42579</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="30" t="s">
+      <c r="E29" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="F29" s="31" t="s">
+      <c r="F29" s="21" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="26">
+      <c r="B30" s="16">
         <v>42579</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="F30" s="19" t="s">
+      <c r="F30" s="25" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="26">
+      <c r="B31" s="16">
         <v>42579</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="F31" s="19" t="s">
+      <c r="F31" s="25" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="22" t="s">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-    </row>
-    <row r="33" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="D32" s="13"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+    </row>
+    <row r="33" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="26">
+      <c r="B33" s="16">
         <v>42580</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="F33" s="29" t="s">
+      <c r="F33" s="19" t="s">
         <v>126</v>
       </c>
       <c r="G33" s="3"/>
@@ -1654,276 +1648,346 @@
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B34" s="26">
+      <c r="B34" s="16">
         <v>42580</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C34" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D34" s="33" t="s">
+      <c r="D34" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E34" s="34" t="s">
+      <c r="E34" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="F34" s="35" t="s">
+      <c r="F34" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="22" t="s">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="D35" s="23"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="23"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="13"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="26">
         <v>42584</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="F36" s="19" t="s">
+      <c r="F36" s="25" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="26">
         <v>42584</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="F37" s="19" t="s">
+      <c r="F37" s="25" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="22" t="s">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="D38" s="23"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="23"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="13"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="26">
+      <c r="B39" s="16">
         <v>42585</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="D39" s="28" t="s">
+      <c r="D39" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E39" s="27" t="s">
+      <c r="E39" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="F39" s="29" t="s">
+      <c r="F39" s="19" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="26">
+      <c r="B40" s="16">
         <v>42585</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="F40" s="29" t="s">
+      <c r="F40" s="19" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="36"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="38" t="s">
+      <c r="A41" s="11"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="D41" s="36"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="40"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="34"/>
     </row>
     <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="26">
+      <c r="B42" s="16">
         <v>42587</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="F42" s="29" t="s">
+      <c r="F42" s="19" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="36"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="38" t="s">
+      <c r="A43" s="11"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="D43" s="36"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="40"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="34"/>
     </row>
     <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="26">
         <v>42590</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="E44" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="F44" s="19" t="s">
+      <c r="F44" s="25" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="26">
+      <c r="B45" s="16">
         <v>42590</v>
       </c>
-      <c r="C45" s="27" t="s">
+      <c r="C45" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="D45" s="28" t="s">
+      <c r="D45" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E45" s="27" t="s">
+      <c r="E45" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="F45" s="29" t="s">
+      <c r="F45" s="19" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="36"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="38" t="s">
+      <c r="A46" s="11"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="D46" s="36"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="40"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="34"/>
     </row>
     <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="26">
         <v>42594</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="F47" s="19" t="s">
+      <c r="F47" s="25" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B48" s="26">
         <v>42594</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="F48" s="19" t="s">
+      <c r="F48" s="25" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49" s="26">
         <v>42594</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E49" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="F49" s="19" t="s">
+      <c r="F49" s="25" t="s">
         <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="11"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D50" s="11"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="34"/>
+    </row>
+    <row r="51" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51" s="26">
+        <v>42597</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="F51" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" s="26">
+        <v>42597</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="F52" s="25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" s="26">
+        <v>42597</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F53" s="25" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1962,7 +2026,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" style="10" customWidth="1"/>
     <col min="3" max="3" width="39.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1970,7 +2034,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1981,7 +2045,7 @@
       <c r="A2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="10" t="s">
         <v>82</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1992,7 +2056,7 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -2003,7 +2067,7 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2014,7 +2078,7 @@
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2025,7 +2089,7 @@
       <c r="A6" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -2036,7 +2100,7 @@
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2047,7 +2111,7 @@
       <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -2058,7 +2122,7 @@
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -2069,7 +2133,7 @@
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="10" t="s">
         <v>84</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -2080,7 +2144,7 @@
       <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="10" t="s">
         <v>93</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -2091,7 +2155,7 @@
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="10" t="s">
         <v>89</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -2102,7 +2166,7 @@
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="10" t="s">
         <v>90</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -2113,7 +2177,7 @@
       <c r="A14" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="10" t="s">
         <v>95</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -2124,7 +2188,7 @@
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -2135,7 +2199,7 @@
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="10" t="s">
         <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -2146,7 +2210,7 @@
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -2157,7 +2221,7 @@
       <c r="A18" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -2168,7 +2232,7 @@
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="10" t="s">
         <v>91</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -2179,7 +2243,7 @@
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="10" t="s">
         <v>86</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -2190,7 +2254,7 @@
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="10" t="s">
         <v>92</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -2201,7 +2265,7 @@
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -2212,7 +2276,7 @@
       <c r="A23" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="10" t="s">
         <v>88</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -2223,7 +2287,7 @@
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="10" t="s">
         <v>94</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -2234,7 +2298,7 @@
       <c r="A25" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="10" t="s">
         <v>85</v>
       </c>
       <c r="C25" s="1" t="s">

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="154">
   <si>
     <t>Staff Name</t>
   </si>
@@ -498,6 +498,15 @@
   </si>
   <si>
     <t>York Room N927 is opposite Senate Chamber when you step off the elevator. Flat screen TV w/PC in back. Turn off wireless keyboard and store with TV remote in canvas bag before transporting. Door will be locked at 1710 by client if you are late. To Vari 1155.</t>
+  </si>
+  <si>
+    <t>1615</t>
+  </si>
+  <si>
+    <t>N940</t>
+  </si>
+  <si>
+    <t>Turn off audio system, lock booth and Senate doors. N940 keys.</t>
   </si>
 </sst>
 </file>
@@ -1022,11 +1031,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1990,6 +1999,76 @@
         <v>138</v>
       </c>
     </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" s="13"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="13"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B55" s="26">
+        <v>42598</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="F55" s="25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" s="26">
+        <v>42598</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E56" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="F56" s="25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" s="26">
+        <v>42598</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E57" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F57" s="25" t="s">
+        <v>138</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0"/>
   <sortState ref="A427:G515">
@@ -1997,13 +2076,13 @@
     <sortCondition ref="D427:D515"/>
   </sortState>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A1048576">
       <formula1>Task_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D1048576">
       <formula1>Building</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A2 A9 A17 A21 A24 A28 A32 A35 A38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A2 A9 A17 A21 A24 A28 A32 A35 A38 A54">
       <formula1>Staff_Name</formula1>
     </dataValidation>
   </dataValidations>

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="164">
   <si>
     <t>Staff Name</t>
   </si>
@@ -508,6 +508,56 @@
   <si>
     <t>Turn off audio system, lock booth and Senate doors. N940 keys.</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leave mic cables in place.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Remove mic, stand, remote and wireless keyboard. Turn off all else as usual. To Founders 156A</t>
+    </r>
+  </si>
+  <si>
+    <t>N432</t>
+  </si>
+  <si>
+    <t>Leave all in room, just shut off PC and TV.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note 1 extra length of mic cable on the lec mic. Detach from main cable and store with the mic and stand in the booth. Turn off audio system etc. Lock booth and Senate doors. N940 keys. </t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>Turn off PC and projector. Lock room.</t>
+  </si>
+  <si>
+    <t>Turn off PC and Projector. Equipment stays in room. Lock room. Key in Founders 164 storeroom.</t>
+  </si>
+  <si>
+    <t>014 JCR</t>
+  </si>
+  <si>
+    <t>Pick up PC and Projector cart. Projector cart has small speaker on it. Pick up portable screen also. Key for room in Founders 164 storeroom. Return equipment to Vanier 040 storeroom.</t>
+  </si>
+  <si>
+    <t>Pick up mic, clip, mic cable and mic stand and return to Vanier 040 storeroom.</t>
+  </si>
 </sst>
 </file>
 
@@ -516,7 +566,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -549,6 +599,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1031,11 +1089,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1909,7 +1967,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
         <v>19</v>
       </c>
@@ -1929,7 +1987,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="28"/>
       <c r="C50" s="13" t="s">
@@ -1939,7 +1997,7 @@
       <c r="E50" s="32"/>
       <c r="F50" s="34"/>
     </row>
-    <row r="51" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
         <v>90</v>
       </c>
@@ -1959,7 +2017,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
         <v>19</v>
       </c>
@@ -1979,7 +2037,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
         <v>19</v>
       </c>
@@ -1999,7 +2057,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="12" t="s">
@@ -2009,7 +2067,7 @@
       <c r="E54" s="11"/>
       <c r="F54" s="13"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
         <v>82</v>
       </c>
@@ -2029,7 +2087,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
         <v>19</v>
       </c>
@@ -2049,7 +2107,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
         <v>19</v>
       </c>
@@ -2067,6 +2125,279 @@
       </c>
       <c r="F57" s="25" t="s">
         <v>138</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D58" s="13"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="13"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B59" s="16">
+        <v>42599</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="F59" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B60" s="16">
+        <v>42599</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D60" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E60" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="F60" s="25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B61" s="16">
+        <v>42599</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D61" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="F61" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B62" s="16">
+        <v>42599</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E62" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="F62" s="25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B63" s="16">
+        <v>42599</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E63" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F63" s="25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="11"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D64" s="13"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B65" s="16">
+        <v>42600</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D65" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E65" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F65" s="25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B66" s="16">
+        <v>42600</v>
+      </c>
+      <c r="C66" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E66" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="F66" s="25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" s="16">
+        <v>42600</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E67" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="F67" s="25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B68" s="16">
+        <v>42600</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E68" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F68" s="25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="11"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D69" s="11"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="34"/>
+    </row>
+    <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B70" s="16">
+        <v>42601</v>
+      </c>
+      <c r="C70" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D70" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E70" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F70" s="25" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71" s="26">
+        <v>42601</v>
+      </c>
+      <c r="C71" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D71" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E71" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="F71" s="25" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B72" s="26">
+        <v>42601</v>
+      </c>
+      <c r="C72" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D72" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E72" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="F72" s="25" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2076,13 +2407,13 @@
     <sortCondition ref="D427:D515"/>
   </sortState>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A1048576">
       <formula1>Task_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D1048576">
       <formula1>Building</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A2 A9 A17 A21 A24 A28 A32 A35 A38 A54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A2 A9 A17 A21 A24 A28 A32 A35 A38 A54 A58 A64">
       <formula1>Staff_Name</formula1>
     </dataValidation>
   </dataValidations>
@@ -2099,7 +2430,7 @@
   <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C40" sqref="C2:C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2271,7 +2602,7 @@
         <v>87</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>71</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2282,7 +2613,7 @@
         <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2293,7 +2624,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2304,7 +2635,7 @@
         <v>50</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2315,7 +2646,7 @@
         <v>91</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2326,7 +2657,7 @@
         <v>86</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2337,7 +2668,7 @@
         <v>92</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2348,7 +2679,7 @@
         <v>83</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2359,7 +2690,7 @@
         <v>88</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2370,7 +2701,7 @@
         <v>94</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2381,7 +2712,7 @@
         <v>85</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2389,7 +2720,7 @@
         <v>49</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2397,7 +2728,7 @@
         <v>99</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2405,7 +2736,7 @@
         <v>100</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -2413,39 +2744,39 @@
         <v>41</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2453,7 +2784,7 @@
         <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2461,7 +2792,7 @@
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2469,7 +2800,7 @@
         <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -2477,7 +2808,7 @@
         <v>102</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -2485,17 +2816,20 @@
         <v>103</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="C39" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
+      <c r="C40" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
@@ -2541,7 +2875,7 @@
     </row>
   </sheetData>
   <sortState ref="C2:C40">
-    <sortCondition ref="C2:C40"/>
+    <sortCondition ref="C40"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="168">
   <si>
     <t>Staff Name</t>
   </si>
@@ -553,10 +553,22 @@
     <t>014 JCR</t>
   </si>
   <si>
-    <t>Pick up PC and Projector cart. Projector cart has small speaker on it. Pick up portable screen also. Key for room in Founders 164 storeroom. Return equipment to Vanier 040 storeroom.</t>
-  </si>
-  <si>
     <t>Pick up mic, clip, mic cable and mic stand and return to Vanier 040 storeroom.</t>
+  </si>
+  <si>
+    <t>Pick up PC and Projector cart. Projector cart has small speaker on it. Pick up portable screen also. PICK UP 6 MATS. Key for room in Founders 164 storeroom. Return equipment to Vanier 040 storeroom.</t>
+  </si>
+  <si>
+    <t>283B</t>
+  </si>
+  <si>
+    <t>No need to go here. Room is managed by Winters college.</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>Winters classroom key B15</t>
   </si>
 </sst>
 </file>
@@ -1089,11 +1101,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2360,7 +2372,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A71" s="15" t="s">
         <v>89</v>
       </c>
@@ -2377,7 +2389,7 @@
         <v>161</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2397,7 +2409,77 @@
         <v>161</v>
       </c>
       <c r="F72" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="11"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D73" s="11"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="34"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B74" s="26">
+        <v>42604</v>
+      </c>
+      <c r="C74" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E74" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="F74" s="21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B75" s="26">
+        <v>42604</v>
+      </c>
+      <c r="C75" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D75" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E75" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="F75" s="25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B76" s="26">
+        <v>42604</v>
+      </c>
+      <c r="C76" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D76" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E76" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="F76" s="25" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="172">
   <si>
     <t>Staff Name</t>
   </si>
@@ -569,6 +569,18 @@
   </si>
   <si>
     <t>Winters classroom key B15</t>
+  </si>
+  <si>
+    <t>S538</t>
+  </si>
+  <si>
+    <t>Pick up flat screen TV. Return wireless keyboard to bag attached to flat screen. Turn off and return to Ross S120 storeroom.</t>
+  </si>
+  <si>
+    <t>Get key from S561 office for this room. Be on time.</t>
+  </si>
+  <si>
+    <t>Please check room - lock room - key for room in Fdrs 164 storeroom.</t>
   </si>
 </sst>
 </file>
@@ -1101,11 +1113,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F82" sqref="F82"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2480,6 +2492,76 @@
       </c>
       <c r="F76" s="25" t="s">
         <v>165</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="11"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D77" s="11"/>
+      <c r="E77" s="32"/>
+      <c r="F77" s="34"/>
+    </row>
+    <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B78" s="26">
+        <v>42605</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D78" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E78" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="F78" s="25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B79" s="26">
+        <v>42605</v>
+      </c>
+      <c r="C79" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D79" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E79" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="F79" s="25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B80" s="26">
+        <v>42605</v>
+      </c>
+      <c r="C80" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="D80" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E80" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="F80" s="25" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="150" windowWidth="14865" windowHeight="10785" tabRatio="440"/>
+    <workbookView xWindow="96" yWindow="156" windowWidth="14868" windowHeight="10788" tabRatio="440"/>
   </bookViews>
   <sheets>
     <sheet name="Logs" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="172">
   <si>
     <t>Staff Name</t>
   </si>
@@ -103,9 +103,6 @@
   </si>
   <si>
     <t>LSB</t>
-  </si>
-  <si>
-    <t>Crestron Logout</t>
   </si>
   <si>
     <t>BSB</t>
@@ -581,6 +578,9 @@
   </si>
   <si>
     <t>Please check room - lock room - key for room in Fdrs 164 storeroom.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neck mic, desk mic, PC.Turn off audio system etc. Lock booth and Senate doors. N940 keys. </t>
   </si>
 </sst>
 </file>
@@ -1113,22 +1113,22 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F83" sqref="F83"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" style="15" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" style="15" customWidth="1"/>
     <col min="2" max="2" width="19" style="26" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="23" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="24" customWidth="1"/>
-    <col min="6" max="6" width="60.42578125" style="25" customWidth="1"/>
-    <col min="7" max="16384" width="22.140625" style="3"/>
+    <col min="5" max="5" width="11.6640625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="60.44140625" style="25" customWidth="1"/>
+    <col min="7" max="16384" width="22.109375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1136,7 +1136,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>20</v>
@@ -1148,14 +1148,14 @@
         <v>18</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="11"/>
@@ -1164,7 +1164,7 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>16</v>
       </c>
@@ -1172,63 +1172,63 @@
         <v>42570</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" s="26">
         <v>42570</v>
       </c>
       <c r="C4" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>109</v>
-      </c>
       <c r="F4" s="25" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="26">
         <v>42570</v>
       </c>
       <c r="C5" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>111</v>
-      </c>
       <c r="F5" s="25" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="11"/>
@@ -1237,7 +1237,7 @@
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>19</v>
       </c>
@@ -1245,19 +1245,19 @@
         <v>42571</v>
       </c>
       <c r="C7" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>114</v>
-      </c>
       <c r="F7" s="19" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>19</v>
       </c>
@@ -1265,23 +1265,23 @@
         <v>42571</v>
       </c>
       <c r="C8" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>111</v>
-      </c>
       <c r="F8" s="25" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="11"/>
@@ -1290,127 +1290,127 @@
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" s="16">
         <v>42573</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11" s="16">
         <v>42573</v>
       </c>
       <c r="C11" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>111</v>
-      </c>
       <c r="F11" s="25" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B12" s="16">
         <v>42573</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E12" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="F12" s="25" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B13" s="16">
         <v>42573</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B14" s="16">
         <v>42573</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15" s="16">
         <v>42573</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>19</v>
       </c>
@@ -1418,23 +1418,23 @@
         <v>42573</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="11"/>
@@ -1443,7 +1443,7 @@
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>19</v>
       </c>
@@ -1451,19 +1451,19 @@
         <v>42576</v>
       </c>
       <c r="C18" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>114</v>
-      </c>
       <c r="F18" s="19" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>19</v>
       </c>
@@ -1471,19 +1471,19 @@
         <v>42576</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E19" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="F19" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="F19" s="21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>19</v>
       </c>
@@ -1491,23 +1491,23 @@
         <v>42576</v>
       </c>
       <c r="C20" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="20" t="s">
+      <c r="F20" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="F20" s="25" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:9" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="11"/>
@@ -1516,7 +1516,7 @@
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>16</v>
       </c>
@@ -1524,43 +1524,43 @@
         <v>42577</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D22" s="23" t="s">
         <v>22</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B23" s="26">
         <v>42577</v>
       </c>
       <c r="C23" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="D23" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>109</v>
-      </c>
       <c r="F23" s="25" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="11"/>
@@ -1569,7 +1569,7 @@
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>19</v>
       </c>
@@ -1577,39 +1577,39 @@
         <v>42578</v>
       </c>
       <c r="C25" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="D25" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>114</v>
-      </c>
       <c r="F25" s="19" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B26" s="16">
         <v>42578</v>
       </c>
       <c r="C26" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D26" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>111</v>
-      </c>
       <c r="F26" s="25" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>19</v>
       </c>
@@ -1617,23 +1617,23 @@
         <v>42578</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E27" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="F27" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="F27" s="21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:9" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="11"/>
@@ -1642,7 +1642,7 @@
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>19</v>
       </c>
@@ -1650,19 +1650,19 @@
         <v>42579</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E29" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="F29" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="F29" s="21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>19</v>
       </c>
@@ -1670,43 +1670,43 @@
         <v>42579</v>
       </c>
       <c r="C30" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="D30" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E30" s="24" t="s">
+      <c r="F30" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="F30" s="25" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B31" s="16">
         <v>42579</v>
       </c>
       <c r="C31" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="D31" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>109</v>
-      </c>
       <c r="F31" s="25" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="11"/>
@@ -1715,24 +1715,24 @@
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
     </row>
-    <row r="33" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B33" s="16">
         <v>42580</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -1740,38 +1740,38 @@
     </row>
     <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B34" s="16">
         <v>42580</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E34" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="F34" s="25" t="s">
         <v>139</v>
-      </c>
-      <c r="F34" s="25" t="s">
-        <v>140</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="11"/>
       <c r="F35" s="13"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>16</v>
       </c>
@@ -1779,49 +1779,49 @@
         <v>42584</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D36" s="23" t="s">
         <v>22</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B37" s="26">
         <v>42584</v>
       </c>
       <c r="C37" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="D37" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>109</v>
-      </c>
       <c r="F37" s="25" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="11"/>
       <c r="F38" s="13"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
         <v>19</v>
       </c>
@@ -1829,43 +1829,43 @@
         <v>42585</v>
       </c>
       <c r="C39" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="D39" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>114</v>
-      </c>
       <c r="F39" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B40" s="16">
         <v>42585</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="28"/>
       <c r="C41" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="32"/>
@@ -1873,29 +1873,29 @@
     </row>
     <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B42" s="16">
         <v>42587</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="28"/>
       <c r="C43" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="32"/>
@@ -1903,25 +1903,25 @@
     </row>
     <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B44" s="26">
         <v>42590</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
         <v>19</v>
       </c>
@@ -1929,23 +1929,23 @@
         <v>42590</v>
       </c>
       <c r="C45" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="D45" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E45" s="17" t="s">
-        <v>114</v>
-      </c>
       <c r="F45" s="19" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="28"/>
       <c r="C46" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="32"/>
@@ -1953,42 +1953,42 @@
     </row>
     <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B47" s="26">
         <v>42594</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E47" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="F47" s="25" t="s">
         <v>143</v>
-      </c>
-      <c r="F47" s="25" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B48" s="26">
         <v>42594</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1999,23 +1999,23 @@
         <v>42594</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E49" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F49" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="F49" s="25" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="28"/>
       <c r="C50" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="32"/>
@@ -2023,25 +2023,25 @@
     </row>
     <row r="51" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B51" s="26">
         <v>42597</v>
       </c>
       <c r="C51" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E51" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="D51" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>148</v>
-      </c>
       <c r="F51" s="19" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
         <v>19</v>
       </c>
@@ -2049,19 +2049,19 @@
         <v>42597</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E52" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
         <v>19</v>
       </c>
@@ -2069,49 +2069,49 @@
         <v>42597</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E53" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="F53" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="F53" s="25" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="11"/>
       <c r="F54" s="13"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B55" s="26">
         <v>42598</v>
       </c>
       <c r="C55" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E55" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="D55" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E55" s="24" t="s">
+      <c r="F55" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="F55" s="25" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
         <v>19</v>
       </c>
@@ -2119,19 +2119,19 @@
         <v>42598</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E56" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
         <v>19</v>
       </c>
@@ -2139,89 +2139,89 @@
         <v>42598</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E57" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="F57" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="F57" s="25" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="11"/>
       <c r="F58" s="13"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B59" s="16">
         <v>42599</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E59" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="F59" s="19" t="s">
         <v>155</v>
-      </c>
-      <c r="F59" s="19" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B60" s="16">
         <v>42599</v>
       </c>
       <c r="C60" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="D60" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E60" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="D60" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E60" s="24" t="s">
-        <v>152</v>
-      </c>
       <c r="F60" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B61" s="16">
         <v>42599</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D61" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E61" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F61" s="19" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
         <v>19</v>
       </c>
@@ -2229,19 +2229,19 @@
         <v>42599</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E62" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="15" t="s">
         <v>19</v>
       </c>
@@ -2249,23 +2249,23 @@
         <v>42599</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E63" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="F63" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="F63" s="25" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:9" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D64" s="13"/>
       <c r="E64" s="11"/>
@@ -2274,47 +2274,47 @@
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B65" s="16">
         <v>42600</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E65" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B66" s="16">
         <v>42600</v>
       </c>
       <c r="C66" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E66" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="D66" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E66" s="24" t="s">
-        <v>152</v>
-      </c>
       <c r="F66" s="25" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
         <v>19</v>
       </c>
@@ -2322,19 +2322,19 @@
         <v>42600</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E67" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="15" t="s">
         <v>19</v>
       </c>
@@ -2342,23 +2342,23 @@
         <v>42600</v>
       </c>
       <c r="C68" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E68" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="F68" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="F68" s="25" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="28"/>
       <c r="C69" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="32"/>
@@ -2366,75 +2366,75 @@
     </row>
     <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B70" s="16">
         <v>42601</v>
       </c>
       <c r="C70" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D70" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E70" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="43.15" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A71" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B71" s="26">
         <v>42601</v>
       </c>
       <c r="C71" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D71" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E71" s="24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B72" s="26">
         <v>42601</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E72" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="F72" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="F72" s="25" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="28"/>
       <c r="C73" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="32"/>
       <c r="F73" s="34"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="15" t="s">
         <v>19</v>
       </c>
@@ -2442,19 +2442,19 @@
         <v>42604</v>
       </c>
       <c r="C74" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E74" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="F74" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="F74" s="21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="15" t="s">
         <v>19</v>
       </c>
@@ -2462,19 +2462,19 @@
         <v>42604</v>
       </c>
       <c r="C75" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D75" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E75" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="F75" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="F75" s="25" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
         <v>19</v>
       </c>
@@ -2482,23 +2482,23 @@
         <v>42604</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D76" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E76" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="F76" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="F76" s="25" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="28"/>
       <c r="C77" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="32"/>
@@ -2506,25 +2506,25 @@
     </row>
     <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B78" s="26">
         <v>42605</v>
       </c>
       <c r="C78" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E78" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="F78" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="F78" s="25" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="15" t="s">
         <v>19</v>
       </c>
@@ -2532,16 +2532,16 @@
         <v>42605</v>
       </c>
       <c r="C79" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D79" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E79" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F79" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2552,16 +2552,106 @@
         <v>42605</v>
       </c>
       <c r="C80" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D80" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E80" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F80" s="25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A81" s="11"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D81" s="13"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="13"/>
+    </row>
+    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" s="16">
+        <v>42606</v>
+      </c>
+      <c r="C82" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="D82" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E82" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="F82" s="25" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A83" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B83" s="16">
+        <v>42606</v>
+      </c>
+      <c r="C83" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E83" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="F83" s="25" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A84" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B84" s="16">
+        <v>42606</v>
+      </c>
+      <c r="C84" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E84" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="D80" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E80" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="F80" s="25" t="s">
-        <v>171</v>
+      <c r="F84" s="25" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A85" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B85" s="16">
+        <v>42606</v>
+      </c>
+      <c r="C85" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D85" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E85" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="F85" s="25" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2571,13 +2661,13 @@
     <sortCondition ref="D427:D515"/>
   </sortState>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A1048576">
       <formula1>Task_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D1048576">
       <formula1>Building</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A2 A9 A17 A21 A24 A28 A32 A35 A38 A54 A58 A64">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A2 A9 A17 A21 A24 A28 A32 A35 A38 A54 A58 A64 A81">
       <formula1>Staff_Name</formula1>
     </dataValidation>
   </dataValidations>
@@ -2593,18 +2683,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C40" sqref="C2:C40"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A38" sqref="A2:A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.109375" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="39.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2615,117 +2705,117 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="B8" s="10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -2733,217 +2823,214 @@
         <v>89</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="B19" s="10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>9</v>
       </c>
@@ -2951,95 +3038,95 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="C38" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="C39" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="C40" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="8"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="8"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="8"/>
     </row>
   </sheetData>
-  <sortState ref="C2:C40">
-    <sortCondition ref="C40"/>
+  <sortState ref="A2:A38">
+    <sortCondition ref="A38"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="156" windowWidth="14868" windowHeight="10788" tabRatio="440"/>
+    <workbookView xWindow="90" yWindow="150" windowWidth="14865" windowHeight="10785" tabRatio="440"/>
   </bookViews>
   <sheets>
     <sheet name="Logs" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="172">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1113,22 +1113,22 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B85" sqref="B85"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" style="15" customWidth="1"/>
     <col min="2" max="2" width="19" style="26" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="23" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="24" customWidth="1"/>
-    <col min="6" max="6" width="60.44140625" style="25" customWidth="1"/>
-    <col min="7" max="16384" width="22.109375" style="3"/>
+    <col min="5" max="5" width="11.7109375" style="24" customWidth="1"/>
+    <col min="6" max="6" width="60.42578125" style="25" customWidth="1"/>
+    <col min="7" max="16384" width="22.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1151,7 +1151,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="12" t="s">
@@ -1164,7 +1164,7 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>16</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>81</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>81</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="12" t="s">
@@ -1237,7 +1237,7 @@
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>19</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>19</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="12" t="s">
@@ -1290,7 +1290,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>81</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>81</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>88</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>89</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>92</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>86</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>19</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="12" t="s">
@@ -1443,7 +1443,7 @@
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="1:9" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>19</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>19</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>19</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="12" t="s">
@@ -1516,7 +1516,7 @@
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
     </row>
-    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>16</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>81</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12" t="s">
@@ -1569,7 +1569,7 @@
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
     </row>
-    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>19</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>81</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>19</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12" t="s">
@@ -1642,7 +1642,7 @@
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
     </row>
-    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>19</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>19</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>81</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="12" t="s">
@@ -1715,7 +1715,7 @@
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
     </row>
-    <row r="33" spans="1:9" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>81</v>
       </c>
@@ -1761,7 +1761,7 @@
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
     </row>
-    <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="12" t="s">
@@ -1771,7 +1771,7 @@
       <c r="E35" s="11"/>
       <c r="F35" s="13"/>
     </row>
-    <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>16</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>81</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="12" t="s">
@@ -1821,7 +1821,7 @@
       <c r="E38" s="11"/>
       <c r="F38" s="13"/>
     </row>
-    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
         <v>19</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="28"/>
       <c r="C41" s="13" t="s">
@@ -1891,7 +1891,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="28"/>
       <c r="C43" s="13" t="s">
@@ -1921,7 +1921,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
         <v>19</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="28"/>
       <c r="C46" s="13" t="s">
@@ -2011,7 +2011,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="28"/>
       <c r="C50" s="13" t="s">
@@ -2041,7 +2041,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
         <v>19</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
         <v>19</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="12" t="s">
@@ -2091,7 +2091,7 @@
       <c r="E54" s="11"/>
       <c r="F54" s="13"/>
     </row>
-    <row r="55" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
         <v>81</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
         <v>19</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
         <v>19</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="12" t="s">
@@ -2161,7 +2161,7 @@
       <c r="E58" s="11"/>
       <c r="F58" s="13"/>
     </row>
-    <row r="59" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
         <v>81</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
         <v>19</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="15" t="s">
         <v>19</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="12" t="s">
@@ -2274,7 +2274,7 @@
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
     </row>
-    <row r="65" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="15" t="s">
         <v>81</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
         <v>19</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="15" t="s">
         <v>19</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="28"/>
       <c r="C69" s="13" t="s">
@@ -2384,7 +2384,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A71" s="15" t="s">
         <v>88</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="28"/>
       <c r="C73" s="13" t="s">
@@ -2434,7 +2434,7 @@
       <c r="E73" s="32"/>
       <c r="F73" s="34"/>
     </row>
-    <row r="74" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="15" t="s">
         <v>19</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="15" t="s">
         <v>19</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
         <v>19</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="28"/>
       <c r="C77" s="13" t="s">
@@ -2524,7 +2524,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="15" t="s">
         <v>19</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="12" t="s">
@@ -2574,7 +2574,7 @@
       <c r="E81" s="11"/>
       <c r="F81" s="13"/>
     </row>
-    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="15" t="s">
         <v>81</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="15" t="s">
         <v>19</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="15" t="s">
         <v>19</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="15" t="s">
         <v>19</v>
       </c>
@@ -2651,6 +2651,39 @@
         <v>163</v>
       </c>
       <c r="F85" s="25" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="11"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D86" s="13"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B87" s="16">
+        <v>42607</v>
+      </c>
+      <c r="C87" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D87" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E87" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="F87" s="25" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2661,13 +2694,13 @@
     <sortCondition ref="D427:D515"/>
   </sortState>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A1048576">
       <formula1>Task_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D1048576">
       <formula1>Building</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A2 A9 A17 A21 A24 A28 A32 A35 A38 A54 A58 A64 A81">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A2 A9 A17 A21 A24 A28 A32 A35 A38 A54 A58 A64 A81 A86">
       <formula1>Staff_Name</formula1>
     </dataValidation>
   </dataValidations>
@@ -2687,14 +2720,14 @@
       <selection activeCell="A38" sqref="A2:A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.109375" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2705,7 +2738,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>64</v>
       </c>
@@ -2716,7 +2749,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2727,7 +2760,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2738,7 +2771,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
@@ -2749,7 +2782,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>95</v>
       </c>
@@ -2760,7 +2793,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
@@ -2771,7 +2804,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
@@ -2782,7 +2815,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -2793,7 +2826,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -2804,7 +2837,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>44</v>
       </c>
@@ -2815,7 +2848,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -2826,7 +2859,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -2837,7 +2870,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>96</v>
       </c>
@@ -2848,7 +2881,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -2859,7 +2892,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -2870,7 +2903,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -2881,7 +2914,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>100</v>
       </c>
@@ -2892,7 +2925,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -2903,7 +2936,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -2914,7 +2947,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
@@ -2925,7 +2958,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
@@ -2936,7 +2969,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>97</v>
       </c>
@@ -2947,7 +2980,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>45</v>
       </c>
@@ -2958,7 +2991,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>63</v>
       </c>
@@ -2966,7 +2999,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
@@ -2974,7 +3007,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>98</v>
       </c>
@@ -2982,7 +3015,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>99</v>
       </c>
@@ -2990,7 +3023,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>40</v>
       </c>
@@ -2998,7 +3031,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>41</v>
       </c>
@@ -3006,7 +3039,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -3014,7 +3047,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
@@ -3022,7 +3055,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -3030,7 +3063,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>9</v>
       </c>
@@ -3038,7 +3071,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
@@ -3046,7 +3079,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>43</v>
       </c>
@@ -3054,7 +3087,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>101</v>
       </c>
@@ -3062,7 +3095,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>102</v>
       </c>
@@ -3070,58 +3103,58 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="C39" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="C40" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
     </row>
   </sheetData>

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="179">
   <si>
     <t>Staff Name</t>
   </si>
@@ -581,6 +581,27 @@
   </si>
   <si>
     <t xml:space="preserve">Neck mic, desk mic, PC.Turn off audio system etc. Lock booth and Senate doors. N940 keys. </t>
+  </si>
+  <si>
+    <t>Pick up PC and Projector cart and large portable screen also. PICK UP MATS. Return equipment to Vanier 040 storeroom.</t>
+  </si>
+  <si>
+    <t>Lectern mic, stand and cables with large PA system. To Vanier 040.</t>
+  </si>
+  <si>
+    <t>1800</t>
+  </si>
+  <si>
+    <t>001-JCR</t>
+  </si>
+  <si>
+    <t>Lectern mic with small PA etc. Return to Vanier 040.</t>
+  </si>
+  <si>
+    <t>May include portable screen. All to Vanier 040.</t>
+  </si>
+  <si>
+    <t>001-DH</t>
   </si>
 </sst>
 </file>
@@ -1113,11 +1134,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E102" sqref="E101:E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2684,6 +2705,116 @@
         <v>163</v>
       </c>
       <c r="F87" s="25" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="11"/>
+      <c r="B88" s="28"/>
+      <c r="C88" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D88" s="11"/>
+      <c r="E88" s="32"/>
+      <c r="F88" s="34"/>
+    </row>
+    <row r="89" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" s="26">
+        <v>42608</v>
+      </c>
+      <c r="C89" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D89" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E89" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="F89" s="25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B90" s="26">
+        <v>42608</v>
+      </c>
+      <c r="C90" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D90" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E90" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="F90" s="25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B91" s="26">
+        <v>42608</v>
+      </c>
+      <c r="C91" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="D91" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E91" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="F91" s="25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B92" s="26">
+        <v>42608</v>
+      </c>
+      <c r="C92" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="D92" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E92" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="F92" s="25" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B93" s="26">
+        <v>42608</v>
+      </c>
+      <c r="C93" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D93" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E93" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="F93" s="25" t="s">
         <v>164</v>
       </c>
     </row>

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="184">
   <si>
     <t>Staff Name</t>
   </si>
@@ -602,6 +602,21 @@
   </si>
   <si>
     <t>001-DH</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>Flat screen DLP and wireless keyboard. To Vanier 132 storeroom.</t>
+  </si>
+  <si>
+    <t>010-SCR</t>
+  </si>
+  <si>
+    <t>Leave portable screen and network cable, but get carpets. To  Vanier 040 storeroom.</t>
+  </si>
+  <si>
+    <t>305-SCR</t>
   </si>
 </sst>
 </file>
@@ -1134,11 +1149,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I93"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E102" sqref="E101:E102"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2816,6 +2831,76 @@
       </c>
       <c r="F93" s="25" t="s">
         <v>164</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="11"/>
+      <c r="B94" s="28"/>
+      <c r="C94" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D94" s="11"/>
+      <c r="E94" s="32"/>
+      <c r="F94" s="34"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B95" s="26">
+        <v>42611</v>
+      </c>
+      <c r="C95" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D95" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E95" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="F95" s="25" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B96" s="26">
+        <v>42611</v>
+      </c>
+      <c r="C96" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D96" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E96" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="F96" s="25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B97" s="26">
+        <v>42611</v>
+      </c>
+      <c r="C97" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D97" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E97" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="F97" s="25" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="193">
   <si>
     <t>Staff Name</t>
   </si>
@@ -617,6 +617,33 @@
   </si>
   <si>
     <t>305-SCR</t>
+  </si>
+  <si>
+    <t>157B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Door code 11012* </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Door code 10077* </t>
+  </si>
+  <si>
+    <t>1745</t>
+  </si>
+  <si>
+    <t>1645</t>
+  </si>
+  <si>
+    <t>140-SCR</t>
+  </si>
+  <si>
+    <t>2130</t>
+  </si>
+  <si>
+    <t>Door code 7083*  Leave portable screen. Return to Founders 156A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portable screen is there. Door code 7083* </t>
   </si>
 </sst>
 </file>
@@ -1149,11 +1176,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I97"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A102" sqref="A102"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2903,6 +2930,136 @@
         <v>182</v>
       </c>
     </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="11"/>
+      <c r="B98" s="28"/>
+      <c r="C98" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D98" s="11"/>
+      <c r="E98" s="32"/>
+      <c r="F98" s="34"/>
+    </row>
+    <row r="99" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B99" s="26">
+        <v>42613</v>
+      </c>
+      <c r="C99" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D99" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E99" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F99" s="19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B100" s="26">
+        <v>42613</v>
+      </c>
+      <c r="C100" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="D100" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E100" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="F100" s="25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B101" s="26">
+        <v>42613</v>
+      </c>
+      <c r="C101" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="D101" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E101" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="F101" s="25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B102" s="26">
+        <v>42613</v>
+      </c>
+      <c r="C102" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D102" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E102" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="F102" s="25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B103" s="26">
+        <v>42613</v>
+      </c>
+      <c r="C103" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="D103" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E103" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="F103" s="25" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B104" s="26">
+        <v>42613</v>
+      </c>
+      <c r="C104" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="D104" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E104" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="F104" s="25" t="s">
+        <v>191</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0"/>
   <sortState ref="A427:G515">
@@ -2910,10 +3067,10 @@
     <sortCondition ref="D427:D515"/>
   </sortState>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A103 A104:A1048576">
       <formula1>Task_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D103 D104:D1048576">
       <formula1>Building</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A2 A9 A17 A21 A24 A28 A32 A35 A38 A54 A58 A64 A81 A86">

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="193">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1176,11 +1176,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:I109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C107" sqref="C107"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A109" sqref="A109:XFD109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2945,7 +2945,7 @@
         <v>92</v>
       </c>
       <c r="B99" s="26">
-        <v>42613</v>
+        <v>42612</v>
       </c>
       <c r="C99" s="22" t="s">
         <v>135</v>
@@ -2962,10 +2962,10 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B100" s="26">
-        <v>42613</v>
+        <v>42612</v>
       </c>
       <c r="C100" s="22" t="s">
         <v>188</v>
@@ -2982,10 +2982,10 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="15" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B101" s="26">
-        <v>42613</v>
+        <v>42612</v>
       </c>
       <c r="C101" s="22" t="s">
         <v>188</v>
@@ -3005,7 +3005,7 @@
         <v>88</v>
       </c>
       <c r="B102" s="26">
-        <v>42613</v>
+        <v>42612</v>
       </c>
       <c r="C102" s="22" t="s">
         <v>131</v>
@@ -3025,7 +3025,7 @@
         <v>82</v>
       </c>
       <c r="B103" s="26">
-        <v>42613</v>
+        <v>42612</v>
       </c>
       <c r="C103" s="22" t="s">
         <v>187</v>
@@ -3045,7 +3045,7 @@
         <v>88</v>
       </c>
       <c r="B104" s="26">
-        <v>42613</v>
+        <v>42612</v>
       </c>
       <c r="C104" s="22" t="s">
         <v>190</v>
@@ -3058,6 +3058,96 @@
       </c>
       <c r="F104" s="25" t="s">
         <v>191</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="11"/>
+      <c r="B105" s="11"/>
+      <c r="C105" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D105" s="13"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="13"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B106" s="16">
+        <v>42613</v>
+      </c>
+      <c r="C106" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="D106" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E106" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="F106" s="25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B107" s="16">
+        <v>42613</v>
+      </c>
+      <c r="C107" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="D107" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E107" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="F107" s="25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B108" s="16">
+        <v>42613</v>
+      </c>
+      <c r="C108" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="D108" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E108" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="F108" s="25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B109" s="16">
+        <v>42613</v>
+      </c>
+      <c r="C109" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="D109" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E109" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="F109" s="25" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3067,13 +3157,13 @@
     <sortCondition ref="D427:D515"/>
   </sortState>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A103 A104:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A104 B105 A106:A1048576">
       <formula1>Task_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D103 D104:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D104 E105 D106:D1048576">
       <formula1>Building</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A2 A9 A17 A21 A24 A28 A32 A35 A38 A54 A58 A64 A81 A86">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A2 A9 A17 A21 A24 A28 A32 A35 A38 A54 A58 A64 A81 A86 A105">
       <formula1>Staff_Name</formula1>
     </dataValidation>
   </dataValidations>

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="193">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1176,11 +1176,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:I111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A109" sqref="A109:XFD109"/>
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2910,7 +2910,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="15" t="s">
         <v>88</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
       <c r="B98" s="28"/>
       <c r="C98" s="13" t="s">
@@ -2940,7 +2940,7 @@
       <c r="E98" s="32"/>
       <c r="F98" s="34"/>
     </row>
-    <row r="99" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="15" t="s">
         <v>92</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
         <v>12</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="15" t="s">
         <v>12</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="15" t="s">
         <v>88</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="15" t="s">
         <v>82</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="15" t="s">
         <v>88</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="12" t="s">
@@ -3070,7 +3070,7 @@
       <c r="E105" s="11"/>
       <c r="F105" s="13"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="15" t="s">
         <v>12</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
         <v>12</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="15" t="s">
         <v>88</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="15" t="s">
         <v>86</v>
       </c>
@@ -3148,6 +3148,39 @@
       </c>
       <c r="F109" s="25" t="s">
         <v>176</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="11"/>
+      <c r="B110" s="11"/>
+      <c r="C110" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D110" s="13"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="13"/>
+      <c r="G110" s="14"/>
+      <c r="H110" s="11"/>
+      <c r="I110" s="11"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B111" s="26">
+        <v>42614</v>
+      </c>
+      <c r="C111" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D111" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E111" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="F111" s="21" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3157,13 +3190,13 @@
     <sortCondition ref="D427:D515"/>
   </sortState>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A104 B105 A106:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A104 B105 A106:A109 B110 A111:A1048576">
       <formula1>Task_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D104 E105 D106:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D104 E105 D106:D109 E110 D111:D1048576">
       <formula1>Building</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A2 A9 A17 A21 A24 A28 A32 A35 A38 A54 A58 A64 A81 A86 A105">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A2 A9 A17 A21 A24 A28 A32 A35 A38 A54 A58 A64 A81 A86 A105 A110">
       <formula1>Staff_Name</formula1>
     </dataValidation>
   </dataValidations>

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="196">
   <si>
     <t>Staff Name</t>
   </si>
@@ -644,6 +644,15 @@
   </si>
   <si>
     <t xml:space="preserve">Portable screen is there. Door code 7083* </t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Lectern mic, stand and cable. To Stedman 114L.</t>
+  </si>
+  <si>
+    <t>1430</t>
   </si>
 </sst>
 </file>
@@ -1176,11 +1185,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I111"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A111" sqref="A111"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3181,6 +3190,76 @@
       </c>
       <c r="F111" s="21" t="s">
         <v>130</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="11"/>
+      <c r="B112" s="28"/>
+      <c r="C112" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D112" s="11"/>
+      <c r="E112" s="32"/>
+      <c r="F112" s="34"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B113" s="26">
+        <v>42615</v>
+      </c>
+      <c r="C113" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="D113" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E113" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="F113" s="21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B114" s="26">
+        <v>42615</v>
+      </c>
+      <c r="C114" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="D114" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E114" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="F114" s="25" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B115" s="26">
+        <v>42615</v>
+      </c>
+      <c r="C115" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D115" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E115" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="F115" s="25" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="211">
   <si>
     <t>Staff Name</t>
   </si>
@@ -653,6 +653,71 @@
   </si>
   <si>
     <t>1430</t>
+  </si>
+  <si>
+    <t>2100</t>
+  </si>
+  <si>
+    <t>Door code 7083*  Neck mic and small PA, to Founders 156A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Leave all in an lock room. Do not pick up equipment. Needed again tomorrow morning.</t>
+  </si>
+  <si>
+    <t>Return wireless keyboard &amp; projector remote to Founders 156A.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leave mic cables in place.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Remove lec mic, stand, clip. Turn off PA as usual and lock room. To Founders 156A.</t>
+    </r>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Lec mic, stand and cable. To  Stedman 114L MCR.</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>Lec mic, stand and cable, small PA. To  Vanier 040.</t>
+  </si>
+  <si>
+    <t>Nat Taylor Cinema. Lock cinema all doors after shutdown.</t>
+  </si>
+  <si>
+    <t>Lec mic, stand and cable. To Vanier 040.</t>
+  </si>
+  <si>
+    <t>1730</t>
+  </si>
+  <si>
+    <t>2045</t>
   </si>
 </sst>
 </file>
@@ -1185,11 +1250,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I115"/>
+  <dimension ref="A1:I133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A115" sqref="A115"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C150" sqref="C150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3242,7 +3307,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A115" s="15" t="s">
         <v>92</v>
       </c>
@@ -3260,6 +3325,346 @@
       </c>
       <c r="F115" s="25" t="s">
         <v>194</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="11"/>
+      <c r="B116" s="28"/>
+      <c r="C116" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D116" s="11"/>
+      <c r="E116" s="32"/>
+      <c r="F116" s="34"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B117" s="26">
+        <v>42619</v>
+      </c>
+      <c r="C117" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D117" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E117" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="F117" s="25" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B118" s="26">
+        <v>42619</v>
+      </c>
+      <c r="C118" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D118" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E118" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="F118" s="25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B119" s="26">
+        <v>42619</v>
+      </c>
+      <c r="C119" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D119" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E119" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="F119" s="25" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B120" s="26">
+        <v>42619</v>
+      </c>
+      <c r="C120" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D120" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E120" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="F120" s="25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="11"/>
+      <c r="B121" s="11"/>
+      <c r="C121" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D121" s="13"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="13"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B122" s="26">
+        <v>42620</v>
+      </c>
+      <c r="C122" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D122" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E122" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="F122" s="25" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B123" s="26">
+        <v>42620</v>
+      </c>
+      <c r="C123" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D123" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E123" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="F123" s="25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B124" s="26">
+        <v>42620</v>
+      </c>
+      <c r="C124" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D124" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E124" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="F124" s="25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B125" s="26">
+        <v>42620</v>
+      </c>
+      <c r="C125" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D125" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E125" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="F125" s="25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B126" s="26">
+        <v>42620</v>
+      </c>
+      <c r="C126" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D126" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E126" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="F126" s="25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B127" s="26">
+        <v>42620</v>
+      </c>
+      <c r="C127" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D127" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E127" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="F127" s="25" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B128" s="26">
+        <v>42620</v>
+      </c>
+      <c r="C128" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D128" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E128" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="F128" s="25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B129" s="26">
+        <v>42620</v>
+      </c>
+      <c r="C129" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D129" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E129" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="F129" s="25" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B130" s="26">
+        <v>42620</v>
+      </c>
+      <c r="C130" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D130" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E130" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="F130" s="25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B131" s="26">
+        <v>42620</v>
+      </c>
+      <c r="C131" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="D131" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E131" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="F131" s="21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A132" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B132" s="26">
+        <v>42620</v>
+      </c>
+      <c r="C132" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="D132" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E132" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F132" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B133" s="26">
+        <v>42620</v>
+      </c>
+      <c r="C133" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="D133" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E133" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F133" s="25" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -3269,13 +3674,13 @@
     <sortCondition ref="D427:D515"/>
   </sortState>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A104 B105 A106:A109 B110 A111:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A104 B105 A106:A109 B110 A111:A120 B121 A122:A1048576">
       <formula1>Task_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D104 E105 D106:D109 E110 D111:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D104 E105 D106:D109 E110 D111:D120 E121 D122:D1048576">
       <formula1>Building</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A2 A9 A17 A21 A24 A28 A32 A35 A38 A54 A58 A64 A81 A86 A105 A110">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A2 A9 A17 A21 A24 A28 A32 A35 A38 A54 A58 A64 A81 A86 A105 A110 A121">
       <formula1>Staff_Name</formula1>
     </dataValidation>
   </dataValidations>

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="229">
   <si>
     <t>Staff Name</t>
   </si>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>Christina</t>
-  </si>
-  <si>
-    <t>Clairissa</t>
   </si>
   <si>
     <t>Hasebullah</t>
@@ -718,6 +715,63 @@
   </si>
   <si>
     <t>2045</t>
+  </si>
+  <si>
+    <t>Clair</t>
+  </si>
+  <si>
+    <t>1550</t>
+  </si>
+  <si>
+    <t>S137</t>
+  </si>
+  <si>
+    <t>1820</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>1850</t>
+  </si>
+  <si>
+    <t>S105</t>
+  </si>
+  <si>
+    <t>S133</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
+    <t>Professor Elena Skliarenko</t>
+  </si>
+  <si>
+    <t>Professor Suzie Young</t>
+  </si>
+  <si>
+    <t>Professor Ken Ogata</t>
+  </si>
+  <si>
+    <t>Instructor Cheryl McPherson</t>
+  </si>
+  <si>
+    <t>Instructor Wendy Braithwaite</t>
+  </si>
+  <si>
+    <t>N146</t>
+  </si>
+  <si>
+    <t>Place overhead transparency projector on the desk, focus and demo the quick lamp change (QLC) feature. OV is there already and stays in 24/7.</t>
+  </si>
+  <si>
+    <t>2030</t>
+  </si>
+  <si>
+    <t>2200</t>
+  </si>
+  <si>
+    <t>118</t>
   </si>
 </sst>
 </file>
@@ -1250,11 +1304,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I133"/>
+  <dimension ref="A1:I145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C150" sqref="C150"/>
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A145" sqref="A145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1273,7 +1327,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>20</v>
@@ -1292,7 +1346,7 @@
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="11"/>
@@ -1309,63 +1363,63 @@
         <v>42570</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="26">
         <v>42570</v>
       </c>
       <c r="C4" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>108</v>
-      </c>
       <c r="F4" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="26">
         <v>42570</v>
       </c>
       <c r="C5" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>110</v>
-      </c>
       <c r="F5" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="11"/>
@@ -1382,16 +1436,16 @@
         <v>42571</v>
       </c>
       <c r="C7" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>113</v>
-      </c>
       <c r="F7" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1402,23 +1456,23 @@
         <v>42571</v>
       </c>
       <c r="C8" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>110</v>
-      </c>
       <c r="F8" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="11"/>
@@ -1429,122 +1483,122 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" s="16">
         <v>42573</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B11" s="16">
         <v>42573</v>
       </c>
       <c r="C11" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>110</v>
-      </c>
       <c r="F11" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B12" s="16">
         <v>42573</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E12" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="25" t="s">
         <v>120</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B13" s="16">
         <v>42573</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B14" s="16">
         <v>42573</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B15" s="16">
         <v>42573</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1555,23 +1609,23 @@
         <v>42573</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="11"/>
@@ -1588,16 +1642,16 @@
         <v>42576</v>
       </c>
       <c r="C18" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="D18" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>113</v>
-      </c>
       <c r="F18" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1608,16 +1662,16 @@
         <v>42576</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E19" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="21" t="s">
         <v>129</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1628,23 +1682,23 @@
         <v>42576</v>
       </c>
       <c r="C20" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="D20" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="20" t="s">
+      <c r="F20" s="25" t="s">
         <v>132</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="11"/>
@@ -1661,43 +1715,43 @@
         <v>42577</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D22" s="23" t="s">
         <v>22</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B23" s="26">
         <v>42577</v>
       </c>
       <c r="C23" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="D23" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>108</v>
-      </c>
       <c r="F23" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="11"/>
@@ -1714,36 +1768,36 @@
         <v>42578</v>
       </c>
       <c r="C25" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="D25" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>113</v>
-      </c>
       <c r="F25" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B26" s="16">
         <v>42578</v>
       </c>
       <c r="C26" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="D26" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>110</v>
-      </c>
       <c r="F26" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1754,23 +1808,23 @@
         <v>42578</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E27" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27" s="21" t="s">
         <v>129</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="11"/>
@@ -1787,16 +1841,16 @@
         <v>42579</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E29" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="F29" s="21" t="s">
         <v>129</v>
-      </c>
-      <c r="F29" s="21" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1807,43 +1861,43 @@
         <v>42579</v>
       </c>
       <c r="C30" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="D30" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="24" t="s">
+      <c r="F30" s="25" t="s">
         <v>136</v>
-      </c>
-      <c r="F30" s="25" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B31" s="16">
         <v>42579</v>
       </c>
       <c r="C31" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="D31" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>108</v>
-      </c>
       <c r="F31" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="11"/>
@@ -1854,22 +1908,22 @@
     </row>
     <row r="33" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B33" s="16">
         <v>42580</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -1877,22 +1931,22 @@
     </row>
     <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B34" s="16">
         <v>42580</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E34" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F34" s="25" t="s">
         <v>138</v>
-      </c>
-      <c r="F34" s="25" t="s">
-        <v>139</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
@@ -1902,7 +1956,7 @@
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="11"/>
@@ -1916,43 +1970,43 @@
         <v>42584</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D36" s="23" t="s">
         <v>22</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B37" s="26">
         <v>42584</v>
       </c>
       <c r="C37" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>108</v>
-      </c>
       <c r="F37" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="11"/>
@@ -1966,43 +2020,43 @@
         <v>42585</v>
       </c>
       <c r="C39" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="D39" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>113</v>
-      </c>
       <c r="F39" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B40" s="16">
         <v>42585</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="28"/>
       <c r="C41" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="32"/>
@@ -2010,29 +2064,29 @@
     </row>
     <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B42" s="16">
         <v>42587</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="28"/>
       <c r="C43" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="32"/>
@@ -2040,22 +2094,22 @@
     </row>
     <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B44" s="26">
         <v>42590</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2066,23 +2120,23 @@
         <v>42590</v>
       </c>
       <c r="C45" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="D45" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E45" s="17" t="s">
-        <v>113</v>
-      </c>
       <c r="F45" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="28"/>
       <c r="C46" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="32"/>
@@ -2090,42 +2144,42 @@
     </row>
     <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B47" s="26">
         <v>42594</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E47" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="F47" s="25" t="s">
         <v>142</v>
-      </c>
-      <c r="F47" s="25" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B48" s="26">
         <v>42594</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2136,23 +2190,23 @@
         <v>42594</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E49" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="F49" s="25" t="s">
         <v>144</v>
-      </c>
-      <c r="F49" s="25" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="28"/>
       <c r="C50" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="32"/>
@@ -2160,22 +2214,22 @@
     </row>
     <row r="51" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B51" s="26">
         <v>42597</v>
       </c>
       <c r="C51" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E51" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="D51" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>147</v>
-      </c>
       <c r="F51" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -2186,16 +2240,16 @@
         <v>42597</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E52" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2206,23 +2260,23 @@
         <v>42597</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E53" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="F53" s="25" t="s">
         <v>136</v>
-      </c>
-      <c r="F53" s="25" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="11"/>
@@ -2230,22 +2284,22 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B55" s="26">
         <v>42598</v>
       </c>
       <c r="C55" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E55" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="D55" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E55" s="24" t="s">
+      <c r="F55" s="25" t="s">
         <v>151</v>
-      </c>
-      <c r="F55" s="25" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2256,16 +2310,16 @@
         <v>42598</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E56" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2276,23 +2330,23 @@
         <v>42598</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E57" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="F57" s="25" t="s">
         <v>136</v>
-      </c>
-      <c r="F57" s="25" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="11"/>
@@ -2300,62 +2354,62 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B59" s="16">
         <v>42599</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E59" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="F59" s="19" t="s">
         <v>154</v>
-      </c>
-      <c r="F59" s="19" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B60" s="16">
         <v>42599</v>
       </c>
       <c r="C60" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D60" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E60" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="D60" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E60" s="24" t="s">
-        <v>151</v>
-      </c>
       <c r="F60" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B61" s="16">
         <v>42599</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D61" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E61" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F61" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -2366,16 +2420,16 @@
         <v>42599</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E62" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -2386,23 +2440,23 @@
         <v>42599</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E63" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="F63" s="25" t="s">
         <v>136</v>
-      </c>
-      <c r="F63" s="25" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D64" s="13"/>
       <c r="E64" s="11"/>
@@ -2413,42 +2467,42 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B65" s="16">
         <v>42600</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E65" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B66" s="16">
         <v>42600</v>
       </c>
       <c r="C66" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E66" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="D66" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E66" s="24" t="s">
-        <v>151</v>
-      </c>
       <c r="F66" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2459,16 +2513,16 @@
         <v>42600</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E67" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2479,23 +2533,23 @@
         <v>42600</v>
       </c>
       <c r="C68" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E68" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="F68" s="25" t="s">
         <v>136</v>
-      </c>
-      <c r="F68" s="25" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="28"/>
       <c r="C69" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="32"/>
@@ -2503,69 +2557,69 @@
     </row>
     <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B70" s="16">
         <v>42601</v>
       </c>
       <c r="C70" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D70" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E70" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A71" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B71" s="26">
         <v>42601</v>
       </c>
       <c r="C71" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D71" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E71" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B72" s="26">
         <v>42601</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E72" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="F72" s="25" t="s">
         <v>160</v>
-      </c>
-      <c r="F72" s="25" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="28"/>
       <c r="C73" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="32"/>
@@ -2579,16 +2633,16 @@
         <v>42604</v>
       </c>
       <c r="C74" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E74" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="F74" s="21" t="s">
         <v>129</v>
-      </c>
-      <c r="F74" s="21" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2599,16 +2653,16 @@
         <v>42604</v>
       </c>
       <c r="C75" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D75" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E75" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="F75" s="25" t="s">
         <v>165</v>
-      </c>
-      <c r="F75" s="25" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2619,23 +2673,23 @@
         <v>42604</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D76" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E76" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="F76" s="25" t="s">
         <v>163</v>
-      </c>
-      <c r="F76" s="25" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="28"/>
       <c r="C77" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="32"/>
@@ -2643,22 +2697,22 @@
     </row>
     <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B78" s="26">
         <v>42605</v>
       </c>
       <c r="C78" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E78" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="F78" s="25" t="s">
         <v>167</v>
-      </c>
-      <c r="F78" s="25" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2669,16 +2723,16 @@
         <v>42605</v>
       </c>
       <c r="C79" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D79" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E79" s="24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F79" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2689,23 +2743,23 @@
         <v>42605</v>
       </c>
       <c r="C80" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D80" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E80" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F80" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="11"/>
@@ -2713,22 +2767,22 @@
     </row>
     <row r="82" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="16">
         <v>42606</v>
       </c>
       <c r="C82" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D82" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E82" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="D82" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E82" s="24" t="s">
-        <v>151</v>
-      </c>
       <c r="F82" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -2739,16 +2793,16 @@
         <v>42606</v>
       </c>
       <c r="C83" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E83" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F83" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -2759,16 +2813,16 @@
         <v>42606</v>
       </c>
       <c r="C84" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E84" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="F84" s="25" t="s">
         <v>136</v>
-      </c>
-      <c r="F84" s="25" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -2779,23 +2833,23 @@
         <v>42606</v>
       </c>
       <c r="C85" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D85" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E85" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="F85" s="25" t="s">
         <v>163</v>
-      </c>
-      <c r="F85" s="25" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="86" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D86" s="13"/>
       <c r="E86" s="11"/>
@@ -2812,23 +2866,23 @@
         <v>42607</v>
       </c>
       <c r="C87" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D87" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E87" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="F87" s="25" t="s">
         <v>163</v>
-      </c>
-      <c r="F87" s="25" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="28"/>
       <c r="C88" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="32"/>
@@ -2836,82 +2890,82 @@
     </row>
     <row r="89" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" s="26">
         <v>42608</v>
       </c>
       <c r="C89" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D89" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E89" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F89" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B90" s="26">
         <v>42608</v>
       </c>
       <c r="C90" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D90" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E90" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F90" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B91" s="26">
         <v>42608</v>
       </c>
       <c r="C91" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="D91" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E91" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="D91" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E91" s="24" t="s">
-        <v>175</v>
-      </c>
       <c r="F91" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B92" s="26">
         <v>42608</v>
       </c>
       <c r="C92" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="D92" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E92" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="D92" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E92" s="24" t="s">
+      <c r="F92" s="25" t="s">
         <v>175</v>
-      </c>
-      <c r="F92" s="25" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -2922,23 +2976,23 @@
         <v>42608</v>
       </c>
       <c r="C93" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D93" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E93" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="F93" s="25" t="s">
         <v>163</v>
-      </c>
-      <c r="F93" s="25" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="28"/>
       <c r="C94" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="32"/>
@@ -2946,69 +3000,69 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B95" s="26">
         <v>42611</v>
       </c>
       <c r="C95" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D95" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E95" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F95" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B96" s="26">
         <v>42611</v>
       </c>
       <c r="C96" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D96" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E96" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="F96" s="25" t="s">
         <v>179</v>
-      </c>
-      <c r="F96" s="25" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B97" s="26">
         <v>42611</v>
       </c>
       <c r="C97" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D97" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E97" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="F97" s="25" t="s">
         <v>181</v>
-      </c>
-      <c r="F97" s="25" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
       <c r="B98" s="28"/>
       <c r="C98" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="32"/>
@@ -3016,22 +3070,22 @@
     </row>
     <row r="99" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B99" s="26">
         <v>42612</v>
       </c>
       <c r="C99" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D99" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E99" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F99" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -3042,16 +3096,16 @@
         <v>42612</v>
       </c>
       <c r="C100" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D100" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E100" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F100" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -3062,83 +3116,83 @@
         <v>42612</v>
       </c>
       <c r="C101" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D101" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E101" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F101" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B102" s="26">
         <v>42612</v>
       </c>
       <c r="C102" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D102" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E102" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="F102" s="25" t="s">
         <v>179</v>
-      </c>
-      <c r="F102" s="25" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B103" s="26">
         <v>42612</v>
       </c>
       <c r="C103" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D103" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E103" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F103" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B104" s="26">
         <v>42612</v>
       </c>
       <c r="C104" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="D104" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E104" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="F104" s="25" t="s">
         <v>190</v>
-      </c>
-      <c r="D104" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E104" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="F104" s="25" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D105" s="13"/>
       <c r="E105" s="11"/>
@@ -3152,16 +3206,16 @@
         <v>42613</v>
       </c>
       <c r="C106" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D106" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E106" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F106" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -3172,63 +3226,63 @@
         <v>42613</v>
       </c>
       <c r="C107" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D107" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E107" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F107" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B108" s="16">
         <v>42613</v>
       </c>
       <c r="C108" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="D108" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E108" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="D108" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E108" s="24" t="s">
-        <v>175</v>
-      </c>
       <c r="F108" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B109" s="16">
         <v>42613</v>
       </c>
       <c r="C109" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="D109" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E109" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="D109" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E109" s="24" t="s">
+      <c r="F109" s="25" t="s">
         <v>175</v>
-      </c>
-      <c r="F109" s="25" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D110" s="13"/>
       <c r="E110" s="11"/>
@@ -3245,23 +3299,23 @@
         <v>42614</v>
       </c>
       <c r="C111" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D111" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E111" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="F111" s="21" t="s">
         <v>129</v>
-      </c>
-      <c r="F111" s="21" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
       <c r="B112" s="28"/>
       <c r="C112" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D112" s="11"/>
       <c r="E112" s="32"/>
@@ -3275,16 +3329,16 @@
         <v>42615</v>
       </c>
       <c r="C113" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E113" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="F113" s="21" t="s">
         <v>129</v>
-      </c>
-      <c r="F113" s="21" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3295,43 +3349,43 @@
         <v>42615</v>
       </c>
       <c r="C114" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D114" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E114" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="F114" s="25" t="s">
         <v>165</v>
-      </c>
-      <c r="F114" s="25" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A115" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B115" s="26">
         <v>42615</v>
       </c>
       <c r="C115" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D115" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E115" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="F115" s="25" t="s">
         <v>193</v>
-      </c>
-      <c r="F115" s="25" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="11"/>
       <c r="B116" s="28"/>
       <c r="C116" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="32"/>
@@ -3345,83 +3399,83 @@
         <v>42619</v>
       </c>
       <c r="C117" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E117" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F117" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B118" s="26">
         <v>42619</v>
       </c>
       <c r="C118" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D118" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E118" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F118" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B119" s="26">
         <v>42619</v>
       </c>
       <c r="C119" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D119" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E119" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F119" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B120" s="26">
         <v>42619</v>
       </c>
       <c r="C120" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D120" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E120" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F120" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D121" s="13"/>
       <c r="E121" s="11"/>
@@ -3429,185 +3483,185 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B122" s="26">
         <v>42620</v>
       </c>
       <c r="C122" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D122" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E122" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F122" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B123" s="26">
         <v>42620</v>
       </c>
       <c r="C123" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D123" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E123" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F123" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B124" s="26">
         <v>42620</v>
       </c>
       <c r="C124" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D124" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E124" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="F124" s="25" t="s">
         <v>202</v>
-      </c>
-      <c r="F124" s="25" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B125" s="26">
         <v>42620</v>
       </c>
       <c r="C125" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D125" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E125" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F125" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B126" s="26">
         <v>42620</v>
       </c>
       <c r="C126" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D126" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E126" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F126" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B127" s="26">
         <v>42620</v>
       </c>
       <c r="C127" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D127" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E127" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="F127" s="25" t="s">
         <v>175</v>
-      </c>
-      <c r="F127" s="25" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B128" s="26">
         <v>42620</v>
       </c>
       <c r="C128" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D128" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E128" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="F128" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="F128" s="25" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B129" s="26">
         <v>42620</v>
       </c>
       <c r="C129" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D129" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E129" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F129" s="25" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B130" s="26">
         <v>42620</v>
       </c>
       <c r="C130" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D130" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E130" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="F130" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="F130" s="25" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="15" t="s">
         <v>19</v>
       </c>
@@ -3615,56 +3669,289 @@
         <v>42620</v>
       </c>
       <c r="C131" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D131" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E131" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="F131" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="F131" s="21" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B132" s="26">
         <v>42620</v>
       </c>
       <c r="C132" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D132" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E132" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F132" s="19" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B133" s="26">
         <v>42620</v>
       </c>
       <c r="C133" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D133" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E133" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F133" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="11"/>
+      <c r="B134" s="11"/>
+      <c r="C134" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D134" s="13"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="13"/>
+      <c r="G134" s="14"/>
+      <c r="H134" s="11"/>
+      <c r="I134" s="11"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B135" s="26">
+        <v>42621</v>
+      </c>
+      <c r="C135" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="D135" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E135" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="F135" s="25" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B136" s="26">
+        <v>42621</v>
+      </c>
+      <c r="C136" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="D136" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E136" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="F136" s="25" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B137" s="26">
+        <v>42621</v>
+      </c>
+      <c r="C137" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D137" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E137" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="F137" s="25" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B138" s="26">
+        <v>42621</v>
+      </c>
+      <c r="C138" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D138" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E138" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="F138" s="25" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B139" s="26">
+        <v>42621</v>
+      </c>
+      <c r="C139" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D139" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E139" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="F139" s="25" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A140" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B140" s="26">
+        <v>42621</v>
+      </c>
+      <c r="C140" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D140" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E140" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="F140" s="25" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B141" s="26">
+        <v>42621</v>
+      </c>
+      <c r="C141" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="D141" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E141" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="F141" s="21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B142" s="26">
+        <v>42621</v>
+      </c>
+      <c r="C142" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="D142" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E142" s="24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B143" s="26">
+        <v>42621</v>
+      </c>
+      <c r="C143" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="D143" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E143" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F143" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="G143" s="15"/>
+      <c r="H143" s="15"/>
+      <c r="I143" s="15"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B144" s="26">
+        <v>42615</v>
+      </c>
+      <c r="C144" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="D144" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E144" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="F144" s="25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B145" s="26">
+        <v>42615</v>
+      </c>
+      <c r="C145" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D145" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E145" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="F145" s="25" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3674,13 +3961,13 @@
     <sortCondition ref="D427:D515"/>
   </sortState>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A104 B105 A106:A109 B110 A111:A120 B121 A122:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A104 B105 A106:A109 B110 A111:A120 B121 A122:A133 B134 A135:A1048576">
       <formula1>Task_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D104 E105 D106:D109 E110 D111:D120 E121 D122:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D104 E105 D106:D109 E110 D111:D120 E121 D122:D133 E134 D135:D1048576">
       <formula1>Building</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A2 A9 A17 A21 A24 A28 A32 A35 A38 A54 A58 A64 A81 A86 A105 A110 A121">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A2 A9 A17 A21 A24 A28 A32 A35 A38 A54 A58 A64 A81 A86 A105 A110 A121 A134">
       <formula1>Staff_Name</formula1>
     </dataValidation>
   </dataValidations>
@@ -3696,8 +3983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A38" sqref="A2:A38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3720,10 +4007,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>21</v>
@@ -3748,7 +4035,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3759,23 +4046,23 @@
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>15</v>
@@ -3786,24 +4073,24 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>210</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -3811,7 +4098,7 @@
         <v>32</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>23</v>
@@ -3819,10 +4106,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>28</v>
@@ -3833,7 +4120,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>24</v>
@@ -3844,21 +4131,21 @@
         <v>7</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -3866,10 +4153,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -3880,37 +4167,37 @@
         <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>29</v>
@@ -3921,10 +4208,10 @@
         <v>6</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -3932,18 +4219,18 @@
         <v>34</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>26</v>
@@ -3951,72 +4238,72 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -4024,15 +4311,15 @@
         <v>8</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
@@ -4040,10 +4327,10 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>9</v>
       </c>
@@ -4051,48 +4338,48 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="C39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="C40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -1308,7 +1308,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A145" sqref="A145"/>
+      <selection pane="bottomLeft" activeCell="B136" sqref="B136:B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3739,7 +3739,7 @@
         <v>12</v>
       </c>
       <c r="B135" s="26">
-        <v>42621</v>
+        <v>42622</v>
       </c>
       <c r="C135" s="22" t="s">
         <v>211</v>
@@ -3759,7 +3759,7 @@
         <v>12</v>
       </c>
       <c r="B136" s="26">
-        <v>42621</v>
+        <v>42622</v>
       </c>
       <c r="C136" s="22" t="s">
         <v>213</v>
@@ -3779,7 +3779,7 @@
         <v>12</v>
       </c>
       <c r="B137" s="26">
-        <v>42621</v>
+        <v>42622</v>
       </c>
       <c r="C137" s="22" t="s">
         <v>215</v>
@@ -3799,7 +3799,7 @@
         <v>12</v>
       </c>
       <c r="B138" s="26">
-        <v>42621</v>
+        <v>42622</v>
       </c>
       <c r="C138" s="22" t="s">
         <v>215</v>
@@ -3819,7 +3819,7 @@
         <v>12</v>
       </c>
       <c r="B139" s="26">
-        <v>42621</v>
+        <v>42622</v>
       </c>
       <c r="C139" s="22" t="s">
         <v>215</v>
@@ -3839,7 +3839,7 @@
         <v>19</v>
       </c>
       <c r="B140" s="26">
-        <v>42621</v>
+        <v>42622</v>
       </c>
       <c r="C140" s="22" t="s">
         <v>215</v>
@@ -3859,7 +3859,7 @@
         <v>19</v>
       </c>
       <c r="B141" s="26">
-        <v>42621</v>
+        <v>42622</v>
       </c>
       <c r="C141" s="22" t="s">
         <v>226</v>
@@ -3879,7 +3879,7 @@
         <v>80</v>
       </c>
       <c r="B142" s="26">
-        <v>42621</v>
+        <v>42622</v>
       </c>
       <c r="C142" s="22" t="s">
         <v>208</v>
@@ -3896,7 +3896,7 @@
         <v>80</v>
       </c>
       <c r="B143" s="26">
-        <v>42621</v>
+        <v>42622</v>
       </c>
       <c r="C143" s="22" t="s">
         <v>227</v>
@@ -3919,7 +3919,7 @@
         <v>19</v>
       </c>
       <c r="B144" s="26">
-        <v>42615</v>
+        <v>42622</v>
       </c>
       <c r="C144" s="22" t="s">
         <v>226</v>
@@ -3939,7 +3939,7 @@
         <v>19</v>
       </c>
       <c r="B145" s="26">
-        <v>42615</v>
+        <v>42622</v>
       </c>
       <c r="C145" s="22" t="s">
         <v>134</v>

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="229">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1304,11 +1304,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I145"/>
+  <dimension ref="A1:I151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B136" sqref="B136:B145"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A152" sqref="A152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3739,7 +3739,7 @@
         <v>12</v>
       </c>
       <c r="B135" s="26">
-        <v>42622</v>
+        <v>42621</v>
       </c>
       <c r="C135" s="22" t="s">
         <v>211</v>
@@ -3759,7 +3759,7 @@
         <v>12</v>
       </c>
       <c r="B136" s="26">
-        <v>42622</v>
+        <v>42621</v>
       </c>
       <c r="C136" s="22" t="s">
         <v>213</v>
@@ -3779,7 +3779,7 @@
         <v>12</v>
       </c>
       <c r="B137" s="26">
-        <v>42622</v>
+        <v>42621</v>
       </c>
       <c r="C137" s="22" t="s">
         <v>215</v>
@@ -3799,7 +3799,7 @@
         <v>12</v>
       </c>
       <c r="B138" s="26">
-        <v>42622</v>
+        <v>42621</v>
       </c>
       <c r="C138" s="22" t="s">
         <v>215</v>
@@ -3819,7 +3819,7 @@
         <v>12</v>
       </c>
       <c r="B139" s="26">
-        <v>42622</v>
+        <v>42621</v>
       </c>
       <c r="C139" s="22" t="s">
         <v>215</v>
@@ -3839,7 +3839,7 @@
         <v>19</v>
       </c>
       <c r="B140" s="26">
-        <v>42622</v>
+        <v>42621</v>
       </c>
       <c r="C140" s="22" t="s">
         <v>215</v>
@@ -3859,7 +3859,7 @@
         <v>19</v>
       </c>
       <c r="B141" s="26">
-        <v>42622</v>
+        <v>42621</v>
       </c>
       <c r="C141" s="22" t="s">
         <v>226</v>
@@ -3879,7 +3879,7 @@
         <v>80</v>
       </c>
       <c r="B142" s="26">
-        <v>42622</v>
+        <v>42621</v>
       </c>
       <c r="C142" s="22" t="s">
         <v>208</v>
@@ -3896,7 +3896,7 @@
         <v>80</v>
       </c>
       <c r="B143" s="26">
-        <v>42622</v>
+        <v>42621</v>
       </c>
       <c r="C143" s="22" t="s">
         <v>227</v>
@@ -3919,7 +3919,7 @@
         <v>19</v>
       </c>
       <c r="B144" s="26">
-        <v>42622</v>
+        <v>42621</v>
       </c>
       <c r="C144" s="22" t="s">
         <v>226</v>
@@ -3934,12 +3934,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B145" s="26">
-        <v>42622</v>
+        <v>42621</v>
       </c>
       <c r="C145" s="22" t="s">
         <v>134</v>
@@ -3951,6 +3951,119 @@
         <v>228</v>
       </c>
       <c r="F145" s="25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="11"/>
+      <c r="B146" s="11"/>
+      <c r="C146" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D146" s="13"/>
+      <c r="E146" s="11"/>
+      <c r="F146" s="13"/>
+      <c r="G146" s="14"/>
+      <c r="H146" s="11"/>
+      <c r="I146" s="11"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B147" s="26">
+        <v>42622</v>
+      </c>
+      <c r="C147" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D147" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E147" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="F147" s="25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B148" s="26">
+        <v>42622</v>
+      </c>
+      <c r="C148" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D148" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E148" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="F148" s="25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B149" s="26">
+        <v>42622</v>
+      </c>
+      <c r="C149" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="D149" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E149" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="F149" s="21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B150" s="26">
+        <v>42622</v>
+      </c>
+      <c r="C150" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D150" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E150" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="F150" s="25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B151" s="26">
+        <v>42622</v>
+      </c>
+      <c r="C151" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D151" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E151" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="F151" s="25" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3961,13 +4074,13 @@
     <sortCondition ref="D427:D515"/>
   </sortState>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A104 B105 A106:A109 B110 A111:A120 B121 A122:A133 B134 A135:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A104 B105 A106:A109 B110 A111:A120 B121 A122:A133 B134 A135:A145 B146 A147:A1048576">
       <formula1>Task_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D104 E105 D106:D109 E110 D111:D120 E121 D122:D133 E134 D135:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D104 E105 D106:D109 E110 D111:D120 E121 D122:D133 E134 D135:D145 E146 D147:D1048576">
       <formula1>Building</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A2 A9 A17 A21 A24 A28 A32 A35 A38 A54 A58 A64 A81 A86 A105 A110 A121 A134">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A2 A9 A17 A21 A24 A28 A32 A35 A38 A54 A58 A64 A81 A86 A105 A110 A121 A134 A146">
       <formula1>Staff_Name</formula1>
     </dataValidation>
   </dataValidations>

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="245">
   <si>
     <t>Staff Name</t>
   </si>
@@ -772,6 +772,54 @@
   </si>
   <si>
     <t>118</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>Gary Spraakman</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>Karl Schmid</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Alan Marshall</t>
+  </si>
+  <si>
+    <t>107A</t>
+  </si>
+  <si>
+    <t>Marie-Jolie Rwigema</t>
+  </si>
+  <si>
+    <t>Lisa Feldstein</t>
+  </si>
+  <si>
+    <t>N812</t>
+  </si>
+  <si>
+    <t>S801</t>
+  </si>
+  <si>
+    <t>Rick Sin</t>
+  </si>
+  <si>
+    <t>1830</t>
+  </si>
+  <si>
+    <t>1152A</t>
+  </si>
+  <si>
+    <t>Roll-in PC.  Disconnect from laptop input and store in Vari 1155.</t>
+  </si>
+  <si>
+    <t>2150</t>
   </si>
 </sst>
 </file>
@@ -1304,11 +1352,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I151"/>
+  <dimension ref="A1:I166"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A152" sqref="A152"/>
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G166" sqref="G166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4065,6 +4113,284 @@
       </c>
       <c r="F151" s="25" t="s">
         <v>165</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="11"/>
+      <c r="B152" s="28"/>
+      <c r="C152" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D152" s="11"/>
+      <c r="E152" s="32"/>
+      <c r="F152" s="34"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B153" s="26">
+        <v>42625</v>
+      </c>
+      <c r="C153" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="D153" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E153" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="F153" s="25" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B154" s="26">
+        <v>42625</v>
+      </c>
+      <c r="C154" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="D154" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E154" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="F154" s="25" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B155" s="26">
+        <v>42625</v>
+      </c>
+      <c r="C155" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="D155" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E155" s="24" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B156" s="26">
+        <v>42625</v>
+      </c>
+      <c r="C156" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="D156" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E156" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="F156" s="25" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B157" s="26">
+        <v>42625</v>
+      </c>
+      <c r="C157" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="D157" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E157" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="F157" s="25" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B158" s="26">
+        <v>42625</v>
+      </c>
+      <c r="C158" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="D158" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E158" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="F158" s="25" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B159" s="26">
+        <v>42625</v>
+      </c>
+      <c r="C159" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="D159" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E159" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="F159" s="21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B160" s="26">
+        <v>42625</v>
+      </c>
+      <c r="C160" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="D160" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E160" s="24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B161" s="26">
+        <v>42625</v>
+      </c>
+      <c r="C161" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D161" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E161" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="F161" s="25" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B162" s="26">
+        <v>42625</v>
+      </c>
+      <c r="C162" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D162" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E162" s="24" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B163" s="26">
+        <v>42625</v>
+      </c>
+      <c r="C163" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D163" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E163" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="F163" s="25" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B164" s="26">
+        <v>42625</v>
+      </c>
+      <c r="C164" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D164" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E164" s="24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B165" s="26">
+        <v>42625</v>
+      </c>
+      <c r="C165" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="D165" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E165" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F165" s="25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B166" s="26">
+        <v>42625</v>
+      </c>
+      <c r="C166" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="D166" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E166" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="F166" s="25" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="251">
   <si>
     <t>Staff Name</t>
   </si>
@@ -820,6 +820,24 @@
   </si>
   <si>
     <t>2150</t>
+  </si>
+  <si>
+    <t>Luiz Marcio Cysneiros</t>
+  </si>
+  <si>
+    <t>Stephen Chen</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>Vitaly Kiryushcenko</t>
+  </si>
+  <si>
+    <t>Younes Benslimane</t>
+  </si>
+  <si>
+    <t>1545</t>
   </si>
 </sst>
 </file>
@@ -1352,11 +1370,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I166"/>
+  <dimension ref="A1:I176"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G166" sqref="G166"/>
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F179" sqref="F179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4391,6 +4409,189 @@
       </c>
       <c r="F166" s="25" t="s">
         <v>243</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="11"/>
+      <c r="B167" s="28"/>
+      <c r="C167" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D167" s="11"/>
+      <c r="E167" s="32"/>
+      <c r="F167" s="34"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B168" s="26">
+        <v>42626</v>
+      </c>
+      <c r="C168" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="D168" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E168" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="F168" s="25" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B169" s="26">
+        <v>42626</v>
+      </c>
+      <c r="C169" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D169" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E169" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="F169" s="21"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B170" s="26">
+        <v>42626</v>
+      </c>
+      <c r="C170" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="D170" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E170" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="F170" s="21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B171" s="26">
+        <v>42626</v>
+      </c>
+      <c r="C171" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="D171" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E171" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F171" s="21"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B172" s="26">
+        <v>42626</v>
+      </c>
+      <c r="C172" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="D172" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E172" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F172" s="25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B173" s="26">
+        <v>42626</v>
+      </c>
+      <c r="C173" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D173" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E173" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="F173" s="25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B174" s="26">
+        <v>42626</v>
+      </c>
+      <c r="C174" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D174" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E174" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="F174" s="25" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B175" s="26">
+        <v>42626</v>
+      </c>
+      <c r="C175" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D175" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E175" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="F175" s="25" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B176" s="26">
+        <v>42626</v>
+      </c>
+      <c r="C176" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="D176" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E176" s="24" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="273">
   <si>
     <t>Staff Name</t>
   </si>
@@ -838,6 +838,72 @@
   </si>
   <si>
     <t>1545</t>
+  </si>
+  <si>
+    <t>Lectern mic, desk mic with small PA etc. Return to Vanier 040.</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>Secondary neck mic and receiver is in the XLR input.  To ACW 108.</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>Georges Danhoundo</t>
+  </si>
+  <si>
+    <t>N814</t>
+  </si>
+  <si>
+    <t>Natasha Brien</t>
+  </si>
+  <si>
+    <t>S103</t>
+  </si>
+  <si>
+    <t>David Baumken</t>
+  </si>
+  <si>
+    <t>S129</t>
+  </si>
+  <si>
+    <t>Connect Windows laptop for Antonella Valeo</t>
+  </si>
+  <si>
+    <t>Syeda Farahnaaz Kabir</t>
+  </si>
+  <si>
+    <t>Marina Erechtchoukova</t>
+  </si>
+  <si>
+    <t>014-JCR</t>
+  </si>
+  <si>
+    <t>Neck mic and small PA to 040 Vanier.</t>
+  </si>
+  <si>
+    <t>Includes portable screen to 040 Vanier.</t>
+  </si>
+  <si>
+    <t>Audience mic, Lec mic, desk mic, neck mic.</t>
+  </si>
+  <si>
+    <t>Skype web cam to Ross S120 store.</t>
+  </si>
+  <si>
+    <t>Lec mic, desk mic also.</t>
+  </si>
+  <si>
+    <t>1620</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>Nat Taylor Cinema. Lock all cinema doors after shutdown.</t>
   </si>
 </sst>
 </file>
@@ -1370,11 +1436,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I176"/>
+  <dimension ref="A1:I203"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F179" sqref="F179"/>
+      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E208" sqref="E208:F208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4594,6 +4660,514 @@
         <v>214</v>
       </c>
     </row>
+    <row r="177" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="11"/>
+      <c r="B177" s="11"/>
+      <c r="C177" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D177" s="13"/>
+      <c r="E177" s="11"/>
+      <c r="F177" s="13"/>
+      <c r="G177" s="14"/>
+      <c r="H177" s="11"/>
+      <c r="I177" s="11"/>
+    </row>
+    <row r="178" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B178" s="26">
+        <v>42627</v>
+      </c>
+      <c r="C178" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D178" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E178" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="F178" s="25" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B179" s="26">
+        <v>42627</v>
+      </c>
+      <c r="C179" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D179" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E179" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="F179" s="25" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B180" s="26">
+        <v>42627</v>
+      </c>
+      <c r="C180" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D180" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E180" s="24" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B181" s="26">
+        <v>42627</v>
+      </c>
+      <c r="C181" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D181" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E181" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="F181" s="25" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B182" s="26">
+        <v>42627</v>
+      </c>
+      <c r="C182" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D182" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E182" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="F182" s="25" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B183" s="26">
+        <v>42627</v>
+      </c>
+      <c r="C183" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D183" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E183" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="F183" s="25" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B184" s="26">
+        <v>42627</v>
+      </c>
+      <c r="C184" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D184" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E184" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="F184" s="25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B185" s="26">
+        <v>42627</v>
+      </c>
+      <c r="C185" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="D185" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E185" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="F185" s="21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B186" s="26">
+        <v>42627</v>
+      </c>
+      <c r="C186" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="D186" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E186" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="F186" s="21"/>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B187" s="26">
+        <v>42627</v>
+      </c>
+      <c r="C187" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D187" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E187" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="F187" s="25" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B188" s="26">
+        <v>42627</v>
+      </c>
+      <c r="C188" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D188" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E188" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="F188" s="25" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B189" s="26">
+        <v>42627</v>
+      </c>
+      <c r="C189" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D189" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E189" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="F189" s="25" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B190" s="26">
+        <v>42627</v>
+      </c>
+      <c r="C190" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D190" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E190" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="F190" s="25" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B191" s="26">
+        <v>42627</v>
+      </c>
+      <c r="C191" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D191" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E191" s="24" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B192" s="26">
+        <v>42627</v>
+      </c>
+      <c r="C192" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D192" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E192" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="F192" s="25" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B193" s="26">
+        <v>42627</v>
+      </c>
+      <c r="C193" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D193" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E193" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="F193" s="25" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B194" s="26">
+        <v>42627</v>
+      </c>
+      <c r="C194" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D194" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E194" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="F194" s="25" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B195" s="26">
+        <v>42627</v>
+      </c>
+      <c r="C195" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D195" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E195" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F195" s="21"/>
+    </row>
+    <row r="196" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="11"/>
+      <c r="B196" s="11"/>
+      <c r="C196" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D196" s="13"/>
+      <c r="E196" s="11"/>
+      <c r="F196" s="13"/>
+      <c r="G196" s="14"/>
+      <c r="H196" s="11"/>
+      <c r="I196" s="11"/>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B197" s="26">
+        <v>42628</v>
+      </c>
+      <c r="C197" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D197" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E197" s="24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B198" s="26">
+        <v>42628</v>
+      </c>
+      <c r="C198" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D198" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E198" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="F198" s="25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B199" s="26">
+        <v>42628</v>
+      </c>
+      <c r="C199" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="D199" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E199" s="24" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B200" s="26">
+        <v>42628</v>
+      </c>
+      <c r="C200" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="D200" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E200" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F200" s="21"/>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B201" s="26">
+        <v>42628</v>
+      </c>
+      <c r="C201" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="D201" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E201" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="F201" s="25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B202" s="26">
+        <v>42628</v>
+      </c>
+      <c r="C202" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="D202" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E202" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="F202" s="21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B203" s="26">
+        <v>42628</v>
+      </c>
+      <c r="C203" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="D203" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E203" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F203" s="25" t="s">
+        <v>272</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0"/>
   <sortState ref="A427:G515">
@@ -4601,13 +5175,13 @@
     <sortCondition ref="D427:D515"/>
   </sortState>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A104 B105 A106:A109 B110 A111:A120 B121 A122:A133 B134 A135:A145 B146 A147:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A104 B105 A106:A109 B110 A111:A120 B121 A122:A133 B134 A135:A145 B146 A147:A176 B177 A178:A195 B196 A197:A199 A200:A1048576">
       <formula1>Task_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D104 E105 D106:D109 E110 D111:D120 E121 D122:D133 E134 D135:D145 E146 D147:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D104 E105 D106:D109 E110 D111:D120 E121 D122:D133 E134 D135:D145 E146 D147:D176 E177 D178:D195 E196 D197:D199 D200:D1048576">
       <formula1>Building</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A2 A9 A17 A21 A24 A28 A32 A35 A38 A54 A58 A64 A81 A86 A105 A110 A121 A134 A146">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A2 A9 A17 A21 A24 A28 A32 A35 A38 A54 A58 A64 A81 A86 A105 A110 A121 A134 A146 A177 A196">
       <formula1>Staff_Name</formula1>
     </dataValidation>
   </dataValidations>

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="273">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1436,11 +1436,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I203"/>
+  <dimension ref="A1:I206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E208" sqref="E208:F208"/>
+      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C206" sqref="C206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5156,7 +5156,7 @@
         <v>42628</v>
       </c>
       <c r="C203" s="22" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="D203" s="23" t="s">
         <v>59</v>
@@ -5166,6 +5166,56 @@
       </c>
       <c r="F203" s="25" t="s">
         <v>272</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204" s="11"/>
+      <c r="B204" s="11"/>
+      <c r="C204" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D204" s="13"/>
+      <c r="E204" s="11"/>
+      <c r="F204" s="13"/>
+      <c r="G204" s="14"/>
+      <c r="H204" s="11"/>
+      <c r="I204" s="11"/>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B205" s="26">
+        <v>42629</v>
+      </c>
+      <c r="C205" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D205" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E205" s="24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B206" s="26">
+        <v>42629</v>
+      </c>
+      <c r="C206" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="D206" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E206" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="F206" s="21" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -5175,13 +5225,13 @@
     <sortCondition ref="D427:D515"/>
   </sortState>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A104 B105 A106:A109 B110 A111:A120 B121 A122:A133 B134 A135:A145 B146 A147:A176 B177 A178:A195 B196 A197:A199 A200:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A104 B105 A106:A109 B110 A111:A120 B121 A122:A133 B134 A135:A145 B146 A147:A176 B177 A178:A195 B196 A197:A203 B204 A205:A1048576">
       <formula1>Task_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D104 E105 D106:D109 E110 D111:D120 E121 D122:D133 E134 D135:D145 E146 D147:D176 E177 D178:D195 E196 D197:D199 D200:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D104 E105 D106:D109 E110 D111:D120 E121 D122:D133 E134 D135:D145 E146 D147:D176 E177 D178:D195 E196 D197:D203 E204 D205:D1048576">
       <formula1>Building</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A2 A9 A17 A21 A24 A28 A32 A35 A38 A54 A58 A64 A81 A86 A105 A110 A121 A134 A146 A177 A196">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A2 A9 A17 A21 A24 A28 A32 A35 A38 A54 A58 A64 A81 A86 A105 A110 A121 A134 A146 A177 A196 A204">
       <formula1>Staff_Name</formula1>
     </dataValidation>
   </dataValidations>

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="276">
   <si>
     <t>Staff Name</t>
   </si>
@@ -904,6 +904,15 @@
   </si>
   <si>
     <t>Nat Taylor Cinema. Lock all cinema doors after shutdown.</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>Jennifer Hilborn</t>
   </si>
 </sst>
 </file>
@@ -1436,11 +1445,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I206"/>
+  <dimension ref="A1:I219"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C206" sqref="C206"/>
+      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C227" sqref="C227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5215,6 +5224,238 @@
         <v>128</v>
       </c>
       <c r="F206" s="21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207" s="11"/>
+      <c r="B207" s="28"/>
+      <c r="C207" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D207" s="11"/>
+      <c r="E207" s="32"/>
+      <c r="F207" s="34"/>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B208" s="26">
+        <v>42632</v>
+      </c>
+      <c r="C208" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D208" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E208" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="F208" s="25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B209" s="26">
+        <v>42632</v>
+      </c>
+      <c r="C209" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D209" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E209" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="F209" s="25" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B210" s="26">
+        <v>42632</v>
+      </c>
+      <c r="C210" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="D210" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E210" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="F210" s="21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B211" s="26">
+        <v>42632</v>
+      </c>
+      <c r="C211" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="D211" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E211" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="F211" s="21"/>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B212" s="26">
+        <v>42632</v>
+      </c>
+      <c r="C212" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D212" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E212" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="F212" s="25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B213" s="26">
+        <v>42632</v>
+      </c>
+      <c r="C213" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D213" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E213" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F213" s="21"/>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B214" s="26">
+        <v>42632</v>
+      </c>
+      <c r="C214" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="D214" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E214" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F214" s="25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="11"/>
+      <c r="B215" s="28"/>
+      <c r="C215" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D215" s="11"/>
+      <c r="E215" s="32"/>
+      <c r="F215" s="34"/>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B216" s="26">
+        <v>42633</v>
+      </c>
+      <c r="C216" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D216" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E216" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="F216" s="21"/>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B217" s="26">
+        <v>42633</v>
+      </c>
+      <c r="C217" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="D217" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E217" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F217" s="21"/>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B218" s="26">
+        <v>42633</v>
+      </c>
+      <c r="C218" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="D218" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E218" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F218" s="25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B219" s="26">
+        <v>42633</v>
+      </c>
+      <c r="C219" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="D219" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E219" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="F219" s="21" t="s">
         <v>129</v>
       </c>
     </row>

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="280">
   <si>
     <t>Staff Name</t>
   </si>
@@ -913,6 +913,18 @@
   </si>
   <si>
     <t>Jennifer Hilborn</t>
+  </si>
+  <si>
+    <t>1016</t>
+  </si>
+  <si>
+    <t>Return web cam, tripod and extension USB cable to Vari 1019.</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>Equipment is there 24/7.  Turn on for client.  Key in FC 164.</t>
   </si>
 </sst>
 </file>
@@ -1445,11 +1457,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I219"/>
+  <dimension ref="A1:I227"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C227" sqref="C227"/>
+      <pane ySplit="1" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B230" sqref="B230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4150,7 +4162,7 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="15" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="B149" s="26">
         <v>42622</v>
@@ -4337,7 +4349,7 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="15" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="B159" s="26">
         <v>42625</v>
@@ -4536,7 +4548,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="15" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="B170" s="26">
         <v>42626</v>
@@ -4821,7 +4833,7 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="15" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="B185" s="26">
         <v>42627</v>
@@ -5139,7 +5151,7 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="15" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="B202" s="26">
         <v>42628</v>
@@ -5257,7 +5269,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="15" t="s">
         <v>87</v>
       </c>
@@ -5277,9 +5289,9 @@
         <v>179</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="15" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="B210" s="26">
         <v>42632</v>
@@ -5297,7 +5309,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="15" t="s">
         <v>80</v>
       </c>
@@ -5315,7 +5327,7 @@
       </c>
       <c r="F211" s="21"/>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="15" t="s">
         <v>12</v>
       </c>
@@ -5335,7 +5347,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="15" t="s">
         <v>80</v>
       </c>
@@ -5353,7 +5365,7 @@
       </c>
       <c r="F213" s="21"/>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="15" t="s">
         <v>80</v>
       </c>
@@ -5373,7 +5385,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="11"/>
       <c r="B215" s="28"/>
       <c r="C215" s="13" t="s">
@@ -5383,7 +5395,7 @@
       <c r="E215" s="32"/>
       <c r="F215" s="34"/>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="15" t="s">
         <v>80</v>
       </c>
@@ -5401,7 +5413,7 @@
       </c>
       <c r="F216" s="21"/>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="15" t="s">
         <v>80</v>
       </c>
@@ -5419,7 +5431,7 @@
       </c>
       <c r="F217" s="21"/>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="15" t="s">
         <v>80</v>
       </c>
@@ -5439,9 +5451,9 @@
         <v>206</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="15" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="B219" s="26">
         <v>42633</v>
@@ -5457,6 +5469,155 @@
       </c>
       <c r="F219" s="21" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="11"/>
+      <c r="B220" s="11"/>
+      <c r="C220" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D220" s="13"/>
+      <c r="E220" s="11"/>
+      <c r="F220" s="13"/>
+      <c r="G220" s="14"/>
+      <c r="H220" s="11"/>
+      <c r="I220" s="11"/>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B221" s="26">
+        <v>42634</v>
+      </c>
+      <c r="C221" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="D221" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E221" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="F221" s="25" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A222" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B222" s="26">
+        <v>42634</v>
+      </c>
+      <c r="C222" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="D222" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E222" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="F222" s="25" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A223" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B223" s="26">
+        <v>42634</v>
+      </c>
+      <c r="C223" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="D223" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E223" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="F223" s="21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A224" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B224" s="26">
+        <v>42634</v>
+      </c>
+      <c r="C224" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="D224" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E224" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="F224" s="21"/>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B225" s="26">
+        <v>42634</v>
+      </c>
+      <c r="C225" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D225" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E225" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F225" s="25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B226" s="26">
+        <v>42634</v>
+      </c>
+      <c r="C226" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D226" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E226" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F226" s="21"/>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B227" s="26">
+        <v>42634</v>
+      </c>
+      <c r="C227" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="D227" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E227" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="F227" s="25" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -5466,13 +5627,13 @@
     <sortCondition ref="D427:D515"/>
   </sortState>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A104 B105 A106:A109 B110 A111:A120 B121 A122:A133 B134 A135:A145 B146 A147:A176 B177 A178:A195 B196 A197:A203 B204 A205:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A104 B105 A106:A109 B110 A111:A120 B121 A122:A133 B134 A135:A145 B146 A147:A176 B177 A178:A195 B196 A197:A203 B204 A205:A219 B220 A221:A1048576">
       <formula1>Task_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D104 E105 D106:D109 E110 D111:D120 E121 D122:D133 E134 D135:D145 E146 D147:D176 E177 D178:D195 E196 D197:D203 E204 D205:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D104 E105 D106:D109 E110 D111:D120 E121 D122:D133 E134 D135:D145 E146 D147:D176 E177 D178:D195 E196 D197:D203 E204 D205:D219 E220 D221:D1048576">
       <formula1>Building</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A2 A9 A17 A21 A24 A28 A32 A35 A38 A54 A58 A64 A81 A86 A105 A110 A121 A134 A146 A177 A196 A204">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A2 A9 A17 A21 A24 A28 A32 A35 A38 A54 A58 A64 A81 A86 A105 A110 A121 A134 A146 A177 A196 A204 A220">
       <formula1>Staff_Name</formula1>
     </dataValidation>
   </dataValidations>

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="292">
   <si>
     <t>Staff Name</t>
   </si>
@@ -925,6 +925,42 @@
   </si>
   <si>
     <t>Equipment is there 24/7.  Turn on for client.  Key in FC 164.</t>
+  </si>
+  <si>
+    <t>101A</t>
+  </si>
+  <si>
+    <t>Pickup Adesso wireless keyboard and Samsung remote to FDRS 164.</t>
+  </si>
+  <si>
+    <t>Lec mic, stand, cables etc. to Vanier 040.23</t>
+  </si>
+  <si>
+    <t>Second demo.</t>
+  </si>
+  <si>
+    <t>Door code 7083* Screen there already. From FDRS 156A</t>
+  </si>
+  <si>
+    <t>1715</t>
+  </si>
+  <si>
+    <t>Web cam is in FDRS 164 storeroom. Demo to Roopa.</t>
+  </si>
+  <si>
+    <t>Neck mic, small PA. from FDRS 156A.</t>
+  </si>
+  <si>
+    <t>Return web cam and tripod to FDRS 164.</t>
+  </si>
+  <si>
+    <t>1750</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>Wendy Brathwaite</t>
   </si>
 </sst>
 </file>
@@ -1457,11 +1493,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I227"/>
+  <dimension ref="A1:I246"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B230" sqref="B230"/>
+      <pane ySplit="1" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A246" sqref="A246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5562,7 +5598,7 @@
       </c>
       <c r="F224" s="21"/>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="15" t="s">
         <v>80</v>
       </c>
@@ -5582,7 +5618,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="15" t="s">
         <v>80</v>
       </c>
@@ -5600,7 +5636,7 @@
       </c>
       <c r="F226" s="21"/>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="15" t="s">
         <v>80</v>
       </c>
@@ -5618,6 +5654,369 @@
       </c>
       <c r="F227" s="25" t="s">
         <v>157</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="11"/>
+      <c r="B228" s="11"/>
+      <c r="C228" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D228" s="13"/>
+      <c r="E228" s="11"/>
+      <c r="F228" s="13"/>
+      <c r="G228" s="14"/>
+      <c r="H228" s="11"/>
+      <c r="I228" s="11"/>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A229" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B229" s="26">
+        <v>42635</v>
+      </c>
+      <c r="C229" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D229" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E229" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="F229" s="21"/>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A230" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B230" s="26">
+        <v>42635</v>
+      </c>
+      <c r="C230" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D230" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E230" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="F230" s="25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B231" s="26">
+        <v>42635</v>
+      </c>
+      <c r="C231" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D231" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E231" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="F231" s="25" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A232" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B232" s="26">
+        <v>42635</v>
+      </c>
+      <c r="C232" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D232" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E232" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="F232" s="25" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A233" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B233" s="26">
+        <v>42635</v>
+      </c>
+      <c r="C233" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D233" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E233" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="F233" s="25" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A234" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B234" s="26">
+        <v>42635</v>
+      </c>
+      <c r="C234" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="D234" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E234" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="F234" s="25" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A235" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B235" s="26">
+        <v>42635</v>
+      </c>
+      <c r="C235" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="D235" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E235" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="F235" s="25" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A236" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B236" s="26">
+        <v>42635</v>
+      </c>
+      <c r="C236" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="D236" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E236" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="F236" s="25" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A237" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B237" s="26">
+        <v>42635</v>
+      </c>
+      <c r="C237" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="D237" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E237" s="24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A238" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B238" s="26">
+        <v>42635</v>
+      </c>
+      <c r="C238" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="D238" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E238" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="F238" s="25" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A239" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B239" s="26">
+        <v>42635</v>
+      </c>
+      <c r="C239" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="D239" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E239" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F239" s="21"/>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A240" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B240" s="26">
+        <v>42635</v>
+      </c>
+      <c r="C240" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="D240" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E240" s="24" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B241" s="26">
+        <v>42635</v>
+      </c>
+      <c r="C241" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D241" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E241" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="F241" s="25" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B242" s="26">
+        <v>42635</v>
+      </c>
+      <c r="C242" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="D242" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E242" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="F242" s="25" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B243" s="26">
+        <v>42635</v>
+      </c>
+      <c r="C243" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="D243" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E243" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="F243" s="21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B244" s="26">
+        <v>42635</v>
+      </c>
+      <c r="C244" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="D244" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E244" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="F244" s="25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B245" s="26">
+        <v>42635</v>
+      </c>
+      <c r="C245" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="D245" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E245" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="F245" s="25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B246" s="26">
+        <v>42635</v>
+      </c>
+      <c r="C246" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="D246" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E246" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F246" s="25" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -5627,13 +6026,13 @@
     <sortCondition ref="D427:D515"/>
   </sortState>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A104 B105 A106:A109 B110 A111:A120 B121 A122:A133 B134 A135:A145 B146 A147:A176 B177 A178:A195 B196 A197:A203 B204 A205:A219 B220 A221:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A104 B105 A106:A109 B110 A111:A120 B121 A122:A133 B134 A135:A145 B146 A147:A176 B177 A178:A195 B196 A197:A203 B204 A205:A219 B220 A221:A227 B228 A229:A1048576">
       <formula1>Task_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D104 E105 D106:D109 E110 D111:D120 E121 D122:D133 E134 D135:D145 E146 D147:D176 E177 D178:D195 E196 D197:D203 E204 D205:D219 E220 D221:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D104 E105 D106:D109 E110 D111:D120 E121 D122:D133 E134 D135:D145 E146 D147:D176 E177 D178:D195 E196 D197:D203 E204 D205:D219 E220 D221:D227 E228 D229:D1048576">
       <formula1>Building</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A2 A9 A17 A21 A24 A28 A32 A35 A38 A54 A58 A64 A81 A86 A105 A110 A121 A134 A146 A177 A196 A204 A220">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A2 A9 A17 A21 A24 A28 A32 A35 A38 A54 A58 A64 A81 A86 A105 A110 A121 A134 A146 A177 A196 A204 A220 A228">
       <formula1>Staff_Name</formula1>
     </dataValidation>
   </dataValidations>

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="295">
   <si>
     <t>Staff Name</t>
   </si>
@@ -961,6 +961,15 @@
   </si>
   <si>
     <t>Wendy Brathwaite</t>
+  </si>
+  <si>
+    <t>1018</t>
+  </si>
+  <si>
+    <t>Flat screen TV, wireless ethernet and wireless keyboard. Turn off wireless keyboard before placing in carry-all bag. To Vari 1019 across the hall.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pick up Keyboard and remote for the DLP TV. Return to FC 164. </t>
   </si>
 </sst>
 </file>
@@ -1493,11 +1502,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I246"/>
+  <dimension ref="A1:I258"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A246" sqref="A246"/>
+      <pane ySplit="1" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E259" sqref="E259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5257,7 +5266,7 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="15" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="B206" s="26">
         <v>42629</v>
@@ -5899,7 +5908,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="15" t="s">
         <v>12</v>
       </c>
@@ -5919,7 +5928,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="15" t="s">
         <v>93</v>
       </c>
@@ -5939,7 +5948,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="15" t="s">
         <v>19</v>
       </c>
@@ -5959,7 +5968,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="15" t="s">
         <v>91</v>
       </c>
@@ -5979,7 +5988,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="15" t="s">
         <v>87</v>
       </c>
@@ -5999,7 +6008,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="15" t="s">
         <v>80</v>
       </c>
@@ -6017,6 +6026,222 @@
       </c>
       <c r="F246" s="25" t="s">
         <v>206</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A247" s="11"/>
+      <c r="B247" s="11"/>
+      <c r="C247" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D247" s="13"/>
+      <c r="E247" s="11"/>
+      <c r="F247" s="13"/>
+      <c r="G247" s="14"/>
+      <c r="H247" s="11"/>
+      <c r="I247" s="11"/>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A248" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B248" s="26">
+        <v>42636</v>
+      </c>
+      <c r="C248" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D248" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E248" s="24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A249" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B249" s="26">
+        <v>42636</v>
+      </c>
+      <c r="C249" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="D249" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E249" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="F249" s="21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A250" s="11"/>
+      <c r="B250" s="28"/>
+      <c r="C250" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D250" s="11"/>
+      <c r="E250" s="32"/>
+      <c r="F250" s="34"/>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A251" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B251" s="26">
+        <v>42639</v>
+      </c>
+      <c r="C251" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D251" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E251" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="F251" s="25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A252" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B252" s="26">
+        <v>42639</v>
+      </c>
+      <c r="C252" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D252" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E252" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="F252" s="25" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A253" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B253" s="26">
+        <v>42639</v>
+      </c>
+      <c r="C253" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="D253" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E253" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="F253" s="21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A254" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B254" s="26">
+        <v>42639</v>
+      </c>
+      <c r="C254" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="D254" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E254" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="F254" s="21"/>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A255" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B255" s="26">
+        <v>42639</v>
+      </c>
+      <c r="C255" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D255" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E255" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F255" s="21"/>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A256" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B256" s="26">
+        <v>42639</v>
+      </c>
+      <c r="C256" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="D256" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E256" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F256" s="25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A257" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B257" s="26">
+        <v>42639</v>
+      </c>
+      <c r="C257" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="D257" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E257" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="F257" s="25" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B258" s="26">
+        <v>42639</v>
+      </c>
+      <c r="C258" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D258" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E258" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="F258" s="25" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -6026,13 +6251,13 @@
     <sortCondition ref="D427:D515"/>
   </sortState>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A104 B105 A106:A109 B110 A111:A120 B121 A122:A133 B134 A135:A145 B146 A147:A176 B177 A178:A195 B196 A197:A203 B204 A205:A219 B220 A221:A227 B228 A229:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A104 B105 A106:A109 B110 A111:A120 B121 A122:A133 B134 A135:A145 B146 A147:A176 B177 A178:A195 B196 A197:A203 B204 A205:A219 B220 A221:A227 B228 A229:A246 B247 A248:A1048576">
       <formula1>Task_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D104 E105 D106:D109 E110 D111:D120 E121 D122:D133 E134 D135:D145 E146 D147:D176 E177 D178:D195 E196 D197:D203 E204 D205:D219 E220 D221:D227 E228 D229:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D104 E105 D106:D109 E110 D111:D120 E121 D122:D133 E134 D135:D145 E146 D147:D176 E177 D178:D195 E196 D197:D203 E204 D205:D219 E220 D221:D227 E228 D229:D246 E247 D248:D1048576">
       <formula1>Building</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A2 A9 A17 A21 A24 A28 A32 A35 A38 A54 A58 A64 A81 A86 A105 A110 A121 A134 A146 A177 A196 A204 A220 A228">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A2 A9 A17 A21 A24 A28 A32 A35 A38 A54 A58 A64 A81 A86 A105 A110 A121 A134 A146 A177 A196 A204 A220 A228 A247">
       <formula1>Staff_Name</formula1>
     </dataValidation>
   </dataValidations>

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="297">
   <si>
     <t>Staff Name</t>
   </si>
@@ -970,6 +970,35 @@
   </si>
   <si>
     <t xml:space="preserve">Pick up Keyboard and remote for the DLP TV. Return to FC 164. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Flat screen TV, wireless keyboard. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Turn off wireless keyboard before placing in carry-all bag</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. To Vari 1019 across the hall. Also includes an ethernet cable and an orange extension cord. </t>
+    </r>
+  </si>
+  <si>
+    <t>Help connect Windows Laptop for Antonella Valeo.  Bring VGA cable and connect her laptop to Input 2 on the projector. Select input 2 on projector.</t>
   </si>
 </sst>
 </file>
@@ -1502,11 +1531,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I258"/>
+  <dimension ref="A1:I271"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E259" sqref="E259"/>
+      <pane ySplit="1" topLeftCell="A256" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G278" sqref="G278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6204,7 +6233,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A257" s="15" t="s">
         <v>87</v>
       </c>
@@ -6224,7 +6253,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="15" t="s">
         <v>19</v>
       </c>
@@ -6242,6 +6271,241 @@
       </c>
       <c r="F258" s="25" t="s">
         <v>294</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A259" s="11"/>
+      <c r="B259" s="28"/>
+      <c r="C259" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D259" s="11"/>
+      <c r="E259" s="32"/>
+      <c r="F259" s="34"/>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A260" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B260" s="26">
+        <v>42640</v>
+      </c>
+      <c r="C260" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D260" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E260" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="F260" s="21"/>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A261" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B261" s="26">
+        <v>42640</v>
+      </c>
+      <c r="C261" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="D261" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E261" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F261" s="21"/>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A262" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B262" s="26">
+        <v>42640</v>
+      </c>
+      <c r="C262" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="D262" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E262" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="F262" s="21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A263" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B263" s="26">
+        <v>42640</v>
+      </c>
+      <c r="C263" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="D263" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E263" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="F263" s="25" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A264" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B264" s="26">
+        <v>42640</v>
+      </c>
+      <c r="C264" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="D264" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E264" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F264" s="25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="11"/>
+      <c r="B265" s="11"/>
+      <c r="C265" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D265" s="13"/>
+      <c r="E265" s="11"/>
+      <c r="F265" s="13"/>
+      <c r="G265" s="14"/>
+      <c r="H265" s="11"/>
+      <c r="I265" s="11"/>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A266" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B266" s="26">
+        <v>42641</v>
+      </c>
+      <c r="C266" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="D266" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E266" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="F266" s="25" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A267" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B267" s="26">
+        <v>42634</v>
+      </c>
+      <c r="C267" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="D267" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E267" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="F267" s="21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A268" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B268" s="26">
+        <v>42634</v>
+      </c>
+      <c r="C268" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="D268" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E268" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="F268" s="21"/>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A269" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B269" s="26">
+        <v>42634</v>
+      </c>
+      <c r="C269" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D269" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E269" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F269" s="25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A270" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B270" s="26">
+        <v>42634</v>
+      </c>
+      <c r="C270" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D270" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E270" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F270" s="21"/>
+    </row>
+    <row r="271" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A271" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B271" s="26">
+        <v>42641</v>
+      </c>
+      <c r="C271" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D271" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E271" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="F271" s="25" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -6251,13 +6515,13 @@
     <sortCondition ref="D427:D515"/>
   </sortState>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A104 B105 A106:A109 B110 A111:A120 B121 A122:A133 B134 A135:A145 B146 A147:A176 B177 A178:A195 B196 A197:A203 B204 A205:A219 B220 A221:A227 B228 A229:A246 B247 A248:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A104 B105 A106:A109 B110 A111:A120 B121 A122:A133 B134 A135:A145 B146 A147:A176 B177 A178:A195 B196 A197:A203 B204 A205:A219 B220 A221:A227 B228 A229:A246 B247 A248:A264 B265 A266:A1048576">
       <formula1>Task_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D104 E105 D106:D109 E110 D111:D120 E121 D122:D133 E134 D135:D145 E146 D147:D176 E177 D178:D195 E196 D197:D203 E204 D205:D219 E220 D221:D227 E228 D229:D246 E247 D248:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D104 E105 D106:D109 E110 D111:D120 E121 D122:D133 E134 D135:D145 E146 D147:D176 E177 D178:D195 E196 D197:D203 E204 D205:D219 E220 D221:D227 E228 D229:D246 E247 D248:D264 E265 D266:D1048576">
       <formula1>Building</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A2 A9 A17 A21 A24 A28 A32 A35 A38 A54 A58 A64 A81 A86 A105 A110 A121 A134 A146 A177 A196 A204 A220 A228 A247">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A2 A9 A17 A21 A24 A28 A32 A35 A38 A54 A58 A64 A81 A86 A105 A110 A121 A134 A146 A177 A196 A204 A220 A228 A247 A265">
       <formula1>Staff_Name</formula1>
     </dataValidation>
   </dataValidations>

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="303">
   <si>
     <t>Staff Name</t>
   </si>
@@ -999,6 +999,24 @@
   </si>
   <si>
     <t>Help connect Windows Laptop for Antonella Valeo.  Bring VGA cable and connect her laptop to Input 2 on the projector. Select input 2 on projector.</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>Roll-in PC. Disconnect from laptop input and store in FDRS 156A.  VGA cable belongs in the drawer In the classroom.</t>
+  </si>
+  <si>
+    <t>S803</t>
+  </si>
+  <si>
+    <t>Connect Mac laptop for Poiffet. She has cables.</t>
+  </si>
+  <si>
+    <t>N145</t>
+  </si>
+  <si>
+    <t>Instructor has issues with the computer and projector.</t>
   </si>
 </sst>
 </file>
@@ -1139,7 +1157,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1224,6 +1242,15 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1531,11 +1558,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I271"/>
+  <dimension ref="A1:I290"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A256" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G278" sqref="G278"/>
+      <pane ySplit="1" topLeftCell="A270" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D295" sqref="D295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6417,7 +6444,7 @@
         <v>19</v>
       </c>
       <c r="B267" s="26">
-        <v>42634</v>
+        <v>42641</v>
       </c>
       <c r="C267" s="22" t="s">
         <v>208</v>
@@ -6437,7 +6464,7 @@
         <v>80</v>
       </c>
       <c r="B268" s="26">
-        <v>42634</v>
+        <v>42641</v>
       </c>
       <c r="C268" s="22" t="s">
         <v>208</v>
@@ -6455,7 +6482,7 @@
         <v>80</v>
       </c>
       <c r="B269" s="26">
-        <v>42634</v>
+        <v>42641</v>
       </c>
       <c r="C269" s="22" t="s">
         <v>111</v>
@@ -6475,7 +6502,7 @@
         <v>80</v>
       </c>
       <c r="B270" s="26">
-        <v>42634</v>
+        <v>42641</v>
       </c>
       <c r="C270" s="22" t="s">
         <v>111</v>
@@ -6506,6 +6533,351 @@
       </c>
       <c r="F271" s="25" t="s">
         <v>296</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A272" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B272" s="26">
+        <v>42641</v>
+      </c>
+      <c r="C272" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="D272" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E272" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="F272" s="25" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="11"/>
+      <c r="B273" s="11"/>
+      <c r="C273" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D273" s="13"/>
+      <c r="E273" s="11"/>
+      <c r="F273" s="13"/>
+      <c r="G273" s="14"/>
+      <c r="H273" s="11"/>
+      <c r="I273" s="11"/>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A274" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B274" s="26">
+        <v>42642</v>
+      </c>
+      <c r="C274" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D274" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E274" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="F274" s="21"/>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A275" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B275" s="26">
+        <v>42642</v>
+      </c>
+      <c r="C275" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D275" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E275" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="F275" s="25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A276" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B276" s="26">
+        <v>42642</v>
+      </c>
+      <c r="C276" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="D276" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E276" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F276" s="21"/>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A277" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B277" s="26">
+        <v>42642</v>
+      </c>
+      <c r="C277" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="D277" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E277" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="F277" s="21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A278" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B278" s="26">
+        <v>42642</v>
+      </c>
+      <c r="C278" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="D278" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E278" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F278" s="25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A279" s="11"/>
+      <c r="B279" s="11"/>
+      <c r="C279" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D279" s="13"/>
+      <c r="E279" s="11"/>
+      <c r="F279" s="13"/>
+      <c r="G279" s="14"/>
+      <c r="H279" s="11"/>
+      <c r="I279" s="11"/>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A280" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B280" s="26">
+        <v>42643</v>
+      </c>
+      <c r="C280" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D280" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E280" s="24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A281" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B281" s="26">
+        <v>42643</v>
+      </c>
+      <c r="C281" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="D281" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E281" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="F281" s="21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A282" s="11"/>
+      <c r="B282" s="28"/>
+      <c r="C282" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D282" s="11"/>
+      <c r="E282" s="32"/>
+      <c r="F282" s="34"/>
+    </row>
+    <row r="283" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B283" s="26">
+        <v>42646</v>
+      </c>
+      <c r="C283" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="D283" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E283" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="F283" s="36" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B284" s="26">
+        <v>42646</v>
+      </c>
+      <c r="C284" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="D284" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E284" s="35" t="s">
+        <v>301</v>
+      </c>
+      <c r="F284" s="36" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A285" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B285" s="26">
+        <v>42646</v>
+      </c>
+      <c r="C285" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D285" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E285" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="F285" s="25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A286" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B286" s="26">
+        <v>42646</v>
+      </c>
+      <c r="C286" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D286" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E286" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="F286" s="25" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A287" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B287" s="26">
+        <v>42639</v>
+      </c>
+      <c r="C287" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="D287" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E287" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="F287" s="21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A288" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B288" s="26">
+        <v>42639</v>
+      </c>
+      <c r="C288" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="D288" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E288" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F288" s="21"/>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B289" s="26">
+        <v>42639</v>
+      </c>
+      <c r="C289" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="D289" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E289" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="F289" s="21"/>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B290" s="26">
+        <v>42639</v>
+      </c>
+      <c r="C290" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="D290" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E290" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F290" s="25" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -6515,13 +6887,13 @@
     <sortCondition ref="D427:D515"/>
   </sortState>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A104 B105 A106:A109 B110 A111:A120 B121 A122:A133 B134 A135:A145 B146 A147:A176 B177 A178:A195 B196 A197:A203 B204 A205:A219 B220 A221:A227 B228 A229:A246 B247 A248:A264 B265 A266:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A104 B105 A106:A109 B110 A111:A120 B121 A122:A133 B134 A135:A145 B146 A147:A176 B177 A178:A195 B196 A197:A203 B204 A205:A219 B220 A221:A227 B228 A229:A246 B247 A248:A264 B265 A266:A272 B273 A274:A278 B279 A280:A1048576">
       <formula1>Task_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D104 E105 D106:D109 E110 D111:D120 E121 D122:D133 E134 D135:D145 E146 D147:D176 E177 D178:D195 E196 D197:D203 E204 D205:D219 E220 D221:D227 E228 D229:D246 E247 D248:D264 E265 D266:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D104 E105 D106:D109 E110 D111:D120 E121 D122:D133 E134 D135:D145 E146 D147:D176 E177 D178:D195 E196 D197:D203 E204 D205:D219 E220 D221:D227 E228 D229:D246 E247 D248:D264 E265 D266:D272 E273 D274:D278 E279 D280:D1048576">
       <formula1>Building</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A2 A9 A17 A21 A24 A28 A32 A35 A38 A54 A58 A64 A81 A86 A105 A110 A121 A134 A146 A177 A196 A204 A220 A228 A247 A265">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A2 A9 A17 A21 A24 A28 A32 A35 A38 A54 A58 A64 A81 A86 A105 A110 A121 A134 A146 A177 A196 A204 A220 A228 A247 A265 A273 A279">
       <formula1>Staff_Name</formula1>
     </dataValidation>
   </dataValidations>

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="322">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1017,6 +1017,63 @@
   </si>
   <si>
     <t>Instructor has issues with the computer and projector.</t>
+  </si>
+  <si>
+    <t>S537</t>
+  </si>
+  <si>
+    <t>Return web cam and tripod to Vari 1019.</t>
+  </si>
+  <si>
+    <t>Log off PC - prof may have left on and switched to DVD.</t>
+  </si>
+  <si>
+    <t>2nd Floor</t>
+  </si>
+  <si>
+    <t>Scott Library - 2nd floor - Collaboratory - Pick up Lecturn mic stand, mic, clip and 2 mic cables. Return to Ross S120 storeroom.</t>
+  </si>
+  <si>
+    <t>2nd floor</t>
+  </si>
+  <si>
+    <t>Scott Library - 2nd floor - Collaboratory - Pick up large speaker on cart with power cord for speaker and long orange extenion cord. Return all to Ross S120 storeroom.</t>
+  </si>
+  <si>
+    <t>Pick up Skype camera with tripod and USB extension cable. Return to Vari 1019 storeroom. BE ON TIME - CRUCIAL.</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>Winters Dining Hall - set up 2 speakers with speaker cables and hooked up to amplifier. No microphones needed - client bringing own cable to hook up laptop or phone for music.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winters Dining Hall - get equipment from Van 040 basement storeroom. Event starts at 6:00 pm - please have equipment set up ahead of time so client can test. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set up Skype camera with tripod and USB extension cable for camera. Equipment is in Ross S120 storeroom and is labelled for Nat Taylor. Use built in PC in rack at front of room. Skype is under "Programs". Equipment has been tested and is working. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set up audience mic on right hand side of room as you look towards the back of room from front. Set up a few stairs up and plug mic cable into mic input on rack just below drawer in rack. Volume is preset and at a good level. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Important event - room is free after 4:00 pm - set up with loads of time ahead so there are no problems with set up. </t>
+  </si>
+  <si>
+    <t>Winters Dining Hall - Pick up 2 speakers, 2 tripods, cart, amplifier and 2 speaker cables. Return to Vanier 040 basement storeroom.</t>
+  </si>
+  <si>
+    <t>2145</t>
+  </si>
+  <si>
+    <t>Pick up Skype camera with tripod and USB extension Cable. Return to Ross S120 storeroom. BE ON TIME - CRUCIAL - GO EARLY SO EQUIPMENT DOESN'T GET STOLEN.</t>
+  </si>
+  <si>
+    <t>Pick up audience mic, clip, stand and 2 mic cables. Return to Ross S120 storeroom.</t>
+  </si>
+  <si>
+    <t>Demo DVD - will be showing DVD or Blue Ray DVD.</t>
   </si>
 </sst>
 </file>
@@ -1558,11 +1615,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I290"/>
+  <dimension ref="A1:I312"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A270" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D295" sqref="D295"/>
+      <pane ySplit="1" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A312" sqref="A312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6877,6 +6934,422 @@
         <v>137</v>
       </c>
       <c r="F290" s="25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291" s="11"/>
+      <c r="B291" s="28"/>
+      <c r="C291" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D291" s="11"/>
+      <c r="E291" s="32"/>
+      <c r="F291" s="34"/>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B292" s="26">
+        <v>42647</v>
+      </c>
+      <c r="C292" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D292" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E292" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="F292" s="21"/>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B293" s="26">
+        <v>42647</v>
+      </c>
+      <c r="C293" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="D293" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E293" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="F293" s="21" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B294" s="26">
+        <v>42647</v>
+      </c>
+      <c r="C294" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="D294" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E294" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F294" s="21"/>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B295" s="26">
+        <v>42647</v>
+      </c>
+      <c r="C295" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="D295" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E295" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="F295" s="21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B296" s="26">
+        <v>42647</v>
+      </c>
+      <c r="C296" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="D296" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E296" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F296" s="25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297" s="11"/>
+      <c r="B297" s="28"/>
+      <c r="C297" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D297" s="11"/>
+      <c r="E297" s="32"/>
+      <c r="F297" s="34"/>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B298" s="26">
+        <v>42648</v>
+      </c>
+      <c r="C298" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D298" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E298" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F298" s="25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B299" s="26">
+        <v>42648</v>
+      </c>
+      <c r="C299" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D299" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E299" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F299" s="25" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A300" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B300" s="26">
+        <v>42648</v>
+      </c>
+      <c r="C300" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D300" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E300" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F300" s="25" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A301" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B301" s="26">
+        <v>42648</v>
+      </c>
+      <c r="C301" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D301" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E301" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="F301" s="25" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A302" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B302" s="26">
+        <v>42648</v>
+      </c>
+      <c r="C302" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="D302" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E302" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="F302" s="25" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A303" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B303" s="26">
+        <v>42648</v>
+      </c>
+      <c r="C303" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="D303" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E303" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="F303" s="25" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A304" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B304" s="26">
+        <v>42648</v>
+      </c>
+      <c r="C304" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="D304" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E304" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="F304" s="25" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A305" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B305" s="26">
+        <v>42648</v>
+      </c>
+      <c r="C305" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D305" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E305" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F305" s="25" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A306" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B306" s="26">
+        <v>42648</v>
+      </c>
+      <c r="C306" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D306" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E306" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F306" s="25" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A307" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B307" s="26">
+        <v>42648</v>
+      </c>
+      <c r="C307" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D307" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E307" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F307" s="25" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A308" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B308" s="26">
+        <v>42648</v>
+      </c>
+      <c r="C308" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D308" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E308" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F308" s="25" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A309" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B309" s="26">
+        <v>42648</v>
+      </c>
+      <c r="C309" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="D309" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E309" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="F309" s="25" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A310" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B310" s="26">
+        <v>42648</v>
+      </c>
+      <c r="C310" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="D310" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E310" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F310" s="25" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A311" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B311" s="26">
+        <v>42648</v>
+      </c>
+      <c r="C311" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="D311" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E311" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F311" s="25" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A312" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B312" s="26">
+        <v>42648</v>
+      </c>
+      <c r="C312" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="D312" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E312" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F312" s="25" t="s">
         <v>206</v>
       </c>
     </row>
@@ -7224,7 +7697,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
@@ -7232,7 +7705,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -7240,7 +7713,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
@@ -7248,7 +7721,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17127"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jhan\Documents\Visual Studio 2015\Projects\ClassOpsLogCreator\CLASSOPS\Derek\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="90" yWindow="150" windowWidth="14865" windowHeight="10785" tabRatio="440"/>
   </bookViews>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="346">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1144,11 +1149,14 @@
   <si>
     <t>SCL</t>
   </si>
+  <si>
+    <t>Pick up roll in PC and Projector carts. Return to Vanier 040 basement storeroom. Key is in Founders 164 storeroom.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -1385,6 +1393,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1432,7 +1443,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1465,9 +1476,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1500,6 +1528,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1679,22 +1724,22 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I321"/>
+  <dimension ref="A1:I334"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A309" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A320" sqref="A320"/>
+      <pane ySplit="1" topLeftCell="A315" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B324" sqref="B324:B334"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="22.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="27.75" style="10" customWidth="1"/>
     <col min="2" max="2" width="19" style="21" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="18" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="19" customWidth="1"/>
-    <col min="6" max="6" width="60.42578125" style="20" customWidth="1"/>
-    <col min="7" max="16384" width="22.140625" style="2"/>
+    <col min="5" max="5" width="11.75" style="19" customWidth="1"/>
+    <col min="6" max="6" width="60.375" style="20" customWidth="1"/>
+    <col min="7" max="16384" width="22.125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -7561,7 +7606,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="10" t="s">
         <v>80</v>
       </c>
@@ -7575,6 +7620,241 @@
         <v>49</v>
       </c>
       <c r="E321" s="19" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A322" s="6"/>
+      <c r="B322" s="23"/>
+      <c r="C322" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D322" s="6"/>
+      <c r="E322" s="27"/>
+      <c r="F322" s="29"/>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A323" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B323" s="21">
+        <v>42652</v>
+      </c>
+      <c r="C323" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D323" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E323" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A324" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B324" s="21">
+        <v>42652</v>
+      </c>
+      <c r="C324" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D324" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E324" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A325" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B325" s="21">
+        <v>42652</v>
+      </c>
+      <c r="C325" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D325" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E325" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F325" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A326" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B326" s="21">
+        <v>42652</v>
+      </c>
+      <c r="C326" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D326" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E326" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="F326" s="20" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A327" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B327" s="21">
+        <v>42652</v>
+      </c>
+      <c r="C327" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D327" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E327" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="F327" s="20" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A328" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B328" s="21">
+        <v>42652</v>
+      </c>
+      <c r="C328" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="D328" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E328" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F328" s="20" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A329" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B329" s="21">
+        <v>42652</v>
+      </c>
+      <c r="C329" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D329" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E329" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F329" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A330" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B330" s="21">
+        <v>42652</v>
+      </c>
+      <c r="C330" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D330" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E330" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F330" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A331" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B331" s="21">
+        <v>42652</v>
+      </c>
+      <c r="C331" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="D331" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E331" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F331" s="20" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A332" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B332" s="21">
+        <v>42652</v>
+      </c>
+      <c r="C332" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D332" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E332" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A333" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B333" s="21">
+        <v>42652</v>
+      </c>
+      <c r="C333" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D333" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E333" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A334" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B334" s="21">
+        <v>42652</v>
+      </c>
+      <c r="C334" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D334" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E334" s="19" t="s">
         <v>321</v>
       </c>
     </row>
@@ -7613,9 +7893,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="39.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="29.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="39.25" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jhan\Documents\Visual Studio 2015\Projects\ClassOpsLogCreator\CLASSOPS\Derek\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="90" yWindow="150" windowWidth="14865" windowHeight="10785" tabRatio="440"/>
   </bookViews>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="349">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1152,11 +1147,20 @@
   <si>
     <t>Pick up roll in PC and Projector carts. Return to Vanier 040 basement storeroom. Key is in Founders 164 storeroom.</t>
   </si>
+  <si>
+    <t>LEAVE EQUIPMENT IN ROOM. Just log off PC and turn off projector. Lock room. Key for room in Founders 164 storeroom.</t>
+  </si>
+  <si>
+    <t>Help connect Windows laptop for Antonella Valeo.  Bring VGA cable and connect her laptop to Input 2 on the projector.</t>
+  </si>
+  <si>
+    <t>Pickup VGA cable that was brought in earlier.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -1393,9 +1397,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1443,7 +1444,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1476,26 +1477,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1528,23 +1512,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1724,22 +1691,22 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I334"/>
+  <dimension ref="A1:I341"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A315" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B324" sqref="B324:B334"/>
+      <pane ySplit="1" topLeftCell="A319" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A341" sqref="A341"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.75" style="10" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" style="10" customWidth="1"/>
     <col min="2" max="2" width="19" style="21" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="18" customWidth="1"/>
-    <col min="5" max="5" width="11.75" style="19" customWidth="1"/>
-    <col min="6" max="6" width="60.375" style="20" customWidth="1"/>
-    <col min="7" max="16384" width="22.125" style="2"/>
+    <col min="5" max="5" width="11.7109375" style="19" customWidth="1"/>
+    <col min="6" max="6" width="60.42578125" style="20" customWidth="1"/>
+    <col min="7" max="16384" width="22.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -7638,7 +7605,7 @@
         <v>80</v>
       </c>
       <c r="B323" s="21">
-        <v>42652</v>
+        <v>42650</v>
       </c>
       <c r="C323" s="17" t="s">
         <v>105</v>
@@ -7655,7 +7622,7 @@
         <v>80</v>
       </c>
       <c r="B324" s="21">
-        <v>42652</v>
+        <v>42650</v>
       </c>
       <c r="C324" s="17" t="s">
         <v>105</v>
@@ -7672,7 +7639,7 @@
         <v>19</v>
       </c>
       <c r="B325" s="21">
-        <v>42652</v>
+        <v>42650</v>
       </c>
       <c r="C325" s="17" t="s">
         <v>207</v>
@@ -7692,7 +7659,7 @@
         <v>87</v>
       </c>
       <c r="B326" s="21">
-        <v>42652</v>
+        <v>42650</v>
       </c>
       <c r="C326" s="17" t="s">
         <v>129</v>
@@ -7708,154 +7675,271 @@
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A327" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B327" s="21">
-        <v>42652</v>
-      </c>
-      <c r="C327" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="D327" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E327" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="F327" s="20" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A327" s="6"/>
+      <c r="B327" s="23"/>
+      <c r="C327" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D327" s="6"/>
+      <c r="E327" s="27"/>
+      <c r="F327" s="29"/>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="10" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="B328" s="21">
-        <v>42652</v>
+        <v>42654</v>
       </c>
       <c r="C328" s="17" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="D328" s="18" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E328" s="19" t="s">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c r="F328" s="20" t="s">
-        <v>323</v>
+        <v>205</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="10" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="B329" s="21">
-        <v>42652</v>
+        <v>42654</v>
       </c>
       <c r="C329" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="D329" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E329" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="F329" s="20" t="s">
-        <v>205</v>
+        <v>225</v>
+      </c>
+      <c r="D329" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E329" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F329" s="16" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="10" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="B330" s="21">
-        <v>42652</v>
+        <v>42654</v>
       </c>
       <c r="C330" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="D330" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E330" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F330" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="D330" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E330" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="10" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B331" s="21">
-        <v>42652</v>
+        <v>42654</v>
       </c>
       <c r="C331" s="17" t="s">
-        <v>324</v>
+        <v>207</v>
       </c>
       <c r="D331" s="18" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E331" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="F331" s="20" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A332" s="10" t="s">
         <v>80</v>
       </c>
       <c r="B332" s="21">
-        <v>42652</v>
+        <v>42654</v>
       </c>
       <c r="C332" s="17" t="s">
-        <v>225</v>
+        <v>107</v>
       </c>
       <c r="D332" s="18" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E332" s="19" t="s">
-        <v>108</v>
+        <v>277</v>
+      </c>
+      <c r="F332" s="20" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A333" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B333" s="21">
-        <v>42652</v>
-      </c>
-      <c r="C333" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="D333" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E333" s="19" t="s">
-        <v>106</v>
-      </c>
+      <c r="A333" s="6"/>
+      <c r="B333" s="23"/>
+      <c r="C333" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D333" s="6"/>
+      <c r="E333" s="27"/>
+      <c r="F333" s="29"/>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="10" t="s">
         <v>80</v>
       </c>
       <c r="B334" s="21">
-        <v>42652</v>
+        <v>42655</v>
       </c>
       <c r="C334" s="17" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D334" s="18" t="s">
         <v>49</v>
       </c>
       <c r="E334" s="19" t="s">
-        <v>321</v>
+        <v>277</v>
+      </c>
+      <c r="F334" s="20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A335" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B335" s="21">
+        <v>42655</v>
+      </c>
+      <c r="C335" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="D335" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E335" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="F335" s="20" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A336" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B336" s="21">
+        <v>42655</v>
+      </c>
+      <c r="C336" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D336" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E336" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F336" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A337" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B337" s="21">
+        <v>42655</v>
+      </c>
+      <c r="C337" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D337" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E337" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A338" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B338" s="21">
+        <v>42655</v>
+      </c>
+      <c r="C338" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D338" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E338" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="F338" s="20" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A339" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B339" s="21">
+        <v>42655</v>
+      </c>
+      <c r="C339" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D339" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E339" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F339" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A340" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B340" s="21">
+        <v>42655</v>
+      </c>
+      <c r="C340" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D340" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E340" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A341" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B341" s="21">
+        <v>42655</v>
+      </c>
+      <c r="C341" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="D341" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E341" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="F341" s="20" t="s">
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -7893,9 +7977,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="29.75" style="5" customWidth="1"/>
-    <col min="3" max="3" width="39.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="359">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1155,6 +1155,36 @@
   </si>
   <si>
     <t>Pickup VGA cable that was brought in earlier.</t>
+  </si>
+  <si>
+    <t>001 -JCR</t>
+  </si>
+  <si>
+    <t>Senate Chamber - keys for room in Ross S120 storeroom. Turn off projector with remote on PC cart. Turn off PC. Turn off amplifier in back booth. Lock room.</t>
+  </si>
+  <si>
+    <t>Set up Skype camera with tripod with built in PC in room. Skype camera is in Founders 164 storeroom. Tell prof. to stay with equipment until picked up. Tell Masi when end time is.</t>
+  </si>
+  <si>
+    <t>Pick up Skype camera and tripod. Log off PC and crestron and return skype camera and tripod to Founders 164 storeroom.</t>
+  </si>
+  <si>
+    <t>Open doors to Nat Taylor Cinema. Allen key in S120 Ross storeroom.</t>
+  </si>
+  <si>
+    <t>Pick up 3 desk mics, all cables and clips and NECK MIC ALSO. Return to Van 040 basement storeroom.</t>
+  </si>
+  <si>
+    <t>Pick up 2 small speakers and speaker cables, all matts and AC cords. Return to Van 040 storeroom.</t>
+  </si>
+  <si>
+    <t>Set up 2 desk mics with mixer and neck microphone. Milk carton with mic cables, mics, mixer and desk stands is in Vari 1019 storeroom. Volume control on crestron - press mic icon and then ramp up " Podium" volume control.  Neck mic is in podium drawer.</t>
+  </si>
+  <si>
+    <t>Pick up 2 mics, mic cables, 2 desk stands and mixer. Return to Vari 1019 storeroom. Wireless neck mic goes back to podium drawer.</t>
+  </si>
+  <si>
+    <t>All equipment in milk crate in Vari 1019. Night Tech to meet Suzanne in room.</t>
   </si>
 </sst>
 </file>
@@ -1691,11 +1721,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I341"/>
+  <dimension ref="A1:I355"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A319" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A341" sqref="A341"/>
+      <pane ySplit="1" topLeftCell="A343" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F358" sqref="F358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7940,6 +7970,276 @@
       </c>
       <c r="F341" s="20" t="s">
         <v>348</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A342" s="6"/>
+      <c r="B342" s="23"/>
+      <c r="C342" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D342" s="6"/>
+      <c r="E342" s="27"/>
+      <c r="F342" s="29"/>
+    </row>
+    <row r="343" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A343" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B343" s="21">
+        <v>42656</v>
+      </c>
+      <c r="C343" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D343" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E343" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F343" s="20" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A344" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B344" s="21">
+        <v>42656</v>
+      </c>
+      <c r="C344" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D344" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E344" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="F344" s="20" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A345" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B345" s="21">
+        <v>42656</v>
+      </c>
+      <c r="C345" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D345" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E345" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="F345" s="20" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A346" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B346" s="21">
+        <v>42656</v>
+      </c>
+      <c r="C346" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D346" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E346" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="F346" s="20" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A347" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B347" s="21">
+        <v>42656</v>
+      </c>
+      <c r="C347" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D347" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E347" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F347" s="20" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A348" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B348" s="21">
+        <v>42656</v>
+      </c>
+      <c r="C348" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D348" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E348" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F348" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A349" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B349" s="21">
+        <v>42656</v>
+      </c>
+      <c r="C349" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D349" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E349" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="F349" s="20" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A350" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B350" s="21">
+        <v>42656</v>
+      </c>
+      <c r="C350" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D350" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E350" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="F350" s="20" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A351" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B351" s="21">
+        <v>42656</v>
+      </c>
+      <c r="C351" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D351" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E351" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F351" s="20" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A352" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B352" s="21">
+        <v>42656</v>
+      </c>
+      <c r="C352" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="D352" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E352" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F352" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A353" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B353" s="21">
+        <v>42656</v>
+      </c>
+      <c r="C353" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D353" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E353" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="F353" s="20" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A354" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B354" s="21">
+        <v>42656</v>
+      </c>
+      <c r="C354" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D354" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E354" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="F354" s="20" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A355" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B355" s="21">
+        <v>42656</v>
+      </c>
+      <c r="C355" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="D355" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E355" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="F355" s="20" t="s">
+        <v>357</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="363">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1185,6 +1185,18 @@
   </si>
   <si>
     <t>All equipment in milk crate in Vari 1019. Night Tech to meet Suzanne in room.</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return large screen DLP TV to Vanier 132 storeroom. Pick up wireless keyboard and remote control. </t>
+  </si>
+  <si>
+    <t>Founders Assembly Hall - group in room using projector and computer in room. No order - please make sure projector gets turned off (remote in Fdrs 156A storeroom. Log off PC and please LOCK ROOM. Key for room in Fdrs 164 storeroom.</t>
+  </si>
+  <si>
+    <t>2050</t>
   </si>
 </sst>
 </file>
@@ -1721,11 +1733,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I355"/>
+  <dimension ref="A1:I362"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A343" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F358" sqref="F358"/>
+      <pane ySplit="1" topLeftCell="A350" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B358" sqref="B358:B362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8170,7 +8182,7 @@
         <v>42656</v>
       </c>
       <c r="C352" s="17" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="D352" s="18" t="s">
         <v>59</v>
@@ -8230,7 +8242,7 @@
         <v>42656</v>
       </c>
       <c r="C355" s="17" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="D355" s="18" t="s">
         <v>51</v>
@@ -8240,6 +8252,130 @@
       </c>
       <c r="F355" s="20" t="s">
         <v>357</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A356" s="6"/>
+      <c r="B356" s="23"/>
+      <c r="C356" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D356" s="6"/>
+      <c r="E356" s="27"/>
+      <c r="F356" s="29"/>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A357" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B357" s="21">
+        <v>42659</v>
+      </c>
+      <c r="C357" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D357" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E357" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A358" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B358" s="21">
+        <v>42659</v>
+      </c>
+      <c r="C358" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D358" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E358" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A359" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B359" s="21">
+        <v>42659</v>
+      </c>
+      <c r="C359" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D359" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E359" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="F359" s="20" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A360" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B360" s="21">
+        <v>42659</v>
+      </c>
+      <c r="C360" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D360" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E360" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F360" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A361" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B361" s="21">
+        <v>42659</v>
+      </c>
+      <c r="C361" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D361" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E361" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F361" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A362" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B362" s="21">
+        <v>42659</v>
+      </c>
+      <c r="C362" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="D362" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E362" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F362" s="20" t="s">
+        <v>361</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="364">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1197,6 +1197,9 @@
   </si>
   <si>
     <t>2050</t>
+  </si>
+  <si>
+    <t>Pick up wireless keyboard and remote control and return to Founders 164 storeroom. Leave DLP flat screen tv in room.</t>
   </si>
 </sst>
 </file>
@@ -1733,11 +1736,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I362"/>
+  <dimension ref="A1:I368"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A350" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B358" sqref="B358:B362"/>
+      <pane ySplit="1" topLeftCell="A349" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F370" sqref="F370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8269,7 +8272,7 @@
         <v>80</v>
       </c>
       <c r="B357" s="21">
-        <v>42659</v>
+        <v>42657</v>
       </c>
       <c r="C357" s="17" t="s">
         <v>105</v>
@@ -8286,7 +8289,7 @@
         <v>80</v>
       </c>
       <c r="B358" s="21">
-        <v>42659</v>
+        <v>42657</v>
       </c>
       <c r="C358" s="17" t="s">
         <v>105</v>
@@ -8303,7 +8306,7 @@
         <v>87</v>
       </c>
       <c r="B359" s="21">
-        <v>42659</v>
+        <v>42657</v>
       </c>
       <c r="C359" s="17" t="s">
         <v>107</v>
@@ -8323,7 +8326,7 @@
         <v>80</v>
       </c>
       <c r="B360" s="21">
-        <v>42659</v>
+        <v>42657</v>
       </c>
       <c r="C360" s="17" t="s">
         <v>172</v>
@@ -8343,7 +8346,7 @@
         <v>19</v>
       </c>
       <c r="B361" s="21">
-        <v>42659</v>
+        <v>42657</v>
       </c>
       <c r="C361" s="17" t="s">
         <v>207</v>
@@ -8363,7 +8366,7 @@
         <v>80</v>
       </c>
       <c r="B362" s="21">
-        <v>42659</v>
+        <v>42657</v>
       </c>
       <c r="C362" s="17" t="s">
         <v>362</v>
@@ -8376,6 +8379,110 @@
       </c>
       <c r="F362" s="20" t="s">
         <v>361</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A363" s="6"/>
+      <c r="B363" s="23"/>
+      <c r="C363" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D363" s="6"/>
+      <c r="E363" s="27"/>
+      <c r="F363" s="29"/>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A364" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B364" s="21">
+        <v>42660</v>
+      </c>
+      <c r="C364" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D364" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E364" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A365" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B365" s="21">
+        <v>42660</v>
+      </c>
+      <c r="C365" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D365" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E365" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A366" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B366" s="21">
+        <v>42660</v>
+      </c>
+      <c r="C366" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D366" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E366" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F366" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A367" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B367" s="21">
+        <v>42660</v>
+      </c>
+      <c r="C367" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D367" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E367" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="F367" s="20" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A368" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B368" s="21">
+        <v>42660</v>
+      </c>
+      <c r="C368" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="D368" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E368" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F368" s="20" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="374">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1200,6 +1200,36 @@
   </si>
   <si>
     <t>Pick up wireless keyboard and remote control and return to Founders 164 storeroom. Leave DLP flat screen tv in room.</t>
+  </si>
+  <si>
+    <t>Turn off PC and projector. Leave all in and lock room.</t>
+  </si>
+  <si>
+    <t>Lec mic is in place already.  Turn on PC and projector. Show client how to adjust volumes from the back mixing board if required.</t>
+  </si>
+  <si>
+    <t>Return lec mic, stand, projector remote and presentation remote to back booth. Lock booth and both entrance doors before leavning.</t>
+  </si>
+  <si>
+    <t>Includes large portable screen. Client supplied own laptop and audio cable. Return to Vanier 040 storeroom.</t>
+  </si>
+  <si>
+    <t>1720</t>
+  </si>
+  <si>
+    <t>Event begins at 6pm. Setup 3 floor stand stage mics according to client's preference with appropriate number of floor mats or tape. From Vanier 040 storeroom.</t>
+  </si>
+  <si>
+    <t>3 stage mics, stands, cables and floor mats. To Vanier 040 store.</t>
+  </si>
+  <si>
+    <t>Event begins at 6pm. Need large portable screen. Client is supplying Mac laptop with own audio cable. From Vanier 040 store.</t>
+  </si>
+  <si>
+    <t>Lec mic, stand, cables etc. To Vanier 040 storeroom.</t>
+  </si>
+  <si>
+    <t>Includes portable screen and mats. To Vanier 040 storeroom.</t>
   </si>
 </sst>
 </file>
@@ -1736,11 +1766,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I368"/>
+  <dimension ref="A1:I389"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A349" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F370" sqref="F370"/>
+      <pane ySplit="1" topLeftCell="A379" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A396" sqref="A396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8483,6 +8513,394 @@
       </c>
       <c r="F368" s="20" t="s">
         <v>205</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A369" s="6"/>
+      <c r="B369" s="23"/>
+      <c r="C369" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D369" s="6"/>
+      <c r="E369" s="27"/>
+      <c r="F369" s="29"/>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A370" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B370" s="21">
+        <v>42661</v>
+      </c>
+      <c r="C370" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D370" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E370" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A371" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B371" s="21">
+        <v>42661</v>
+      </c>
+      <c r="C371" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D371" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E371" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="F371" s="20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A372" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B372" s="21">
+        <v>42661</v>
+      </c>
+      <c r="C372" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D372" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E372" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F372" s="20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A373" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B373" s="21">
+        <v>42661</v>
+      </c>
+      <c r="C373" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="D373" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E373" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F373" s="20" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B374" s="21">
+        <v>42661</v>
+      </c>
+      <c r="C374" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="D374" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E374" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="F374" s="20" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A375" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B375" s="21">
+        <v>42661</v>
+      </c>
+      <c r="C375" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="D375" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E375" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="F375" s="20" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A376" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B376" s="21">
+        <v>42661</v>
+      </c>
+      <c r="C376" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D376" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E376" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A377" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B377" s="21">
+        <v>42661</v>
+      </c>
+      <c r="C377" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D377" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E377" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F377" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A378" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B378" s="21">
+        <v>42661</v>
+      </c>
+      <c r="C378" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="D378" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E378" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F378" s="20" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A379" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B379" s="21">
+        <v>42661</v>
+      </c>
+      <c r="C379" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D379" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E379" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F379" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A380" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B380" s="21">
+        <v>42661</v>
+      </c>
+      <c r="C380" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="D380" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E380" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="F380" s="20" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A381" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B381" s="21">
+        <v>42661</v>
+      </c>
+      <c r="C381" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="D381" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E381" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="F381" s="20" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A382" s="6"/>
+      <c r="B382" s="23"/>
+      <c r="C382" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D382" s="6"/>
+      <c r="E382" s="27"/>
+      <c r="F382" s="29"/>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A383" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B383" s="21">
+        <v>42662</v>
+      </c>
+      <c r="C383" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D383" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E383" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="F383" s="20" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A384" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B384" s="21">
+        <v>42662</v>
+      </c>
+      <c r="C384" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D384" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E384" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="F384" s="20" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A385" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B385" s="21">
+        <v>42662</v>
+      </c>
+      <c r="C385" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="D385" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E385" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="F385" s="20" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A386" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B386" s="21">
+        <v>42662</v>
+      </c>
+      <c r="C386" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D386" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E386" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F386" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A387" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B387" s="21">
+        <v>42662</v>
+      </c>
+      <c r="C387" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D387" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E387" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A388" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B388" s="21">
+        <v>42662</v>
+      </c>
+      <c r="C388" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D388" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E388" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F388" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A389" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B389" s="21">
+        <v>42662</v>
+      </c>
+      <c r="C389" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D389" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E389" s="19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1823" uniqueCount="381">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1230,6 +1230,73 @@
   </si>
   <si>
     <t>Includes portable screen and mats. To Vanier 040 storeroom.</t>
+  </si>
+  <si>
+    <t>1154</t>
+  </si>
+  <si>
+    <t>Get webcam and tripod from FDRS 164. Masi has Skype contact info from Roopa Trilokekar. Starts at 5:30pm and there is no class beforehand.</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Temporary TOA neck mic and receiver is in place today and connected to the side XLR input. Show Kobzar how to operate it.</t>
+  </si>
+  <si>
+    <t>Pick up wireless keyboard and TV remote control. To FDRS 164.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TOA neck mic </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and receiver</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Disconnect cable from side XLR input and return all pieces to Vari 1019 MCR.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pick up Skype camera with tripod and USB extension cable </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if supplied</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Return to FDRS 164. BE ON TIME - CRUCIAL.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1766,11 +1833,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I389"/>
+  <dimension ref="A1:I400"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A379" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A396" sqref="A396"/>
+      <pane ySplit="1" topLeftCell="A382" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F402" sqref="F402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8901,6 +8968,210 @@
       </c>
       <c r="E389" s="19" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A390" s="6"/>
+      <c r="B390" s="23"/>
+      <c r="C390" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D390" s="6"/>
+      <c r="E390" s="27"/>
+      <c r="F390" s="29"/>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A391" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B391" s="21">
+        <v>42663</v>
+      </c>
+      <c r="C391" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D391" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E391" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="F391" s="20" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A392" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B392" s="21">
+        <v>42663</v>
+      </c>
+      <c r="C392" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="D392" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E392" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="F392" s="20" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A393" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B393" s="21">
+        <v>42663</v>
+      </c>
+      <c r="C393" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="D393" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E393" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="F393" s="20" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A394" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B394" s="21">
+        <v>42663</v>
+      </c>
+      <c r="C394" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D394" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E394" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="F394" s="20" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A395" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B395" s="21">
+        <v>42663</v>
+      </c>
+      <c r="C395" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D395" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E395" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A396" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B396" s="21">
+        <v>42663</v>
+      </c>
+      <c r="C396" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D396" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E396" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="F396" s="20" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A397" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B397" s="21">
+        <v>42663</v>
+      </c>
+      <c r="C397" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D397" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E397" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F397" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A398" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B398" s="21">
+        <v>42663</v>
+      </c>
+      <c r="C398" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D398" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E398" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A399" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B399" s="21">
+        <v>42663</v>
+      </c>
+      <c r="C399" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="D399" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E399" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="F399" s="20" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A400" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B400" s="21">
+        <v>42663</v>
+      </c>
+      <c r="C400" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="D400" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E400" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F400" s="20" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhan\Documents\Visual Studio 2015\Projects\ClassOpsLogCreator\CLASSOPS\Derek\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="90" yWindow="150" windowWidth="14865" windowHeight="10785" tabRatio="440"/>
   </bookViews>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1823" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="381">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1302,7 +1307,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -1539,6 +1544,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1586,7 +1594,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1619,9 +1627,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1654,6 +1679,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1833,22 +1875,22 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I400"/>
+  <dimension ref="A1:I405"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A382" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F402" sqref="F402"/>
+      <pane ySplit="1" topLeftCell="A388" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B402" sqref="B402:B405"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="22.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="27.75" style="10" customWidth="1"/>
     <col min="2" max="2" width="19" style="21" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="18" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="19" customWidth="1"/>
-    <col min="6" max="6" width="60.42578125" style="20" customWidth="1"/>
-    <col min="7" max="16384" width="22.140625" style="2"/>
+    <col min="5" max="5" width="11.75" style="19" customWidth="1"/>
+    <col min="6" max="6" width="60.375" style="20" customWidth="1"/>
+    <col min="7" max="16384" width="22.125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -9171,6 +9213,93 @@
         <v>136</v>
       </c>
       <c r="F400" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A401" s="6"/>
+      <c r="B401" s="23"/>
+      <c r="C401" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D401" s="6"/>
+      <c r="E401" s="27"/>
+      <c r="F401" s="29"/>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A402" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B402" s="21">
+        <v>42666</v>
+      </c>
+      <c r="C402" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D402" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E402" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F402" s="20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A403" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B403" s="21">
+        <v>42666</v>
+      </c>
+      <c r="C403" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D403" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E403" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A404" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B404" s="21">
+        <v>42666</v>
+      </c>
+      <c r="C404" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D404" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E404" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F404" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A405" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B405" s="21">
+        <v>42666</v>
+      </c>
+      <c r="C405" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D405" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E405" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F405" s="20" t="s">
         <v>205</v>
       </c>
     </row>
@@ -9209,9 +9338,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="39.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="29.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="39.25" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhan\Documents\Visual Studio 2015\Projects\ClassOpsLogCreator\CLASSOPS\Derek\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="90" yWindow="150" windowWidth="14865" windowHeight="10785" tabRatio="440"/>
   </bookViews>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="388">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1303,11 +1298,52 @@
       <t>. Return to FDRS 164. BE ON TIME - CRUCIAL.</t>
     </r>
   </si>
+  <si>
+    <t>152-A.Hall</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leave mic cables in place.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Remove lec mic, stand, clip. Turn off PA system as usual and lock the room. To FDRS 156A.</t>
+    </r>
+  </si>
+  <si>
+    <t>Return wireless keyboard &amp; projector remote to FDRS 156A.</t>
+  </si>
+  <si>
+    <t>1815</t>
+  </si>
+  <si>
+    <t>New instructor. Does not have PPY account.</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>Please pickup a pair of laptop speakers loaned to the professor. Return to Vari 1019 MCR.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -1544,9 +1580,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1594,7 +1627,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1627,26 +1660,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1679,23 +1695,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1875,22 +1874,22 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I405"/>
+  <dimension ref="A1:I420"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A388" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B402" sqref="B402:B405"/>
+      <pane ySplit="1" topLeftCell="A400" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B426" sqref="B426"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.75" style="10" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" style="10" customWidth="1"/>
     <col min="2" max="2" width="19" style="21" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="18" customWidth="1"/>
-    <col min="5" max="5" width="11.75" style="19" customWidth="1"/>
-    <col min="6" max="6" width="60.375" style="20" customWidth="1"/>
-    <col min="7" max="16384" width="22.125" style="2"/>
+    <col min="5" max="5" width="11.7109375" style="19" customWidth="1"/>
+    <col min="6" max="6" width="60.42578125" style="20" customWidth="1"/>
+    <col min="7" max="16384" width="22.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -9231,7 +9230,7 @@
         <v>80</v>
       </c>
       <c r="B402" s="21">
-        <v>42666</v>
+        <v>42664</v>
       </c>
       <c r="C402" s="17" t="s">
         <v>105</v>
@@ -9251,7 +9250,7 @@
         <v>80</v>
       </c>
       <c r="B403" s="21">
-        <v>42666</v>
+        <v>42664</v>
       </c>
       <c r="C403" s="17" t="s">
         <v>105</v>
@@ -9268,7 +9267,7 @@
         <v>19</v>
       </c>
       <c r="B404" s="21">
-        <v>42666</v>
+        <v>42664</v>
       </c>
       <c r="C404" s="17" t="s">
         <v>207</v>
@@ -9288,7 +9287,7 @@
         <v>80</v>
       </c>
       <c r="B405" s="21">
-        <v>42666</v>
+        <v>42664</v>
       </c>
       <c r="C405" s="17" t="s">
         <v>172</v>
@@ -9300,6 +9299,274 @@
         <v>136</v>
       </c>
       <c r="F405" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A406" s="6"/>
+      <c r="B406" s="23"/>
+      <c r="C406" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D406" s="6"/>
+      <c r="E406" s="27"/>
+      <c r="F406" s="29"/>
+    </row>
+    <row r="407" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A407" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B407" s="21">
+        <v>42667</v>
+      </c>
+      <c r="C407" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D407" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E407" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F407" s="14" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A408" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B408" s="21">
+        <v>42667</v>
+      </c>
+      <c r="C408" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D408" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E408" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F408" s="20" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A409" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B409" s="21">
+        <v>42667</v>
+      </c>
+      <c r="C409" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D409" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E409" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="F409" s="20" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A410" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B410" s="21">
+        <v>42667</v>
+      </c>
+      <c r="C410" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="D410" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E410" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="F410" s="20" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A411" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B411" s="21">
+        <v>42667</v>
+      </c>
+      <c r="C411" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D411" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E411" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F411" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A412" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B412" s="21">
+        <v>42667</v>
+      </c>
+      <c r="C412" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D412" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E412" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A413" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B413" s="21">
+        <v>42667</v>
+      </c>
+      <c r="C413" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="D413" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E413" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F413" s="20" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A414" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B414" s="21">
+        <v>42667</v>
+      </c>
+      <c r="C414" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D414" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E414" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A415" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B415" s="21">
+        <v>42667</v>
+      </c>
+      <c r="C415" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="D415" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E415" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F415" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A416" s="6"/>
+      <c r="B416" s="23"/>
+      <c r="C416" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D416" s="6"/>
+      <c r="E416" s="27"/>
+      <c r="F416" s="29"/>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A417" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B417" s="21">
+        <v>42668</v>
+      </c>
+      <c r="C417" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D417" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E417" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A418" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B418" s="21">
+        <v>42668</v>
+      </c>
+      <c r="C418" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D418" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E418" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A419" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B419" s="21">
+        <v>42668</v>
+      </c>
+      <c r="C419" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D419" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E419" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F419" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A420" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B420" s="21">
+        <v>42668</v>
+      </c>
+      <c r="C420" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="D420" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E420" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F420" s="20" t="s">
         <v>205</v>
       </c>
     </row>
@@ -9310,10 +9577,10 @@
     <sortCondition ref="D427:D515"/>
   </sortState>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A104 B105 A106:A109 B110 A111:A120 B121 A122:A133 B134 A135:A145 B146 A147:A176 B177 A178:A195 B196 A197:A203 B204 A205:A219 B220 A221:A227 B228 A229:A246 B247 A248:A264 B265 A266:A272 B273 A274:A278 B279 A280:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A104 B105 A106:A109 B110 A111:A120 B121 A122:A133 B134 A135:A145 B146 A147:A176 B177 A178:A195 B196 A197:A203 B204 A205:A219 B220 A221:A227 B228 A229:A246 B247 A248:A264 B265 A266:A272 B273 A274:A278 B279 A280:A418 A419:A1048576">
       <formula1>Task_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D104 E105 D106:D109 E110 D111:D120 E121 D122:D133 E134 D135:D145 E146 D147:D176 E177 D178:D195 E196 D197:D203 E204 D205:D219 E220 D221:D227 E228 D229:D246 E247 D248:D264 E265 D266:D272 E273 D274:D278 E279 D280:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D104 E105 D106:D109 E110 D111:D120 E121 D122:D133 E134 D135:D145 E146 D147:D176 E177 D178:D195 E196 D197:D203 E204 D205:D219 E220 D221:D227 E228 D229:D246 E247 D248:D264 E265 D266:D272 E273 D274:D278 E279 D280:D418 D419:D1048576">
       <formula1>Building</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A2 A9 A17 A21 A24 A28 A32 A35 A38 A54 A58 A64 A81 A86 A105 A110 A121 A134 A146 A177 A196 A204 A220 A228 A247 A265 A273 A279">
@@ -9338,9 +9605,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="29.75" style="5" customWidth="1"/>
-    <col min="3" max="3" width="39.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1975" uniqueCount="393">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1338,6 +1338,21 @@
   </si>
   <si>
     <t>Please pickup a pair of laptop speakers loaned to the professor. Return to Vari 1019 MCR.</t>
+  </si>
+  <si>
+    <t>Includes mats but no portable screen. To Vanier 040 storeroom.</t>
+  </si>
+  <si>
+    <t>Lec mic is in place already. One hour operator asssistance.</t>
+  </si>
+  <si>
+    <t>Return lec mic, stand and cable to Ross S120 storeroom.</t>
+  </si>
+  <si>
+    <t>2115</t>
+  </si>
+  <si>
+    <t>Return lec mic, 2 desk mics, 1 audience mic and stands, projector remote and presentation remote to back booth.</t>
   </si>
 </sst>
 </file>
@@ -1874,11 +1889,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I420"/>
+  <dimension ref="A1:I436"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A400" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B426" sqref="B426"/>
+      <pane ySplit="1" topLeftCell="A411" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G432" sqref="G432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9570,6 +9585,297 @@
         <v>205</v>
       </c>
     </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A421" s="6"/>
+      <c r="B421" s="23"/>
+      <c r="C421" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D421" s="6"/>
+      <c r="E421" s="27"/>
+      <c r="F421" s="29"/>
+    </row>
+    <row r="422" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A422" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B422" s="21">
+        <v>42669</v>
+      </c>
+      <c r="C422" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="D422" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E422" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="F422" s="20" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A423" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B423" s="21">
+        <v>42669</v>
+      </c>
+      <c r="C423" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D423" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E423" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F423" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A424" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B424" s="21">
+        <v>42669</v>
+      </c>
+      <c r="C424" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D424" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E424" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A425" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B425" s="21">
+        <v>42669</v>
+      </c>
+      <c r="C425" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D425" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E425" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="F425" s="20" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A426" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B426" s="21">
+        <v>42669</v>
+      </c>
+      <c r="C426" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D426" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E426" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F426" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A427" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B427" s="21">
+        <v>42669</v>
+      </c>
+      <c r="C427" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D427" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E427" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A428" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B428" s="21">
+        <v>42669</v>
+      </c>
+      <c r="C428" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="D428" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E428" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="F428" s="20" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A429" s="6"/>
+      <c r="B429" s="23"/>
+      <c r="C429" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D429" s="6"/>
+      <c r="E429" s="27"/>
+      <c r="F429" s="29"/>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A430" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B430" s="21">
+        <v>42670</v>
+      </c>
+      <c r="C430" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D430" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E430" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F430" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A431" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B431" s="21">
+        <v>42670</v>
+      </c>
+      <c r="C431" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D431" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E431" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="F431" s="20" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A432" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B432" s="21">
+        <v>42670</v>
+      </c>
+      <c r="C432" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D432" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E432" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F432" s="20" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A433" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B433" s="21">
+        <v>42670</v>
+      </c>
+      <c r="C433" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D433" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E433" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A434" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B434" s="21">
+        <v>42670</v>
+      </c>
+      <c r="C434" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D434" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E434" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F434" s="20" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A435" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B435" s="21">
+        <v>42670</v>
+      </c>
+      <c r="C435" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="D435" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E435" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F435" s="20" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A436" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B436" s="21">
+        <v>42670</v>
+      </c>
+      <c r="C436" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="D436" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E436" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F436" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0"/>
   <sortState ref="A427:G515">
@@ -9577,10 +9883,10 @@
     <sortCondition ref="D427:D515"/>
   </sortState>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A104 B105 A106:A109 B110 A111:A120 B121 A122:A133 B134 A135:A145 B146 A147:A176 B177 A178:A195 B196 A197:A203 B204 A205:A219 B220 A221:A227 B228 A229:A246 B247 A248:A264 B265 A266:A272 B273 A274:A278 B279 A280:A418 A419:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A104 B105 A106:A109 B110 A111:A120 B121 A122:A133 B134 A135:A145 B146 A147:A176 B177 A178:A195 B196 A197:A203 B204 A205:A219 B220 A221:A227 B228 A229:A246 B247 A248:A264 B265 A266:A272 B273 A274:A278 B279 A280:A1048576">
       <formula1>Task_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D104 E105 D106:D109 E110 D111:D120 E121 D122:D133 E134 D135:D145 E146 D147:D176 E177 D178:D195 E196 D197:D203 E204 D205:D219 E220 D221:D227 E228 D229:D246 E247 D248:D264 E265 D266:D272 E273 D274:D278 E279 D280:D418 D419:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D104 E105 D106:D109 E110 D111:D120 E121 D122:D133 E134 D135:D145 E146 D147:D176 E177 D178:D195 E196 D197:D203 E204 D205:D219 E220 D221:D227 E228 D229:D246 E247 D248:D264 E265 D266:D272 E273 D274:D278 E279 D280:D1048576">
       <formula1>Building</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A2 A9 A17 A21 A24 A28 A32 A35 A38 A54 A58 A64 A81 A86 A105 A110 A121 A134 A146 A177 A196 A204 A220 A228 A247 A265 A273 A279">

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1975" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2030" uniqueCount="395">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1353,6 +1353,12 @@
   </si>
   <si>
     <t>Return lec mic, 2 desk mics, 1 audience mic and stands, projector remote and presentation remote to back booth.</t>
+  </si>
+  <si>
+    <t>1 lec mic, 2 desk mics, 3 wireless Shure mics, stands, cables, audio mixer, receivers etc. on a cart.  Make certain to power off Shure wireless mics. Return all items to Vari 1019 MCR. Raul needs some of this equipment for Saturday in his area.</t>
+  </si>
+  <si>
+    <t>Door code 7083*. Leave portable screen. Return to FDRS 156A.</t>
   </si>
 </sst>
 </file>
@@ -1889,11 +1895,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I436"/>
+  <dimension ref="A1:I449"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A411" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G432" sqref="G432"/>
+      <pane ySplit="1" topLeftCell="A438" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C464" sqref="C464"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9874,6 +9880,240 @@
       </c>
       <c r="F436" s="20" t="s">
         <v>205</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A437" s="6"/>
+      <c r="B437" s="23"/>
+      <c r="C437" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D437" s="6"/>
+      <c r="E437" s="27"/>
+      <c r="F437" s="29"/>
+    </row>
+    <row r="438" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A438" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B438" s="21">
+        <v>42671</v>
+      </c>
+      <c r="C438" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D438" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E438" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="F438" s="20" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A439" s="6"/>
+      <c r="B439" s="23"/>
+      <c r="C439" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D439" s="6"/>
+      <c r="E439" s="27"/>
+      <c r="F439" s="29"/>
+    </row>
+    <row r="440" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A440" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B440" s="21">
+        <v>42674</v>
+      </c>
+      <c r="C440" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D440" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E440" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F440" s="14" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A441" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B441" s="21">
+        <v>42674</v>
+      </c>
+      <c r="C441" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D441" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E441" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F441" s="20" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A442" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B442" s="21">
+        <v>42674</v>
+      </c>
+      <c r="C442" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D442" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E442" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="F442" s="20" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A443" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B443" s="21">
+        <v>42674</v>
+      </c>
+      <c r="C443" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D443" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E443" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="F443" s="20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A444" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B444" s="21">
+        <v>42674</v>
+      </c>
+      <c r="C444" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D444" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E444" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F444" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A445" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B445" s="21">
+        <v>42674</v>
+      </c>
+      <c r="C445" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D445" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E445" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A446" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B446" s="21">
+        <v>42674</v>
+      </c>
+      <c r="C446" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D446" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E446" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F446" s="20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A447" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B447" s="21">
+        <v>42674</v>
+      </c>
+      <c r="C447" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D447" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E447" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A448" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B448" s="21">
+        <v>42674</v>
+      </c>
+      <c r="C448" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="D448" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E448" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F448" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A449" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B449" s="21">
+        <v>42674</v>
+      </c>
+      <c r="C449" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="D449" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E449" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F449" s="20" t="s">
+        <v>394</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2030" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="395">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1895,11 +1895,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I449"/>
+  <dimension ref="A1:I456"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A438" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C464" sqref="C464"/>
+      <pane ySplit="1" topLeftCell="A432" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C460" sqref="C460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10116,6 +10116,130 @@
         <v>394</v>
       </c>
     </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A450" s="6"/>
+      <c r="B450" s="23"/>
+      <c r="C450" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D450" s="6"/>
+      <c r="E450" s="27"/>
+      <c r="F450" s="29"/>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A451" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B451" s="21">
+        <v>42675</v>
+      </c>
+      <c r="C451" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D451" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E451" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A452" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B452" s="21">
+        <v>42675</v>
+      </c>
+      <c r="C452" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D452" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E452" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F452" s="20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A453" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B453" s="21">
+        <v>42675</v>
+      </c>
+      <c r="C453" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D453" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E453" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="F453" s="20" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A454" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B454" s="21">
+        <v>42675</v>
+      </c>
+      <c r="C454" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D454" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E454" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A455" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B455" s="21">
+        <v>42675</v>
+      </c>
+      <c r="C455" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D455" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E455" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F455" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A456" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B456" s="21">
+        <v>42675</v>
+      </c>
+      <c r="C456" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D456" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E456" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F456" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0"/>
   <sortState ref="A427:G515">
@@ -10123,10 +10247,10 @@
     <sortCondition ref="D427:D515"/>
   </sortState>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A104 B105 A106:A109 B110 A111:A120 B121 A122:A133 B134 A135:A145 B146 A147:A176 B177 A178:A195 B196 A197:A203 B204 A205:A219 B220 A221:A227 B228 A229:A246 B247 A248:A264 B265 A266:A272 B273 A274:A278 B279 A280:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A104 B105 A106:A109 B110 A111:A120 B121 A122:A133 B134 A135:A145 B146 A147:A176 B177 A178:A195 B196 A197:A203 B204 A205:A219 B220 A221:A227 B228 A229:A246 B247 A248:A264 B265 A266:A272 B273 A274:A278 B279 A280:A453 A454:A1048576">
       <formula1>Task_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D104 E105 D106:D109 E110 D111:D120 E121 D122:D133 E134 D135:D145 E146 D147:D176 E177 D178:D195 E196 D197:D203 E204 D205:D219 E220 D221:D227 E228 D229:D246 E247 D248:D264 E265 D266:D272 E273 D274:D278 E279 D280:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D104 E105 D106:D109 E110 D111:D120 E121 D122:D133 E134 D135:D145 E146 D147:D176 E177 D178:D195 E196 D197:D203 E204 D205:D219 E220 D221:D227 E228 D229:D246 E247 D248:D264 E265 D266:D272 E273 D274:D278 E279 D280:D453 D454:D1048576">
       <formula1>Building</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A2 A9 A17 A21 A24 A28 A32 A35 A38 A54 A58 A64 A81 A86 A105 A110 A121 A134 A146 A177 A196 A204 A220 A228 A247 A265 A273 A279">

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="407">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1359,6 +1359,65 @@
   </si>
   <si>
     <t>Door code 7083*. Leave portable screen. Return to FDRS 156A.</t>
+  </si>
+  <si>
+    <t>Audience mic, lec mic, desk mic, neck mic, stands to back booth.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lee Wiggins would like to have </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>closed captions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> activated on VLC media player to accommodate student. Demo also.</t>
+    </r>
+  </si>
+  <si>
+    <t>DLP flat screen TV. Leave portable screen and network cable, but get carpets. To  Vanier 132 storeroom.</t>
+  </si>
+  <si>
+    <t>Pickup Skype web cam and tripod.  To Ross S120 store.</t>
+  </si>
+  <si>
+    <t>Get wireless keyboard and projector remote from FDRS 156A.</t>
+  </si>
+  <si>
+    <t>Unlock doors to the Nat Taylor Cinema.</t>
+  </si>
+  <si>
+    <t>Return wireless keyboard &amp; projector remote to FDRS 156A.  Pickup straight floor stand supplied earlier. Lock room.</t>
+  </si>
+  <si>
+    <t>Please supply a straight floor stand to LTS. They will supply the mics for this event.</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>Web cam and tripod to FDRS 164.</t>
+  </si>
+  <si>
+    <t>Neck mic and small PA to FDRS 156A.</t>
+  </si>
+  <si>
+    <t>No mics, just computer and projector. Remotes to the back booth.</t>
   </si>
 </sst>
 </file>
@@ -1895,11 +1954,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I456"/>
+  <dimension ref="A1:I494"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A432" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C460" sqref="C460"/>
+      <pane ySplit="1" topLeftCell="A471" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G485" sqref="G485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10240,6 +10299,705 @@
         <v>205</v>
       </c>
     </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A457" s="6"/>
+      <c r="B457" s="23"/>
+      <c r="C457" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D457" s="6"/>
+      <c r="E457" s="27"/>
+      <c r="F457" s="29"/>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A458" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B458" s="21">
+        <v>42676</v>
+      </c>
+      <c r="C458" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D458" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E458" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F458" s="20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A459" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B459" s="21">
+        <v>42676</v>
+      </c>
+      <c r="C459" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D459" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E459" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F459" s="20" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A460" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B460" s="21">
+        <v>42676</v>
+      </c>
+      <c r="C460" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D460" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E460" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F460" s="20" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A461" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B461" s="21">
+        <v>42676</v>
+      </c>
+      <c r="C461" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="D461" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E461" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="F461" s="20" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A462" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B462" s="21">
+        <v>42676</v>
+      </c>
+      <c r="C462" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D462" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E462" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F462" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A463" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B463" s="21">
+        <v>42676</v>
+      </c>
+      <c r="C463" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D463" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E463" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A464" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B464" s="21">
+        <v>42676</v>
+      </c>
+      <c r="C464" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D464" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E464" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="F464" s="20" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A465" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B465" s="21">
+        <v>42676</v>
+      </c>
+      <c r="C465" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D465" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E465" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F465" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A466" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B466" s="21">
+        <v>42676</v>
+      </c>
+      <c r="C466" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D466" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E466" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A467" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B467" s="21">
+        <v>42676</v>
+      </c>
+      <c r="C467" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="D467" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E467" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="F467" s="20" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A468" s="6"/>
+      <c r="B468" s="23"/>
+      <c r="C468" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D468" s="6"/>
+      <c r="E468" s="27"/>
+      <c r="F468" s="29"/>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A469" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B469" s="21">
+        <v>42677</v>
+      </c>
+      <c r="C469" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D469" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E469" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="F469" s="20" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A470" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B470" s="21">
+        <v>42677</v>
+      </c>
+      <c r="C470" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="D470" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E470" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F470" s="20" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A471" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B471" s="21">
+        <v>42677</v>
+      </c>
+      <c r="C471" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="D471" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E471" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F471" s="20" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A472" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B472" s="21">
+        <v>42677</v>
+      </c>
+      <c r="C472" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D472" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E472" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A473" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B473" s="21">
+        <v>42677</v>
+      </c>
+      <c r="C473" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D473" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E473" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F473" s="20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A474" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B474" s="21">
+        <v>42677</v>
+      </c>
+      <c r="C474" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D474" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E474" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F474" s="20" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A475" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B475" s="21">
+        <v>42677</v>
+      </c>
+      <c r="C475" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D475" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E475" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F475" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A476" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B476" s="21">
+        <v>42677</v>
+      </c>
+      <c r="C476" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D476" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E476" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A477" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B477" s="21">
+        <v>42677</v>
+      </c>
+      <c r="C477" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="D477" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E477" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F477" s="20" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A478" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B478" s="21">
+        <v>42677</v>
+      </c>
+      <c r="C478" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="D478" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E478" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F478" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A479" s="6"/>
+      <c r="B479" s="23"/>
+      <c r="C479" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D479" s="6"/>
+      <c r="E479" s="27"/>
+      <c r="F479" s="29"/>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A480" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B480" s="21">
+        <v>42678</v>
+      </c>
+      <c r="C480" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D480" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E480" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A481" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B481" s="21">
+        <v>42678</v>
+      </c>
+      <c r="C481" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D481" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E481" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="F481" s="20" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A482" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B482" s="21">
+        <v>42678</v>
+      </c>
+      <c r="C482" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D482" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E482" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F482" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A483" s="6"/>
+      <c r="B483" s="23"/>
+      <c r="C483" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D483" s="6"/>
+      <c r="E483" s="27"/>
+      <c r="F483" s="29"/>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A484" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B484" s="21">
+        <v>42681</v>
+      </c>
+      <c r="C484" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D484" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E484" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F484" s="20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A485" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B485" s="21">
+        <v>42681</v>
+      </c>
+      <c r="C485" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D485" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E485" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F485" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A486" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B486" s="21">
+        <v>42681</v>
+      </c>
+      <c r="C486" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D486" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E486" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F486" s="20" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A487" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B487" s="21">
+        <v>42681</v>
+      </c>
+      <c r="C487" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D487" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E487" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F487" s="14" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A488" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B488" s="21">
+        <v>42681</v>
+      </c>
+      <c r="C488" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D488" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E488" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F488" s="20" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A489" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B489" s="21">
+        <v>42681</v>
+      </c>
+      <c r="C489" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D489" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E489" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F489" s="20" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A490" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B490" s="21">
+        <v>42681</v>
+      </c>
+      <c r="C490" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D490" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E490" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F490" s="20" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A491" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B491" s="21">
+        <v>42681</v>
+      </c>
+      <c r="C491" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D491" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E491" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="F491" s="20" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A492" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B492" s="21">
+        <v>42681</v>
+      </c>
+      <c r="C492" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D492" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E492" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A493" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B493" s="21">
+        <v>42681</v>
+      </c>
+      <c r="C493" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D493" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E493" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A494" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B494" s="21">
+        <v>42681</v>
+      </c>
+      <c r="C494" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="D494" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E494" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F494" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0"/>
   <sortState ref="A427:G515">
@@ -10247,10 +11005,10 @@
     <sortCondition ref="D427:D515"/>
   </sortState>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A104 B105 A106:A109 B110 A111:A120 B121 A122:A133 B134 A135:A145 B146 A147:A176 B177 A178:A195 B196 A197:A203 B204 A205:A219 B220 A221:A227 B228 A229:A246 B247 A248:A264 B265 A266:A272 B273 A274:A278 B279 A280:A453 A454:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A104 B105 A106:A109 B110 A111:A120 B121 A122:A133 B134 A135:A145 B146 A147:A176 B177 A178:A195 B196 A197:A203 B204 A205:A219 B220 A221:A227 B228 A229:A246 B247 A248:A264 B265 A266:A272 B273 A274:A278 B279 A280:A491 A492:A1048576">
       <formula1>Task_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D104 E105 D106:D109 E110 D111:D120 E121 D122:D133 E134 D135:D145 E146 D147:D176 E177 D178:D195 E196 D197:D203 E204 D205:D219 E220 D221:D227 E228 D229:D246 E247 D248:D264 E265 D266:D272 E273 D274:D278 E279 D280:D453 D454:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D104 E105 D106:D109 E110 D111:D120 E121 D122:D133 E134 D135:D145 E146 D147:D176 E177 D178:D195 E196 D197:D203 E204 D205:D219 E220 D221:D227 E228 D229:D246 E247 D248:D264 E265 D266:D272 E273 D274:D278 E279 D280:D491 D492:D1048576">
       <formula1>Building</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A2 A9 A17 A21 A24 A28 A32 A35 A38 A54 A58 A64 A81 A86 A105 A110 A121 A134 A146 A177 A196 A204 A220 A228 A247 A265 A273 A279">

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2339" uniqueCount="419">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1418,6 +1418,42 @@
   </si>
   <si>
     <t>No mics, just computer and projector. Remotes to the back booth.</t>
+  </si>
+  <si>
+    <t>Mics for the large PA will be supplied by LTS. They just want a boom stand at the lectern and a straight stand for the audience. From Vanier 040.</t>
+  </si>
+  <si>
+    <t>Need portable screen for the projector. From Vanier 040.</t>
+  </si>
+  <si>
+    <t>Two mic stands--no mics. Return all to Vanier 040.</t>
+  </si>
+  <si>
+    <t>Includes a portable screen. Return all to Vanier 040.</t>
+  </si>
+  <si>
+    <t>3006</t>
+  </si>
+  <si>
+    <t>From Vari 1019 MCR.</t>
+  </si>
+  <si>
+    <t>Return to Vari 1019 MCR.</t>
+  </si>
+  <si>
+    <t>Meet Victoria Freeman to assist with Skype connection call.</t>
+  </si>
+  <si>
+    <t>Neck mic to back booth.</t>
+  </si>
+  <si>
+    <t>Includes a small PA for sound. Leave portable screen and network cable, but get carpets. To  Vanier 040 storeroom.</t>
+  </si>
+  <si>
+    <t>Professor Marie-Christine Pioffet wants to connect her laptop. She has her own cables.</t>
+  </si>
+  <si>
+    <t>Meet with instructor Ethel Tungohan.</t>
   </si>
 </sst>
 </file>
@@ -1954,11 +1990,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I494"/>
+  <dimension ref="A1:I519"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A471" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G485" sqref="G485"/>
+      <pane ySplit="1" topLeftCell="A501" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F518" sqref="F518"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10998,6 +11034,474 @@
         <v>205</v>
       </c>
     </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A495" s="6"/>
+      <c r="B495" s="23"/>
+      <c r="C495" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D495" s="6"/>
+      <c r="E495" s="27"/>
+      <c r="F495" s="29"/>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A496" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B496" s="21">
+        <v>42682</v>
+      </c>
+      <c r="C496" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D496" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E496" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A497" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B497" s="21">
+        <v>42682</v>
+      </c>
+      <c r="C497" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D497" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E497" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="F497" s="20" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A498" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B498" s="21">
+        <v>42682</v>
+      </c>
+      <c r="C498" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D498" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E498" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="F498" s="20" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A499" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B499" s="21">
+        <v>42682</v>
+      </c>
+      <c r="C499" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="D499" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E499" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="F499" s="20" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A500" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B500" s="21">
+        <v>42682</v>
+      </c>
+      <c r="C500" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="D500" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E500" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="F500" s="20" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A501" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B501" s="21">
+        <v>42682</v>
+      </c>
+      <c r="C501" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D501" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E501" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A502" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B502" s="21">
+        <v>42682</v>
+      </c>
+      <c r="C502" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D502" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E502" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F502" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A503" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B503" s="21">
+        <v>42682</v>
+      </c>
+      <c r="C503" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D503" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E503" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="F503" s="20" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A504" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B504" s="21">
+        <v>42682</v>
+      </c>
+      <c r="C504" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D504" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E504" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="F504" s="20" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A505" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B505" s="21">
+        <v>42682</v>
+      </c>
+      <c r="C505" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D505" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E505" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="F505" s="20" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A506" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B506" s="21">
+        <v>42682</v>
+      </c>
+      <c r="C506" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D506" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E506" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F506" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A507" s="6"/>
+      <c r="B507" s="23"/>
+      <c r="C507" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D507" s="6"/>
+      <c r="E507" s="27"/>
+      <c r="F507" s="29"/>
+    </row>
+    <row r="508" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A508" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B508" s="21">
+        <v>42683</v>
+      </c>
+      <c r="C508" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D508" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E508" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="F508" s="20" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A509" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B509" s="21">
+        <v>42683</v>
+      </c>
+      <c r="C509" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D509" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E509" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="F509" s="20" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A510" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B510" s="21">
+        <v>42683</v>
+      </c>
+      <c r="C510" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D510" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E510" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F510" s="20" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A511" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B511" s="21">
+        <v>42683</v>
+      </c>
+      <c r="C511" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D511" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E511" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F511" s="20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A512" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B512" s="21">
+        <v>42683</v>
+      </c>
+      <c r="C512" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="D512" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E512" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="F512" s="20" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A513" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B513" s="21">
+        <v>42683</v>
+      </c>
+      <c r="C513" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D513" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E513" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F513" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A514" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B514" s="21">
+        <v>42683</v>
+      </c>
+      <c r="C514" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D514" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E514" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A515" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B515" s="21">
+        <v>42683</v>
+      </c>
+      <c r="C515" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D515" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E515" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="F515" s="20" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A516" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B516" s="21">
+        <v>42683</v>
+      </c>
+      <c r="C516" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D516" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E516" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F516" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A517" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B517" s="21">
+        <v>42683</v>
+      </c>
+      <c r="C517" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D517" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E517" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A518" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B518" s="21">
+        <v>42683</v>
+      </c>
+      <c r="C518" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D518" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E518" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="F518" s="20" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A519" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B519" s="21">
+        <v>42683</v>
+      </c>
+      <c r="C519" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="D519" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E519" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="F519" s="20" t="s">
+        <v>348</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0"/>
   <sortState ref="A427:G515">
@@ -11005,10 +11509,10 @@
     <sortCondition ref="D427:D515"/>
   </sortState>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A104 B105 A106:A109 B110 A111:A120 B121 A122:A133 B134 A135:A145 B146 A147:A176 B177 A178:A195 B196 A197:A203 B204 A205:A219 B220 A221:A227 B228 A229:A246 B247 A248:A264 B265 A266:A272 B273 A274:A278 B279 A280:A491 A492:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A104 B105 A106:A109 B110 A111:A120 B121 A122:A133 B134 A135:A145 B146 A147:A176 B177 A178:A195 B196 A197:A203 B204 A205:A219 B220 A221:A227 B228 A229:A246 B247 A248:A264 B265 A266:A272 B273 A274:A278 B279 A280:A517 A518:A1048576">
       <formula1>Task_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D104 E105 D106:D109 E110 D111:D120 E121 D122:D133 E134 D135:D145 E146 D147:D176 E177 D178:D195 E196 D197:D203 E204 D205:D219 E220 D221:D227 E228 D229:D246 E247 D248:D264 E265 D266:D272 E273 D274:D278 E279 D280:D491 D492:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D104 E105 D106:D109 E110 D111:D120 E121 D122:D133 E134 D135:D145 E146 D147:D176 E177 D178:D195 E196 D197:D203 E204 D205:D219 E220 D221:D227 E228 D229:D246 E247 D248:D264 E265 D266:D272 E273 D274:D278 E279 D280:D517 D518:D1048576">
       <formula1>Building</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A2 A9 A17 A21 A24 A28 A32 A35 A38 A54 A58 A64 A81 A86 A105 A110 A121 A134 A146 A177 A196 A204 A220 A228 A247 A265 A273 A279">

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2339" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2398" uniqueCount="422">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1454,6 +1454,15 @@
   </si>
   <si>
     <t>Meet with instructor Ethel Tungohan.</t>
+  </si>
+  <si>
+    <t>3004</t>
+  </si>
+  <si>
+    <t>Help connect Mac laptop for Shannon Pollock.  She has done it before but is having some issues lately.</t>
+  </si>
+  <si>
+    <t>Terry Conlin wants the DVD set up and ready to go.</t>
   </si>
 </sst>
 </file>
@@ -1990,11 +1999,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I519"/>
+  <dimension ref="A1:I532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A501" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F518" sqref="F518"/>
+      <pane ySplit="1" topLeftCell="A513" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C533" sqref="C533"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11502,6 +11511,250 @@
         <v>348</v>
       </c>
     </row>
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A520" s="6"/>
+      <c r="B520" s="23"/>
+      <c r="C520" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D520" s="6"/>
+      <c r="E520" s="27"/>
+      <c r="F520" s="29"/>
+    </row>
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A521" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B521" s="21">
+        <v>42684</v>
+      </c>
+      <c r="C521" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D521" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E521" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F521" s="20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A522" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B522" s="21">
+        <v>42684</v>
+      </c>
+      <c r="C522" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D522" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E522" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="F522" s="20" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A523" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B523" s="21">
+        <v>42684</v>
+      </c>
+      <c r="C523" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D523" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E523" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F523" s="14" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A524" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B524" s="21">
+        <v>42684</v>
+      </c>
+      <c r="C524" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D524" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E524" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F524" s="20" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A525" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B525" s="21">
+        <v>42684</v>
+      </c>
+      <c r="C525" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="D525" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E525" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="F525" s="20" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A526" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B526" s="21">
+        <v>42684</v>
+      </c>
+      <c r="C526" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="D526" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E526" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="F526" s="20" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A527" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B527" s="21">
+        <v>42684</v>
+      </c>
+      <c r="C527" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D527" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E527" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A528" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B528" s="21">
+        <v>42684</v>
+      </c>
+      <c r="C528" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D528" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E528" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F528" s="20" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A529" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B529" s="21">
+        <v>42684</v>
+      </c>
+      <c r="C529" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D529" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E529" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F529" s="20" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A530" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B530" s="21">
+        <v>42684</v>
+      </c>
+      <c r="C530" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D530" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E530" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F530" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A531" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B531" s="21">
+        <v>42684</v>
+      </c>
+      <c r="C531" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D531" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E531" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A532" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B532" s="21">
+        <v>42684</v>
+      </c>
+      <c r="C532" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="D532" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E532" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F532" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0"/>
   <sortState ref="A427:G515">
@@ -11509,10 +11762,10 @@
     <sortCondition ref="D427:D515"/>
   </sortState>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A104 B105 A106:A109 B110 A111:A120 B121 A122:A133 B134 A135:A145 B146 A147:A176 B177 A178:A195 B196 A197:A203 B204 A205:A219 B220 A221:A227 B228 A229:A246 B247 A248:A264 B265 A266:A272 B273 A274:A278 B279 A280:A517 A518:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A104 B105 A106:A109 B110 A111:A120 B121 A122:A133 B134 A135:A145 B146 A147:A176 B177 A178:A195 B196 A197:A203 B204 A205:A219 B220 A221:A227 B228 A229:A246 B247 A248:A264 B265 A266:A272 B273 A274:A278 B279 A280:A532 A533:A1048576">
       <formula1>Task_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D104 E105 D106:D109 E110 D111:D120 E121 D122:D133 E134 D135:D145 E146 D147:D176 E177 D178:D195 E196 D197:D203 E204 D205:D219 E220 D221:D227 E228 D229:D246 E247 D248:D264 E265 D266:D272 E273 D274:D278 E279 D280:D517 D518:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D104 E105 D106:D109 E110 D111:D120 E121 D122:D133 E134 D135:D145 E146 D147:D176 E177 D178:D195 E196 D197:D203 E204 D205:D219 E220 D221:D227 E228 D229:D246 E247 D248:D264 E265 D266:D272 E273 D274:D278 E279 D280:D532 D533:D1048576">
       <formula1>Building</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A2 A9 A17 A21 A24 A28 A32 A35 A38 A54 A58 A64 A81 A86 A105 A110 A121 A134 A146 A177 A196 A204 A220 A228 A247 A265 A273 A279">

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2398" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2412" uniqueCount="422">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1999,11 +1999,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I532"/>
+  <dimension ref="A1:I536"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A513" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C533" sqref="C533"/>
+      <pane ySplit="1" topLeftCell="A528" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E537" sqref="E537"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11755,6 +11755,70 @@
         <v>205</v>
       </c>
     </row>
+    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A533" s="6"/>
+      <c r="B533" s="23"/>
+      <c r="C533" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D533" s="6"/>
+      <c r="E533" s="27"/>
+      <c r="F533" s="29"/>
+    </row>
+    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A534" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B534" s="21">
+        <v>42685</v>
+      </c>
+      <c r="C534" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D534" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E534" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A535" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B535" s="21">
+        <v>42685</v>
+      </c>
+      <c r="C535" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D535" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E535" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A536" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B536" s="21">
+        <v>42685</v>
+      </c>
+      <c r="C536" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D536" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E536" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F536" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0"/>
   <sortState ref="A427:G515">
@@ -11762,10 +11826,10 @@
     <sortCondition ref="D427:D515"/>
   </sortState>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A104 B105 A106:A109 B110 A111:A120 B121 A122:A133 B134 A135:A145 B146 A147:A176 B177 A178:A195 B196 A197:A203 B204 A205:A219 B220 A221:A227 B228 A229:A246 B247 A248:A264 B265 A266:A272 B273 A274:A278 B279 A280:A532 A533:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A104 B105 A106:A109 B110 A111:A120 B121 A122:A133 B134 A135:A145 B146 A147:A176 B177 A178:A195 B196 A197:A203 B204 A205:A219 B220 A221:A227 B228 A229:A246 B247 A248:A264 B265 A266:A272 B273 A274:A278 B279 A280:A1048576">
       <formula1>Task_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D104 E105 D106:D109 E110 D111:D120 E121 D122:D133 E134 D135:D145 E146 D147:D176 E177 D178:D195 E196 D197:D203 E204 D205:D219 E220 D221:D227 E228 D229:D246 E247 D248:D264 E265 D266:D272 E273 D274:D278 E279 D280:D532 D533:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D104 E105 D106:D109 E110 D111:D120 E121 D122:D133 E134 D135:D145 E146 D147:D176 E177 D178:D195 E196 D197:D203 E204 D205:D219 E220 D221:D227 E228 D229:D246 E247 D248:D264 E265 D266:D272 E273 D274:D278 E279 D280:D1048576">
       <formula1>Building</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A2 A9 A17 A21 A24 A28 A32 A35 A38 A54 A58 A64 A81 A86 A105 A110 A121 A134 A146 A177 A196 A204 A220 A228 A247 A265 A273 A279">

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2412" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2623" uniqueCount="435">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1463,6 +1463,170 @@
   </si>
   <si>
     <t>Terry Conlin wants the DVD set up and ready to go.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leave mic cables in place.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Remove desk mic, audience mic, stands, clips. Turn off PA system as usual and lock the room. To FDRS 156A.</t>
+    </r>
+  </si>
+  <si>
+    <t>Pickup large screen DLP TV, wireless keyboard and remote control. To Vanier 132 storeroom.</t>
+  </si>
+  <si>
+    <t>Demo to Rebecca Gruihn.</t>
+  </si>
+  <si>
+    <t>S201</t>
+  </si>
+  <si>
+    <t>Pick up Skype camera with tripod and USB extension cable. Return to Ross S120 storeroom. BE ON TIME - CRUCIAL.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leave mic cables in place.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Remove lectern mic, stand, clip. Turn off PA system as usual and lock the room. To FDRS 156A.</t>
+    </r>
+  </si>
+  <si>
+    <t>Return web cam, tripod and extension USB cable to Ross S120 store.</t>
+  </si>
+  <si>
+    <t>Lectern mic and stand to back booth and remotes also.</t>
+  </si>
+  <si>
+    <t>Guest lecturer.  Do not give out codes.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Connect Mac laptop for Shannon Pollock. She cannot make a connection in this room. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tech person last week was not able to help</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Inputs have been tested and cables are good. Send expert this time. Perhaps her Mac adapter is the culprit.</t>
+    </r>
+  </si>
+  <si>
+    <t>Get webcam and tripod from FDRS 164. Masi has Skype contact info from Roopa Trilokekar. Starts at 5:30pm. No class beforehand.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leave mic cables in place.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Remove lectern mic, 2 desk mics, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2 wireless audience mics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, stands, clips. Turn off PA system as usual and lock the room. Remember to turn off wireless mics to save battery power. </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Wireless receivers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are on a separate cart which can be disconnected and rolled into FDRS 156A.</t>
+    </r>
+  </si>
+  <si>
+    <t>DLP TV to FDRS 164. Return wireless keyboard &amp; projector remote to FDRS 156A.</t>
   </si>
 </sst>
 </file>
@@ -1999,11 +2163,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I536"/>
+  <dimension ref="A1:I584"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A528" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E537" sqref="E537"/>
+      <pane ySplit="1" topLeftCell="A568" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F587" sqref="F586:F587"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11819,6 +11983,889 @@
         <v>128</v>
       </c>
     </row>
+    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A537" s="6"/>
+      <c r="B537" s="23"/>
+      <c r="C537" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D537" s="6"/>
+      <c r="E537" s="27"/>
+      <c r="F537" s="29"/>
+    </row>
+    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A538" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B538" s="21">
+        <v>42688</v>
+      </c>
+      <c r="C538" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D538" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E538" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F538" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A539" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B539" s="21">
+        <v>42688</v>
+      </c>
+      <c r="C539" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D539" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E539" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="F539" s="20" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A540" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B540" s="21">
+        <v>42688</v>
+      </c>
+      <c r="C540" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D540" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E540" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="F540" s="20" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A541" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B541" s="21">
+        <v>42688</v>
+      </c>
+      <c r="C541" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D541" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E541" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F541" s="20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A542" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B542" s="21">
+        <v>42688</v>
+      </c>
+      <c r="C542" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="D542" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E542" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="F542" s="20" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A543" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B543" s="21">
+        <v>42688</v>
+      </c>
+      <c r="C543" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D543" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E543" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A544" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B544" s="21">
+        <v>42688</v>
+      </c>
+      <c r="C544" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D544" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E544" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F544" s="14" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A545" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B545" s="21">
+        <v>42688</v>
+      </c>
+      <c r="C545" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D545" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E545" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F545" s="20" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A546" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B546" s="21">
+        <v>42688</v>
+      </c>
+      <c r="C546" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="D546" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E546" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F546" s="20" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A547" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B547" s="21">
+        <v>42688</v>
+      </c>
+      <c r="C547" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D547" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E547" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A548" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B548" s="21">
+        <v>42688</v>
+      </c>
+      <c r="C548" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="D548" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E548" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F548" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A549" s="6"/>
+      <c r="B549" s="23"/>
+      <c r="C549" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D549" s="6"/>
+      <c r="E549" s="27"/>
+      <c r="F549" s="29"/>
+    </row>
+    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A550" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B550" s="21">
+        <v>42689</v>
+      </c>
+      <c r="C550" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D550" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E550" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A551" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B551" s="21">
+        <v>42689</v>
+      </c>
+      <c r="C551" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D551" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E551" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="F551" s="20" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A552" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B552" s="21">
+        <v>42689</v>
+      </c>
+      <c r="C552" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D552" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E552" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F552" s="14" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A553" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B553" s="21">
+        <v>42689</v>
+      </c>
+      <c r="C553" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D553" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E553" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F553" s="20" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A554" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B554" s="21">
+        <v>42689</v>
+      </c>
+      <c r="C554" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D554" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E554" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F554" s="20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A555" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B555" s="21">
+        <v>42689</v>
+      </c>
+      <c r="C555" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D555" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E555" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="F555" s="20" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A556" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B556" s="21">
+        <v>42689</v>
+      </c>
+      <c r="C556" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D556" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E556" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A557" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B557" s="21">
+        <v>42689</v>
+      </c>
+      <c r="C557" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D557" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E557" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F557" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A558" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B558" s="21">
+        <v>42689</v>
+      </c>
+      <c r="C558" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D558" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E558" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F558" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A559" s="6"/>
+      <c r="B559" s="23"/>
+      <c r="C559" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D559" s="6"/>
+      <c r="E559" s="27"/>
+      <c r="F559" s="29"/>
+    </row>
+    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A560" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B560" s="21">
+        <v>42690</v>
+      </c>
+      <c r="C560" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D560" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E560" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F560" s="20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A561" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B561" s="21">
+        <v>42690</v>
+      </c>
+      <c r="C561" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="D561" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E561" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="F561" s="20" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A562" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B562" s="21">
+        <v>42690</v>
+      </c>
+      <c r="C562" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D562" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E562" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F562" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A563" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B563" s="21">
+        <v>42690</v>
+      </c>
+      <c r="C563" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D563" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E563" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A564" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B564" s="21">
+        <v>42690</v>
+      </c>
+      <c r="C564" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D564" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E564" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F564" s="20" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A565" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B565" s="21">
+        <v>42690</v>
+      </c>
+      <c r="C565" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D565" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E565" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F565" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A566" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B566" s="21">
+        <v>42690</v>
+      </c>
+      <c r="C566" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D566" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E566" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A567" s="6"/>
+      <c r="B567" s="23"/>
+      <c r="C567" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D567" s="6"/>
+      <c r="E567" s="27"/>
+      <c r="F567" s="29"/>
+    </row>
+    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A568" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B568" s="21">
+        <v>42691</v>
+      </c>
+      <c r="C568" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D568" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E568" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F568" s="20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A569" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B569" s="21">
+        <v>42691</v>
+      </c>
+      <c r="C569" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D569" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E569" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="F569" s="20" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A570" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B570" s="21">
+        <v>42691</v>
+      </c>
+      <c r="C570" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="D570" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E570" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="F570" s="20" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="571" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A571" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B571" s="21">
+        <v>42691</v>
+      </c>
+      <c r="C571" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="D571" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E571" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="F571" s="20" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A572" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B572" s="21">
+        <v>42691</v>
+      </c>
+      <c r="C572" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D572" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E572" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A573" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B573" s="21">
+        <v>42691</v>
+      </c>
+      <c r="C573" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D573" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E573" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F573" s="20" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A574" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B574" s="21">
+        <v>42691</v>
+      </c>
+      <c r="C574" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D574" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E574" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="F574" s="20" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="575" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A575" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B575" s="21">
+        <v>42691</v>
+      </c>
+      <c r="C575" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D575" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E575" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="F575" s="20" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A576" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B576" s="21">
+        <v>42691</v>
+      </c>
+      <c r="C576" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D576" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E576" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F576" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A577" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B577" s="21">
+        <v>42691</v>
+      </c>
+      <c r="C577" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D577" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E577" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A578" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B578" s="21">
+        <v>42691</v>
+      </c>
+      <c r="C578" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="D578" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E578" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F578" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A579" s="6"/>
+      <c r="B579" s="23"/>
+      <c r="C579" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D579" s="6"/>
+      <c r="E579" s="27"/>
+      <c r="F579" s="29"/>
+    </row>
+    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A580" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B580" s="21">
+        <v>42692</v>
+      </c>
+      <c r="C580" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D580" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E580" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="581" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A581" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B581" s="21">
+        <v>42692</v>
+      </c>
+      <c r="C581" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D581" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E581" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F581" s="14" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="582" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A582" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B582" s="21">
+        <v>42692</v>
+      </c>
+      <c r="C582" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D582" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E582" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F582" s="20" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A583" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B583" s="21">
+        <v>42691</v>
+      </c>
+      <c r="C583" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D583" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E583" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F583" s="20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A584" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B584" s="21">
+        <v>42692</v>
+      </c>
+      <c r="C584" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D584" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E584" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F584" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0"/>
   <sortState ref="A427:G515">
@@ -11826,10 +12873,10 @@
     <sortCondition ref="D427:D515"/>
   </sortState>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A104 B105 A106:A109 B110 A111:A120 B121 A122:A133 B134 A135:A145 B146 A147:A176 B177 A178:A195 B196 A197:A203 B204 A205:A219 B220 A221:A227 B228 A229:A246 B247 A248:A264 B265 A266:A272 B273 A274:A278 B279 A280:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A104 B105 A106:A109 B110 A111:A120 B121 A122:A133 B134 A135:A145 B146 A147:A176 B177 A178:A195 B196 A197:A203 B204 A205:A219 B220 A221:A227 B228 A229:A246 B247 A248:A264 B265 A266:A272 B273 A274:A278 B279 A280:A580 A581:A1048576">
       <formula1>Task_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D104 E105 D106:D109 E110 D111:D120 E121 D122:D133 E134 D135:D145 E146 D147:D176 E177 D178:D195 E196 D197:D203 E204 D205:D219 E220 D221:D227 E228 D229:D246 E247 D248:D264 E265 D266:D272 E273 D274:D278 E279 D280:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D104 E105 D106:D109 E110 D111:D120 E121 D122:D133 E134 D135:D145 E146 D147:D176 E177 D178:D195 E196 D197:D203 E204 D205:D219 E220 D221:D227 E228 D229:D246 E247 D248:D264 E265 D266:D272 E273 D274:D278 E279 D280:D580 D581:D1048576">
       <formula1>Building</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A2 A9 A17 A21 A24 A28 A32 A35 A38 A54 A58 A64 A81 A86 A105 A110 A121 A134 A146 A177 A196 A204 A220 A228 A247 A265 A273 A279">

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2623" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2726" uniqueCount="443">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1627,6 +1627,122 @@
   </si>
   <si>
     <t>DLP TV to FDRS 164. Return wireless keyboard &amp; projector remote to FDRS 156A.</t>
+  </si>
+  <si>
+    <t>Pickup extension cord and power cord that is powering the Doc Cam. To 1019 Vari MCR.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Leave portable screen and network cable, but get carpets. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lock room and set the alarm if you know how</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. To  Vanier 040 storeroom.</t>
+    </r>
+  </si>
+  <si>
+    <t>Web cam and tripod are in Vari 1019 with USB extension if needed. Meet with Victoria Freeman to establish the call.</t>
+  </si>
+  <si>
+    <t>Return web cam, tripod and USB extension to Vari 1019 MCR.</t>
+  </si>
+  <si>
+    <t>Contact person not known at this time.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DLP TV and computer. Leave portable screen and network cable. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lock room and set the alarm if you know how</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. To Vanier 132 store.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Get from FDRS 156A. Portable screen is there. Door code </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7083*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Door code </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7083*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Leave portable screen. Return to FDRS 156A.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2163,11 +2279,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I584"/>
+  <dimension ref="A1:I607"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A568" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F587" sqref="F586:F587"/>
+      <pane ySplit="1" topLeftCell="A582" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H600" sqref="H600"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12866,6 +12982,434 @@
         <v>128</v>
       </c>
     </row>
+    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A585" s="6"/>
+      <c r="B585" s="23"/>
+      <c r="C585" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D585" s="6"/>
+      <c r="E585" s="27"/>
+      <c r="F585" s="29"/>
+    </row>
+    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A586" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B586" s="21">
+        <v>42695</v>
+      </c>
+      <c r="C586" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D586" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E586" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F586" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="587" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A587" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B587" s="21">
+        <v>42695</v>
+      </c>
+      <c r="C587" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D587" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E587" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F587" s="14" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A588" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B588" s="21">
+        <v>42695</v>
+      </c>
+      <c r="C588" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D588" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E588" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F588" s="20" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A589" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B589" s="21">
+        <v>42695</v>
+      </c>
+      <c r="C589" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D589" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E589" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="F589" s="20" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="590" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A590" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B590" s="21">
+        <v>42695</v>
+      </c>
+      <c r="C590" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D590" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E590" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="F590" s="20" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="591" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A591" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B591" s="21">
+        <v>42695</v>
+      </c>
+      <c r="C591" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D591" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E591" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="F591" s="20" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A592" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B592" s="21">
+        <v>42695</v>
+      </c>
+      <c r="C592" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D592" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E592" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A593" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B593" s="21">
+        <v>42695</v>
+      </c>
+      <c r="C593" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D593" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E593" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A594" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B594" s="21">
+        <v>42695</v>
+      </c>
+      <c r="C594" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="D594" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E594" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F594" s="20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A595" s="6"/>
+      <c r="B595" s="23"/>
+      <c r="C595" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D595" s="6"/>
+      <c r="E595" s="27"/>
+      <c r="F595" s="29"/>
+    </row>
+    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A596" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B596" s="21">
+        <v>42696</v>
+      </c>
+      <c r="C596" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D596" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E596" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="597" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A597" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B597" s="21">
+        <v>42696</v>
+      </c>
+      <c r="C597" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D597" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E597" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="F597" s="20" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="598" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A598" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B598" s="21">
+        <v>42696</v>
+      </c>
+      <c r="C598" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D598" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E598" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F598" s="14" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A599" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B599" s="21">
+        <v>42696</v>
+      </c>
+      <c r="C599" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D599" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E599" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F599" s="20" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="600" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A600" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B600" s="21">
+        <v>42696</v>
+      </c>
+      <c r="C600" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D600" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E600" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="F600" s="20" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A601" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B601" s="21">
+        <v>42696</v>
+      </c>
+      <c r="C601" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D601" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E601" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A602" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B602" s="21">
+        <v>42696</v>
+      </c>
+      <c r="C602" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="D602" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E602" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F602" s="20" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A603" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B603" s="21">
+        <v>42696</v>
+      </c>
+      <c r="C603" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="D603" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E603" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F603" s="20" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A604" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B604" s="21">
+        <v>42696</v>
+      </c>
+      <c r="C604" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D604" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E604" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F604" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A605" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B605" s="21">
+        <v>42696</v>
+      </c>
+      <c r="C605" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D605" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E605" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F605" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A606" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B606" s="21">
+        <v>42696</v>
+      </c>
+      <c r="C606" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D606" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E606" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="F606" s="20" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A607" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B607" s="21">
+        <v>42696</v>
+      </c>
+      <c r="C607" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="D607" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E607" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F607" s="20" t="s">
+        <v>442</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0"/>
   <sortState ref="A427:G515">
@@ -12873,10 +13417,10 @@
     <sortCondition ref="D427:D515"/>
   </sortState>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A104 B105 A106:A109 B110 A111:A120 B121 A122:A133 B134 A135:A145 B146 A147:A176 B177 A178:A195 B196 A197:A203 B204 A205:A219 B220 A221:A227 B228 A229:A246 B247 A248:A264 B265 A266:A272 B273 A274:A278 B279 A280:A580 A581:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A104 B105 A106:A109 B110 A111:A120 B121 A122:A133 B134 A135:A145 B146 A147:A176 B177 A178:A195 B196 A197:A203 B204 A205:A219 B220 A221:A227 B228 A229:A246 B247 A248:A264 B265 A266:A272 B273 A274:A278 B279 A280:A1048576">
       <formula1>Task_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D104 E105 D106:D109 E110 D111:D120 E121 D122:D133 E134 D135:D145 E146 D147:D176 E177 D178:D195 E196 D197:D203 E204 D205:D219 E220 D221:D227 E228 D229:D246 E247 D248:D264 E265 D266:D272 E273 D274:D278 E279 D280:D580 D581:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D104 E105 D106:D109 E110 D111:D120 E121 D122:D133 E134 D135:D145 E146 D147:D176 E177 D178:D195 E196 D197:D203 E204 D205:D219 E220 D221:D227 E228 D229:D246 E247 D248:D264 E265 D266:D272 E273 D274:D278 E279 D280:D1048576">
       <formula1>Building</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A2 A9 A17 A21 A24 A28 A32 A35 A38 A54 A58 A64 A81 A86 A105 A110 A121 A134 A146 A177 A196 A204 A220 A228 A247 A265 A273 A279">

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2726" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2819" uniqueCount="444">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1743,6 +1743,9 @@
       </rPr>
       <t>. Leave portable screen. Return to FDRS 156A.</t>
     </r>
+  </si>
+  <si>
+    <t>Pick up Skype camera with tripod and USB extension cable. Return to Vari 1019 MCR storeroom. BE ON TIME - CRUCIAL.</t>
   </si>
 </sst>
 </file>
@@ -2279,11 +2282,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I607"/>
+  <dimension ref="A1:I628"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A582" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H600" sqref="H600"/>
+      <pane ySplit="1" topLeftCell="A614" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B635" sqref="B635"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13410,6 +13413,394 @@
         <v>442</v>
       </c>
     </row>
+    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A608" s="6"/>
+      <c r="B608" s="23"/>
+      <c r="C608" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D608" s="6"/>
+      <c r="E608" s="27"/>
+      <c r="F608" s="29"/>
+    </row>
+    <row r="609" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A609" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B609" s="21">
+        <v>42697</v>
+      </c>
+      <c r="C609" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="D609" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E609" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="F609" s="20" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A610" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B610" s="21">
+        <v>42697</v>
+      </c>
+      <c r="C610" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D610" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E610" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="611" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A611" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B611" s="21">
+        <v>42697</v>
+      </c>
+      <c r="C611" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D611" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E611" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="F611" s="20" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A612" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B612" s="21">
+        <v>42697</v>
+      </c>
+      <c r="C612" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D612" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E612" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F612" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A613" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B613" s="21">
+        <v>42697</v>
+      </c>
+      <c r="C613" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D613" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E613" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A614" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B614" s="21">
+        <v>42697</v>
+      </c>
+      <c r="C614" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D614" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E614" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F614" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A615" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B615" s="21">
+        <v>42697</v>
+      </c>
+      <c r="C615" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="D615" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E615" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="F615" s="20" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A616" s="6"/>
+      <c r="B616" s="23"/>
+      <c r="C616" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D616" s="6"/>
+      <c r="E616" s="27"/>
+      <c r="F616" s="29"/>
+    </row>
+    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A617" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B617" s="21">
+        <v>42698</v>
+      </c>
+      <c r="C617" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D617" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E617" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="F617" s="20" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="618" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A618" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B618" s="21">
+        <v>42698</v>
+      </c>
+      <c r="C618" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D618" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E618" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F618" s="20" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="619" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A619" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B619" s="21">
+        <v>42698</v>
+      </c>
+      <c r="C619" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="D619" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E619" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="F619" s="20" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A620" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B620" s="21">
+        <v>42696</v>
+      </c>
+      <c r="C620" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="D620" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E620" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F620" s="20" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A621" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B621" s="21">
+        <v>42696</v>
+      </c>
+      <c r="C621" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="D621" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E621" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F621" s="20" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A622" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B622" s="21">
+        <v>42698</v>
+      </c>
+      <c r="C622" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D622" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E622" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A623" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B623" s="21">
+        <v>42698</v>
+      </c>
+      <c r="C623" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D623" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E623" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F623" s="20" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A624" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B624" s="21">
+        <v>42698</v>
+      </c>
+      <c r="C624" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="D624" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E624" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F624" s="20" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="625" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A625" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B625" s="21">
+        <v>42698</v>
+      </c>
+      <c r="C625" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D625" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E625" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="F625" s="20" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A626" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B626" s="21">
+        <v>42698</v>
+      </c>
+      <c r="C626" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D626" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E626" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F626" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="627" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A627" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B627" s="21">
+        <v>42698</v>
+      </c>
+      <c r="C627" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D627" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E627" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="628" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A628" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B628" s="21">
+        <v>42698</v>
+      </c>
+      <c r="C628" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="D628" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E628" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F628" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0"/>
   <sortState ref="A427:G515">
@@ -13417,10 +13808,10 @@
     <sortCondition ref="D427:D515"/>
   </sortState>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A104 B105 A106:A109 B110 A111:A120 B121 A122:A133 B134 A135:A145 B146 A147:A176 B177 A178:A195 B196 A197:A203 B204 A205:A219 B220 A221:A227 B228 A229:A246 B247 A248:A264 B265 A266:A272 B273 A274:A278 B279 A280:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A104 B105 A106:A109 B110 A111:A120 B121 A122:A133 B134 A135:A145 B146 A147:A176 B177 A178:A195 B196 A197:A203 B204 A205:A219 B220 A221:A227 B228 A229:A246 B247 A248:A264 B265 A266:A272 B273 A274:A278 B279 A280:A628 A629:A1048576">
       <formula1>Task_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D104 E105 D106:D109 E110 D111:D120 E121 D122:D133 E134 D135:D145 E146 D147:D176 E177 D178:D195 E196 D197:D203 E204 D205:D219 E220 D221:D227 E228 D229:D246 E247 D248:D264 E265 D266:D272 E273 D274:D278 E279 D280:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D104 E105 D106:D109 E110 D111:D120 E121 D122:D133 E134 D135:D145 E146 D147:D176 E177 D178:D195 E196 D197:D203 E204 D205:D219 E220 D221:D227 E228 D229:D246 E247 D248:D264 E265 D266:D272 E273 D274:D278 E279 D280:D628 D629:D1048576">
       <formula1>Building</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A2 A9 A17 A21 A24 A28 A32 A35 A38 A54 A58 A64 A81 A86 A105 A110 A121 A134 A146 A177 A196 A204 A220 A228 A247 A265 A273 A279">

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhan\Documents\Visual Studio 2015\Projects\ClassOpsLogCreator\CLASSOPS\Derek\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="90" yWindow="150" windowWidth="14865" windowHeight="10785" tabRatio="440"/>
   </bookViews>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2819" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2853" uniqueCount="445">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1747,11 +1752,14 @@
   <si>
     <t>Pick up Skype camera with tripod and USB extension cable. Return to Vari 1019 MCR storeroom. BE ON TIME - CRUCIAL.</t>
   </si>
+  <si>
+    <t>Friday</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -1988,6 +1996,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2035,7 +2046,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2068,9 +2079,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2103,6 +2131,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2282,11 +2327,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I628"/>
+  <dimension ref="A1:I636"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A614" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B635" sqref="B635"/>
+      <selection pane="bottomLeft" activeCell="B631" sqref="B631:B636"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13801,6 +13846,150 @@
         <v>205</v>
       </c>
     </row>
+    <row r="629" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A629" s="6"/>
+      <c r="B629" s="23"/>
+      <c r="C629" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="D629" s="6"/>
+      <c r="E629" s="27"/>
+      <c r="F629" s="29"/>
+    </row>
+    <row r="630" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A630" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B630" s="21">
+        <v>42699</v>
+      </c>
+      <c r="C630" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="D630" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E630" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="F630" s="20" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="631" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A631" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B631" s="21">
+        <v>42699</v>
+      </c>
+      <c r="C631" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D631" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E631" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="632" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A632" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B632" s="21">
+        <v>42699</v>
+      </c>
+      <c r="C632" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D632" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E632" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="F632" s="20" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A633" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B633" s="21">
+        <v>42699</v>
+      </c>
+      <c r="C633" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D633" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E633" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F633" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A634" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B634" s="21">
+        <v>42699</v>
+      </c>
+      <c r="C634" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D634" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E634" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="635" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A635" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B635" s="21">
+        <v>42699</v>
+      </c>
+      <c r="C635" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D635" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E635" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F635" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="636" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A636" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B636" s="21">
+        <v>42699</v>
+      </c>
+      <c r="C636" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="D636" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E636" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="F636" s="20" t="s">
+        <v>348</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0"/>
   <sortState ref="A427:G515">
@@ -13808,10 +13997,10 @@
     <sortCondition ref="D427:D515"/>
   </sortState>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A104 B105 A106:A109 B110 A111:A120 B121 A122:A133 B134 A135:A145 B146 A147:A176 B177 A178:A195 B196 A197:A203 B204 A205:A219 B220 A221:A227 B228 A229:A246 B247 A248:A264 B265 A266:A272 B273 A274:A278 B279 A280:A628 A629:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A104 B105 A106:A109 B110 A111:A120 B121 A122:A133 B134 A135:A145 B146 A147:A176 B177 A178:A195 B196 A197:A203 B204 A205:A219 B220 A221:A227 B228 A229:A246 B247 A248:A264 B265 A266:A272 B273 A274:A278 B279 A280:A1048576">
       <formula1>Task_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D104 E105 D106:D109 E110 D111:D120 E121 D122:D133 E134 D135:D145 E146 D147:D176 E177 D178:D195 E196 D197:D203 E204 D205:D219 E220 D221:D227 E228 D229:D246 E247 D248:D264 E265 D266:D272 E273 D274:D278 E279 D280:D628 D629:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D104 E105 D106:D109 E110 D111:D120 E121 D122:D133 E134 D135:D145 E146 D147:D176 E177 D178:D195 E196 D197:D203 E204 D205:D219 E220 D221:D227 E228 D229:D246 E247 D248:D264 E265 D266:D272 E273 D274:D278 E279 D280:D1048576">
       <formula1>Building</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A2 A9 A17 A21 A24 A28 A32 A35 A38 A54 A58 A64 A81 A86 A105 A110 A121 A134 A146 A177 A196 A204 A220 A228 A247 A265 A273 A279">

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhan\Documents\Visual Studio 2015\Projects\ClassOpsLogCreator\CLASSOPS\Derek\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="90" yWindow="150" windowWidth="14865" windowHeight="10785" tabRatio="440"/>
   </bookViews>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2853" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2829" uniqueCount="444">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1752,14 +1747,11 @@
   <si>
     <t>Pick up Skype camera with tripod and USB extension cable. Return to Vari 1019 MCR storeroom. BE ON TIME - CRUCIAL.</t>
   </si>
-  <si>
-    <t>Friday</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -1996,9 +1988,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2046,7 +2035,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2079,26 +2068,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2131,23 +2103,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2327,11 +2282,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I636"/>
+  <dimension ref="A1:I631"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A614" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B631" sqref="B631:B636"/>
+      <selection pane="bottomLeft" activeCell="C635" sqref="C635"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13850,35 +13805,32 @@
       <c r="A629" s="6"/>
       <c r="B629" s="23"/>
       <c r="C629" s="8" t="s">
-        <v>444</v>
+        <v>139</v>
       </c>
       <c r="D629" s="6"/>
       <c r="E629" s="27"/>
       <c r="F629" s="29"/>
     </row>
-    <row r="630" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A630" s="10" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B630" s="21">
         <v>42699</v>
       </c>
       <c r="C630" s="17" t="s">
-        <v>284</v>
+        <v>105</v>
       </c>
       <c r="D630" s="18" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E630" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="F630" s="20" t="s">
-        <v>443</v>
+        <v>108</v>
       </c>
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A631" s="10" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="B631" s="21">
         <v>42699</v>
@@ -13886,108 +13838,14 @@
       <c r="C631" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="D631" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E631" s="19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="632" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A632" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B632" s="21">
-        <v>42699</v>
-      </c>
-      <c r="C632" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="D632" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E632" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="F632" s="20" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A633" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B633" s="21">
-        <v>42699</v>
-      </c>
-      <c r="C633" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="D633" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E633" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="F633" s="20" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A634" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B634" s="21">
-        <v>42699</v>
-      </c>
-      <c r="C634" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="D634" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E634" s="19" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="635" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A635" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B635" s="21">
-        <v>42699</v>
-      </c>
-      <c r="C635" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="D635" s="10" t="s">
+      <c r="D631" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E635" s="15" t="s">
+      <c r="E631" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="F635" s="16" t="s">
+      <c r="F631" s="16" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="636" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A636" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B636" s="21">
-        <v>42699</v>
-      </c>
-      <c r="C636" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="D636" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E636" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="F636" s="20" t="s">
-        <v>348</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2829" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2923" uniqueCount="447">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1746,6 +1746,15 @@
   </si>
   <si>
     <t>Pick up Skype camera with tripod and USB extension cable. Return to Vari 1019 MCR storeroom. BE ON TIME - CRUCIAL.</t>
+  </si>
+  <si>
+    <t>S102</t>
+  </si>
+  <si>
+    <t>Tutorial leader is Onyinechukwu Udeqbe.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -2282,11 +2291,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I631"/>
+  <dimension ref="A1:I656"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A614" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C635" sqref="C635"/>
+      <pane ySplit="1" topLeftCell="A630" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B645" sqref="B645:B652"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13848,6 +13857,402 @@
         <v>128</v>
       </c>
     </row>
+    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A632" s="6"/>
+      <c r="B632" s="23"/>
+      <c r="C632" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D632" s="6"/>
+      <c r="E632" s="27"/>
+      <c r="F632" s="29"/>
+    </row>
+    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A633" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B633" s="21">
+        <v>42702</v>
+      </c>
+      <c r="C633" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D633" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E633" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F633" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A634" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B634" s="21">
+        <v>42702</v>
+      </c>
+      <c r="C634" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="D634" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E634" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="F634" s="20" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="635" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A635" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B635" s="21">
+        <v>42702</v>
+      </c>
+      <c r="C635" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D635" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E635" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="F635" s="20" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="636" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A636" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B636" s="21">
+        <v>42702</v>
+      </c>
+      <c r="C636" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D636" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E636" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="637" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A637" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B637" s="21">
+        <v>42702</v>
+      </c>
+      <c r="C637" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="D637" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E637" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F637" s="20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="638" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A638" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B638" s="21">
+        <v>42702</v>
+      </c>
+      <c r="C638" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="D638" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E638" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="639" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A639" s="6"/>
+      <c r="B639" s="23"/>
+      <c r="C639" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D639" s="6"/>
+      <c r="E639" s="27"/>
+      <c r="F639" s="29"/>
+    </row>
+    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A640" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B640" s="21">
+        <v>42702</v>
+      </c>
+      <c r="C640" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D640" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E640" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="F640" s="20" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="641" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A641" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B641" s="21">
+        <v>42702</v>
+      </c>
+      <c r="C641" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D641" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E641" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F641" s="20" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="642" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A642" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B642" s="21">
+        <v>42702</v>
+      </c>
+      <c r="C642" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="D642" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E642" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="F642" s="20" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="643" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A643" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B643" s="21">
+        <v>42696</v>
+      </c>
+      <c r="C643" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="D643" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E643" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F643" s="20" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="644" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A644" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B644" s="21">
+        <v>42696</v>
+      </c>
+      <c r="C644" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="D644" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E644" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F644" s="20" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="645" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A645" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B645" s="21">
+        <v>42702</v>
+      </c>
+      <c r="C645" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D645" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E645" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="646" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A646" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B646" s="21">
+        <v>42702</v>
+      </c>
+      <c r="C646" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D646" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E646" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F646" s="20" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="647" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A647" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B647" s="21">
+        <v>42702</v>
+      </c>
+      <c r="C647" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="D647" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E647" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F647" s="20" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="648" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A648" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B648" s="21">
+        <v>42702</v>
+      </c>
+      <c r="C648" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D648" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E648" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="F648" s="20" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="649" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A649" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B649" s="21">
+        <v>42702</v>
+      </c>
+      <c r="C649" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D649" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E649" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F649" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="650" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A650" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B650" s="21">
+        <v>42702</v>
+      </c>
+      <c r="C650" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D650" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E650" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="651" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A651" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B651" s="21">
+        <v>42702</v>
+      </c>
+      <c r="C651" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="D651" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E651" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F651" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="652" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A652" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B652" s="21">
+        <v>42702</v>
+      </c>
+      <c r="C652" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="D652" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E652" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F652" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="653" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A653" s="10" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="654" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="656" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0"/>
   <sortState ref="A427:G515">

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2923" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3079" uniqueCount="455">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1754,7 +1754,123 @@
     <t>Tutorial leader is Onyinechukwu Udeqbe.</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <r>
+      <t xml:space="preserve">Use the PC cart from VC 040 storeroom that has the small PA underneath. Portable screen is there. Door code </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7083*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Connect a neck mic and lectern mic to small PA under PC cart.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Leave portable screen and network cable. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lock room and set the alarm if you know how</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. To Vanier 040 storeroom.</t>
+    </r>
+  </si>
+  <si>
+    <t>Unlock both hallway doors to the Nat Taylor Cinema.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">James Laxer wants to be shown how to play a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>streamed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> video.</t>
+    </r>
+  </si>
+  <si>
+    <t>Return lectern mic, audience mic and stands, projector remote and presentation remote to back booth.</t>
+  </si>
+  <si>
+    <t>Neck mic, lectern mic and small PA under PC cart, cables, stand and carpets. To Vanier 040 storeroom.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Return web cam and tripod to Vari 1019, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not Ross S120</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Return lectern mic, desk mic, neck mic and stands, projector remote and presentation remote to back booth.</t>
   </si>
 </sst>
 </file>
@@ -2291,11 +2407,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I656"/>
+  <dimension ref="A1:I690"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A630" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B645" sqref="B645:B652"/>
+      <pane ySplit="1" topLeftCell="A673" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B691" sqref="B691"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13581,7 +13697,7 @@
         <v>80</v>
       </c>
       <c r="B617" s="21">
-        <v>42698</v>
+        <v>42696</v>
       </c>
       <c r="C617" s="17" t="s">
         <v>105</v>
@@ -13972,7 +14088,7 @@
         <v>42702</v>
       </c>
       <c r="C638" s="17" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="D638" s="18" t="s">
         <v>59</v>
@@ -13985,7 +14101,7 @@
       <c r="A639" s="6"/>
       <c r="B639" s="23"/>
       <c r="C639" s="8" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D639" s="6"/>
       <c r="E639" s="27"/>
@@ -13996,127 +14112,124 @@
         <v>80</v>
       </c>
       <c r="B640" s="21">
-        <v>42702</v>
+        <v>42703</v>
       </c>
       <c r="C640" s="17" t="s">
         <v>105</v>
       </c>
       <c r="D640" s="18" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E640" s="19" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F640" s="20" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="641" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="641" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A641" s="10" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B641" s="21">
-        <v>42702</v>
+        <v>42703</v>
       </c>
       <c r="C641" s="17" t="s">
-        <v>129</v>
+        <v>210</v>
       </c>
       <c r="D641" s="18" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E641" s="19" t="s">
-        <v>149</v>
+        <v>411</v>
       </c>
       <c r="F641" s="20" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="642" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A642" s="10" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B642" s="21">
-        <v>42702</v>
+        <v>42703</v>
       </c>
       <c r="C642" s="17" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
       <c r="D642" s="18" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E642" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="F642" s="20" t="s">
-        <v>432</v>
+        <v>106</v>
       </c>
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A643" s="10" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B643" s="21">
-        <v>42696</v>
+        <v>42703</v>
       </c>
       <c r="C643" s="17" t="s">
-        <v>284</v>
+        <v>110</v>
       </c>
       <c r="D643" s="18" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E643" s="19" t="s">
-        <v>187</v>
+        <v>411</v>
       </c>
       <c r="F643" s="20" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A644" s="10" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="B644" s="21">
-        <v>42696</v>
+        <v>42703</v>
       </c>
       <c r="C644" s="17" t="s">
-        <v>284</v>
+        <v>324</v>
       </c>
       <c r="D644" s="18" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E644" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="F644" s="20" t="s">
-        <v>439</v>
+        <v>108</v>
       </c>
     </row>
     <row r="645" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A645" s="10" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="B645" s="21">
-        <v>42702</v>
+        <v>42703</v>
       </c>
       <c r="C645" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="D645" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E645" s="19" t="s">
-        <v>106</v>
+        <v>225</v>
+      </c>
+      <c r="D645" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E645" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F645" s="16" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A646" s="10" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="B646" s="21">
-        <v>42702</v>
+        <v>42703</v>
       </c>
       <c r="C646" s="17" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D646" s="18" t="s">
         <v>59</v>
@@ -14125,67 +14238,54 @@
         <v>136</v>
       </c>
       <c r="F646" s="20" t="s">
-        <v>400</v>
+        <v>205</v>
       </c>
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A647" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B647" s="21">
-        <v>42702</v>
-      </c>
-      <c r="C647" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="D647" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E647" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="F647" s="20" t="s">
-        <v>442</v>
-      </c>
+      <c r="A647" s="6"/>
+      <c r="B647" s="23"/>
+      <c r="C647" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D647" s="6"/>
+      <c r="E647" s="27"/>
+      <c r="F647" s="29"/>
     </row>
     <row r="648" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A648" s="10" t="s">
         <v>93</v>
       </c>
       <c r="B648" s="21">
-        <v>42702</v>
+        <v>42704</v>
       </c>
       <c r="C648" s="17" t="s">
-        <v>225</v>
+        <v>284</v>
       </c>
       <c r="D648" s="18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E648" s="19" t="s">
-        <v>163</v>
+        <v>275</v>
       </c>
       <c r="F648" s="20" t="s">
-        <v>380</v>
+        <v>443</v>
       </c>
     </row>
     <row r="649" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A649" s="10" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="B649" s="21">
-        <v>42702</v>
+        <v>42704</v>
       </c>
       <c r="C649" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="D649" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E649" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F649" s="16" t="s">
-        <v>128</v>
+        <v>207</v>
+      </c>
+      <c r="D649" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E649" s="19" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.25">
@@ -14193,16 +14293,19 @@
         <v>80</v>
       </c>
       <c r="B650" s="21">
-        <v>42702</v>
+        <v>42704</v>
       </c>
       <c r="C650" s="17" t="s">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="D650" s="18" t="s">
         <v>59</v>
       </c>
       <c r="E650" s="19" t="s">
-        <v>108</v>
+        <v>136</v>
+      </c>
+      <c r="F650" s="20" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.25">
@@ -14210,49 +14313,727 @@
         <v>80</v>
       </c>
       <c r="B651" s="21">
-        <v>42702</v>
+        <v>42704</v>
       </c>
       <c r="C651" s="17" t="s">
-        <v>243</v>
+        <v>110</v>
       </c>
       <c r="D651" s="18" t="s">
         <v>59</v>
       </c>
       <c r="E651" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="F651" s="20" t="s">
-        <v>205</v>
+        <v>106</v>
       </c>
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A652" s="10" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="B652" s="21">
-        <v>42702</v>
+        <v>42704</v>
       </c>
       <c r="C652" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D652" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E652" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F652" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="653" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A653" s="6"/>
+      <c r="B653" s="23"/>
+      <c r="C653" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D653" s="6"/>
+      <c r="E653" s="27"/>
+      <c r="F653" s="29"/>
+    </row>
+    <row r="654" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A654" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B654" s="21">
+        <v>42705</v>
+      </c>
+      <c r="C654" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D654" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E654" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="F654" s="20" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="655" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A655" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B655" s="21">
+        <v>42705</v>
+      </c>
+      <c r="C655" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="D655" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E655" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="F655" s="20" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="656" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A656" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B656" s="21">
+        <v>42705</v>
+      </c>
+      <c r="C656" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D656" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E656" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F656" s="20" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="657" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A657" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B657" s="21">
+        <v>42705</v>
+      </c>
+      <c r="C657" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D657" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E657" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="658" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A658" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B658" s="21">
+        <v>42705</v>
+      </c>
+      <c r="C658" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="D658" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E658" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="F658" s="20" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="659" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A659" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B659" s="21">
+        <v>42705</v>
+      </c>
+      <c r="C659" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="D659" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E659" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="F659" s="20" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="660" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A660" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B660" s="21">
+        <v>42705</v>
+      </c>
+      <c r="C660" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D660" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E660" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F660" s="20" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="661" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A661" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B661" s="21">
+        <v>42705</v>
+      </c>
+      <c r="C661" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D661" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E661" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="F661" s="20" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="662" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A662" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B662" s="21">
+        <v>42705</v>
+      </c>
+      <c r="C662" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="D662" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E662" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F662" s="20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="663" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A663" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B663" s="21">
+        <v>42705</v>
+      </c>
+      <c r="C663" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D663" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E663" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="F663" s="20" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="664" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A664" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B664" s="21">
+        <v>42705</v>
+      </c>
+      <c r="C664" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D664" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E664" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F664" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="665" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A665" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B665" s="21">
+        <v>42705</v>
+      </c>
+      <c r="C665" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D665" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E665" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="666" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A666" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B666" s="21">
+        <v>42705</v>
+      </c>
+      <c r="C666" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="D666" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E666" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="F666" s="20" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="667" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A667" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B667" s="21">
+        <v>42705</v>
+      </c>
+      <c r="C667" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="D667" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E667" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="F667" s="20" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="668" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A668" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B668" s="21">
+        <v>42705</v>
+      </c>
+      <c r="C668" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="D652" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E652" s="19" t="s">
+      <c r="D668" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E668" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="F652" s="20" t="s">
+      <c r="F668" s="20" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="653" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A653" s="10" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="654" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="656" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A669" s="6"/>
+      <c r="B669" s="23"/>
+      <c r="C669" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D669" s="6"/>
+      <c r="E669" s="27"/>
+      <c r="F669" s="29"/>
+    </row>
+    <row r="670" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A670" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B670" s="21">
+        <v>42706</v>
+      </c>
+      <c r="C670" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D670" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E670" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="671" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A671" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B671" s="21">
+        <v>42706</v>
+      </c>
+      <c r="C671" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D671" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E671" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="672" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A672" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B672" s="21">
+        <v>42706</v>
+      </c>
+      <c r="C672" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D672" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E672" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F672" s="14" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="673" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A673" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B673" s="21">
+        <v>42706</v>
+      </c>
+      <c r="C673" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D673" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E673" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F673" s="20" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="674" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A674" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B674" s="21">
+        <v>42706</v>
+      </c>
+      <c r="C674" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D674" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E674" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F674" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="675" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A675" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B675" s="21">
+        <v>42706</v>
+      </c>
+      <c r="C675" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="D675" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E675" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F675" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="676" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A676" s="6"/>
+      <c r="B676" s="23"/>
+      <c r="C676" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D676" s="6"/>
+      <c r="E676" s="27"/>
+      <c r="F676" s="29"/>
+    </row>
+    <row r="677" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A677" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B677" s="21">
+        <v>42709</v>
+      </c>
+      <c r="C677" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D677" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E677" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F677" s="20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="678" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A678" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B678" s="21">
+        <v>42709</v>
+      </c>
+      <c r="C678" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D678" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E678" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F678" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="679" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A679" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B679" s="21">
+        <v>42709</v>
+      </c>
+      <c r="C679" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D679" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E679" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F679" s="14" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="680" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A680" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B680" s="21">
+        <v>42709</v>
+      </c>
+      <c r="C680" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D680" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E680" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F680" s="20" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="681" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A681" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B681" s="21">
+        <v>42709</v>
+      </c>
+      <c r="C681" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D681" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E681" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="F681" s="20" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="682" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A682" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B682" s="21">
+        <v>42709</v>
+      </c>
+      <c r="C682" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D682" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E682" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="683" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A683" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B683" s="21">
+        <v>42709</v>
+      </c>
+      <c r="C683" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D683" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E683" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="684" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A684" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B684" s="21">
+        <v>42709</v>
+      </c>
+      <c r="C684" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="D684" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E684" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F684" s="20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="685" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A685" s="6"/>
+      <c r="B685" s="23"/>
+      <c r="C685" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D685" s="6"/>
+      <c r="E685" s="27"/>
+      <c r="F685" s="29"/>
+    </row>
+    <row r="686" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A686" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B686" s="21">
+        <v>42710</v>
+      </c>
+      <c r="C686" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D686" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E686" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="687" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A687" s="6"/>
+      <c r="B687" s="23"/>
+      <c r="C687" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D687" s="6"/>
+      <c r="E687" s="27"/>
+      <c r="F687" s="29"/>
+    </row>
+    <row r="688" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A688" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B688" s="21">
+        <v>42711</v>
+      </c>
+      <c r="C688" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D688" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E688" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F688" s="20" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="689" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A689" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B689" s="21">
+        <v>42711</v>
+      </c>
+      <c r="C689" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D689" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E689" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F689" s="20" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="690" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A690" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B690" s="21">
+        <v>42711</v>
+      </c>
+      <c r="C690" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D690" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E690" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F690" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0"/>
   <sortState ref="A427:G515">

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3079" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3105" uniqueCount="456">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1871,6 +1871,9 @@
   </si>
   <si>
     <t>Return lectern mic, desk mic, neck mic and stands, projector remote and presentation remote to back booth.</t>
+  </si>
+  <si>
+    <t>Return lectern mic, desk mic, neck and stands, projector remote and presentation remote to back booth.</t>
   </si>
 </sst>
 </file>
@@ -2407,11 +2410,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I690"/>
+  <dimension ref="A1:I696"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A673" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B691" sqref="B691"/>
+      <pane ySplit="1" topLeftCell="A674" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D699" sqref="D699"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15032,6 +15035,116 @@
       </c>
       <c r="F690" s="16" t="s">
         <v>128</v>
+      </c>
+    </row>
+    <row r="691" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A691" s="6"/>
+      <c r="B691" s="23"/>
+      <c r="C691" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D691" s="6"/>
+      <c r="E691" s="27"/>
+      <c r="F691" s="29"/>
+    </row>
+    <row r="692" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A692" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B692" s="21">
+        <v>42712</v>
+      </c>
+      <c r="C692" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D692" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E692" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F692" s="20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="693" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A693" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B693" s="21">
+        <v>42712</v>
+      </c>
+      <c r="C693" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D693" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E693" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F693" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="694" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A694" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B694" s="21">
+        <v>42712</v>
+      </c>
+      <c r="C694" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D694" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E694" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F694" s="14" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="695" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A695" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B695" s="21">
+        <v>42712</v>
+      </c>
+      <c r="C695" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D695" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E695" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F695" s="20" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="696" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A696" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B696" s="21">
+        <v>42712</v>
+      </c>
+      <c r="C696" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D696" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E696" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F696" s="20" t="s">
+        <v>455</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3105" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3214" uniqueCount="471">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1874,6 +1874,51 @@
   </si>
   <si>
     <t>Return lectern mic, desk mic, neck and stands, projector remote and presentation remote to back booth.</t>
+  </si>
+  <si>
+    <t>Large screen TV in room already with PC. Just demo how to use equipment - client playing DVD disc thru PC with VLC.</t>
+  </si>
+  <si>
+    <t>Pick up large screen TV (DLP unit) with wireless keyboard and return to Vanier 132 storeroom (behind elevator). Go early so doesn't get locked in.</t>
+  </si>
+  <si>
+    <t>Log off crestron and return wireless keyboard to rack drawer.</t>
+  </si>
+  <si>
+    <t>1020</t>
+  </si>
+  <si>
+    <t>Make sure neck mic goes back to drawer - log off.</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>1158</t>
+  </si>
+  <si>
+    <t>Log off crestron.</t>
+  </si>
+  <si>
+    <t>Log off crestron and return neck mic to drawer.</t>
+  </si>
+  <si>
+    <t>050A</t>
+  </si>
+  <si>
+    <t>050B</t>
+  </si>
+  <si>
+    <t>050C</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
   </si>
 </sst>
 </file>
@@ -2410,11 +2455,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I696"/>
+  <dimension ref="A1:I721"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A674" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D699" sqref="D699"/>
+      <pane ySplit="1" topLeftCell="A692" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F717" sqref="F717"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15145,6 +15190,460 @@
       </c>
       <c r="F696" s="20" t="s">
         <v>455</v>
+      </c>
+    </row>
+    <row r="697" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A697" s="6"/>
+      <c r="B697" s="23"/>
+      <c r="C697" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D697" s="6"/>
+      <c r="E697" s="27"/>
+      <c r="F697" s="29"/>
+    </row>
+    <row r="698" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A698" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B698" s="21">
+        <v>42713</v>
+      </c>
+      <c r="C698" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D698" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E698" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="F698" s="20" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="699" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A699" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B699" s="21">
+        <v>42713</v>
+      </c>
+      <c r="C699" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="D699" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E699" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="F699" s="20" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="700" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A700" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B700" s="21">
+        <v>42713</v>
+      </c>
+      <c r="C700" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D700" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E700" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="F700" s="20" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="701" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A701" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B701" s="21">
+        <v>42713</v>
+      </c>
+      <c r="C701" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D701" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E701" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="F701" s="20" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="702" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A702" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B702" s="21">
+        <v>42713</v>
+      </c>
+      <c r="C702" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D702" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E702" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="F702" s="20" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="703" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A703" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B703" s="21">
+        <v>42713</v>
+      </c>
+      <c r="C703" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D703" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E703" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="F703" s="20" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="704" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A704" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B704" s="21">
+        <v>42713</v>
+      </c>
+      <c r="C704" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D704" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E704" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="F704" s="20" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="705" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A705" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B705" s="21">
+        <v>42713</v>
+      </c>
+      <c r="C705" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D705" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E705" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="F705" s="20" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="706" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A706" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B706" s="21">
+        <v>42713</v>
+      </c>
+      <c r="C706" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D706" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E706" s="19" t="s">
+        <v>462</v>
+      </c>
+      <c r="F706" s="20" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="707" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A707" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B707" s="21">
+        <v>42713</v>
+      </c>
+      <c r="C707" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D707" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E707" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="F707" s="20" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="708" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A708" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B708" s="21">
+        <v>42713</v>
+      </c>
+      <c r="C708" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D708" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E708" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="F708" s="20" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="709" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A709" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B709" s="21">
+        <v>42713</v>
+      </c>
+      <c r="C709" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D709" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E709" s="19" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="710" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A710" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B710" s="21">
+        <v>42713</v>
+      </c>
+      <c r="C710" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D710" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E710" s="19" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="711" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A711" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B711" s="21">
+        <v>42713</v>
+      </c>
+      <c r="C711" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D711" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E711" s="19" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="712" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A712" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B712" s="21">
+        <v>42713</v>
+      </c>
+      <c r="C712" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D712" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E712" s="19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="713" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A713" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B713" s="21">
+        <v>42713</v>
+      </c>
+      <c r="C713" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D713" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E713" s="19" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="714" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A714" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B714" s="21">
+        <v>42713</v>
+      </c>
+      <c r="C714" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D714" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E714" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F714" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="715" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A715" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B715" s="21">
+        <v>42713</v>
+      </c>
+      <c r="C715" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D715" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E715" s="19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="716" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A716" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B716" s="21">
+        <v>42713</v>
+      </c>
+      <c r="C716" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D716" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E716" s="19" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="717" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A717" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B717" s="21">
+        <v>42713</v>
+      </c>
+      <c r="C717" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D717" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E717" s="19" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="718" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A718" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B718" s="21">
+        <v>42713</v>
+      </c>
+      <c r="C718" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="D718" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E718" s="19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="719" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A719" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B719" s="21">
+        <v>42713</v>
+      </c>
+      <c r="C719" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="D719" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E719" s="19" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="720" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A720" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B720" s="21">
+        <v>42713</v>
+      </c>
+      <c r="C720" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="D720" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E720" s="19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A721" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B721" s="21">
+        <v>42713</v>
+      </c>
+      <c r="C721" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="D721" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E721" s="19" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3214" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3275" uniqueCount="475">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1919,6 +1919,18 @@
   </si>
   <si>
     <t>116</t>
+  </si>
+  <si>
+    <t>Meet Professor Lawrence Lam.</t>
+  </si>
+  <si>
+    <t>Meet Professor Xiaofeng Zhou</t>
+  </si>
+  <si>
+    <t>Log in and route the DVD player so it's ready to play for T. Conlin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return lectern mic, audience mic, stands, projector remote and presentation remote to back booth. There is an additional neck microphone that needs to be picked up as well. </t>
   </si>
 </sst>
 </file>
@@ -2455,11 +2467,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I721"/>
+  <dimension ref="A1:I736"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A692" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F717" sqref="F717"/>
+      <pane ySplit="1" topLeftCell="A713" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F736" sqref="F736"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15629,7 +15641,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A721" s="10" t="s">
         <v>80</v>
       </c>
@@ -15644,6 +15656,270 @@
       </c>
       <c r="E721" s="19" t="s">
         <v>273</v>
+      </c>
+    </row>
+    <row r="722" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A722" s="6"/>
+      <c r="B722" s="23"/>
+      <c r="C722" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D722" s="6"/>
+      <c r="E722" s="27"/>
+      <c r="F722" s="29"/>
+    </row>
+    <row r="723" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A723" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B723" s="21">
+        <v>42738</v>
+      </c>
+      <c r="C723" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D723" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E723" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F723" s="20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="724" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A724" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B724" s="21">
+        <v>42738</v>
+      </c>
+      <c r="C724" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D724" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E724" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F724" s="14" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="725" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A725" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B725" s="21">
+        <v>42738</v>
+      </c>
+      <c r="C725" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D725" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E725" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F725" s="20" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="726" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A726" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B726" s="21">
+        <v>42738</v>
+      </c>
+      <c r="C726" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D726" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E726" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F726" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="727" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A727" s="6"/>
+      <c r="B727" s="23"/>
+      <c r="C727" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D727" s="6"/>
+      <c r="E727" s="27"/>
+      <c r="F727" s="29"/>
+    </row>
+    <row r="728" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A728" s="6"/>
+      <c r="B728" s="23"/>
+      <c r="C728" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D728" s="6"/>
+      <c r="E728" s="27"/>
+      <c r="F728" s="29"/>
+    </row>
+    <row r="729" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A729" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B729" s="21">
+        <v>42740</v>
+      </c>
+      <c r="C729" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D729" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E729" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="F729" s="20" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="730" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A730" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B730" s="21">
+        <v>42740</v>
+      </c>
+      <c r="C730" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="D730" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E730" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="F730" s="20" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="731" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A731" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B731" s="21">
+        <v>42740</v>
+      </c>
+      <c r="C731" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D731" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E731" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F731" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="732" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A732" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B732" s="21">
+        <v>42740</v>
+      </c>
+      <c r="C732" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D732" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E732" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F732" s="20" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="733" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A733" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B733" s="21">
+        <v>42740</v>
+      </c>
+      <c r="C733" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D733" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E733" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F733" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="734" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A734" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B734" s="21">
+        <v>42740</v>
+      </c>
+      <c r="C734" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D734" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E734" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="735" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A735" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B735" s="21">
+        <v>42740</v>
+      </c>
+      <c r="C735" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D735" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E735" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="736" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A736" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B736" s="21">
+        <v>42740</v>
+      </c>
+      <c r="C736" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D736" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E736" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="F736" s="20" t="s">
+        <v>472</v>
       </c>
     </row>
   </sheetData>
@@ -15653,10 +15929,10 @@
     <sortCondition ref="D427:D515"/>
   </sortState>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A104 B105 A106:A109 B110 A111:A120 B121 A122:A133 B134 A135:A145 B146 A147:A176 B177 A178:A195 B196 A197:A203 B204 A205:A219 B220 A221:A227 B228 A229:A246 B247 A248:A264 B265 A266:A272 B273 A274:A278 B279 A280:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A104 B105 A106:A109 B110 A111:A120 B121 A122:A133 B134 A135:A145 B146 A147:A176 B177 A178:A195 B196 A197:A203 B204 A205:A219 B220 A221:A227 B228 A229:A246 B247 A248:A264 B265 A266:A272 B273 A274:A278 B279 A280:A736 A737:A1048576">
       <formula1>Task_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D104 E105 D106:D109 E110 D111:D120 E121 D122:D133 E134 D135:D145 E146 D147:D176 E177 D178:D195 E196 D197:D203 E204 D205:D219 E220 D221:D227 E228 D229:D246 E247 D248:D264 E265 D266:D272 E273 D274:D278 E279 D280:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D104 E105 D106:D109 E110 D111:D120 E121 D122:D133 E134 D135:D145 E146 D147:D176 E177 D178:D195 E196 D197:D203 E204 D205:D219 E220 D221:D227 E228 D229:D246 E247 D248:D264 E265 D266:D272 E273 D274:D278 E279 D280:D736 D737:D1048576">
       <formula1>Building</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A2 A9 A17 A21 A24 A28 A32 A35 A38 A54 A58 A64 A81 A86 A105 A110 A121 A134 A146 A177 A196 A204 A220 A228 A247 A265 A273 A279">

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3275" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3281" uniqueCount="475">
   <si>
     <t>Staff Name</t>
   </si>
@@ -2467,11 +2467,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I736"/>
+  <dimension ref="A1:I738"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A713" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F736" sqref="F736"/>
+      <pane ySplit="1" topLeftCell="A716" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B739" sqref="B739"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15922,6 +15922,36 @@
         <v>472</v>
       </c>
     </row>
+    <row r="737" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A737" s="6"/>
+      <c r="B737" s="23"/>
+      <c r="C737" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D737" s="6"/>
+      <c r="E737" s="27"/>
+      <c r="F737" s="29"/>
+    </row>
+    <row r="738" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A738" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B738" s="21">
+        <v>42741</v>
+      </c>
+      <c r="C738" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D738" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E738" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F738" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0"/>
   <sortState ref="A427:G515">
@@ -15929,10 +15959,10 @@
     <sortCondition ref="D427:D515"/>
   </sortState>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A104 B105 A106:A109 B110 A111:A120 B121 A122:A133 B134 A135:A145 B146 A147:A176 B177 A178:A195 B196 A197:A203 B204 A205:A219 B220 A221:A227 B228 A229:A246 B247 A248:A264 B265 A266:A272 B273 A274:A278 B279 A280:A736 A737:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A104 B105 A106:A109 B110 A111:A120 B121 A122:A133 B134 A135:A145 B146 A147:A176 B177 A178:A195 B196 A197:A203 B204 A205:A219 B220 A221:A227 B228 A229:A246 B247 A248:A264 B265 A266:A272 B273 A274:A278 B279 A280:A1048576">
       <formula1>Task_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D104 E105 D106:D109 E110 D111:D120 E121 D122:D133 E134 D135:D145 E146 D147:D176 E177 D178:D195 E196 D197:D203 E204 D205:D219 E220 D221:D227 E228 D229:D246 E247 D248:D264 E265 D266:D272 E273 D274:D278 E279 D280:D736 D737:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D104 E105 D106:D109 E110 D111:D120 E121 D122:D133 E134 D135:D145 E146 D147:D176 E177 D178:D195 E196 D197:D203 E204 D205:D219 E220 D221:D227 E228 D229:D246 E247 D248:D264 E265 D266:D272 E273 D274:D278 E279 D280:D1048576">
       <formula1>Building</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A2 A9 A17 A21 A24 A28 A32 A35 A38 A54 A58 A64 A81 A86 A105 A110 A121 A134 A146 A177 A196 A204 A220 A228 A247 A265 A273 A279">

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3281" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3345" uniqueCount="484">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1931,6 +1931,33 @@
   </si>
   <si>
     <t xml:space="preserve">Return lectern mic, audience mic, stands, projector remote and presentation remote to back booth. There is an additional neck microphone that needs to be picked up as well. </t>
+  </si>
+  <si>
+    <t>Meet instructor Sanjeev Dhuga</t>
+  </si>
+  <si>
+    <t>Meet instructor Douglas McCready</t>
+  </si>
+  <si>
+    <t>1650</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>PC and neck mic is there.  Demo for Khan Le. Door code 7083*</t>
+  </si>
+  <si>
+    <t>Meet instructor Susan Ehrlich</t>
+  </si>
+  <si>
+    <t>Meet instructor Karen Murray</t>
+  </si>
+  <si>
+    <t>Meet instructor Jill Prindiville</t>
+  </si>
+  <si>
+    <t>Leave portable screen. Door code 7083* return to FDRS 156A.</t>
   </si>
 </sst>
 </file>
@@ -2467,11 +2494,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I738"/>
+  <dimension ref="A1:I752"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A716" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B739" sqref="B739"/>
+      <pane ySplit="1" topLeftCell="A728" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A752" sqref="A752"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15950,6 +15977,270 @@
       </c>
       <c r="F738" s="16" t="s">
         <v>128</v>
+      </c>
+    </row>
+    <row r="739" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A739" s="6"/>
+      <c r="B739" s="23"/>
+      <c r="C739" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D739" s="6"/>
+      <c r="E739" s="27"/>
+      <c r="F739" s="29"/>
+    </row>
+    <row r="740" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A740" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B740" s="21">
+        <v>42744</v>
+      </c>
+      <c r="C740" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D740" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E740" s="19" t="s">
+        <v>462</v>
+      </c>
+      <c r="F740" s="20" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="741" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A741" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B741" s="21">
+        <v>42744</v>
+      </c>
+      <c r="C741" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D741" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E741" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="F741" s="20" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="742" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A742" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B742" s="21">
+        <v>42744</v>
+      </c>
+      <c r="C742" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D742" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E742" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="F742" s="20" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="743" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A743" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B743" s="21">
+        <v>42744</v>
+      </c>
+      <c r="C743" s="17" t="s">
+        <v>477</v>
+      </c>
+      <c r="D743" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E743" s="19" t="s">
+        <v>478</v>
+      </c>
+      <c r="F743" s="20" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="744" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A744" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B744" s="21">
+        <v>42744</v>
+      </c>
+      <c r="C744" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="D744" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E744" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="F744" s="20" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="745" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A745" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B745" s="21">
+        <v>42744</v>
+      </c>
+      <c r="C745" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D745" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E745" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F745" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="746" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A746" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B746" s="21">
+        <v>42744</v>
+      </c>
+      <c r="C746" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D746" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E746" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="747" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A747" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B747" s="21">
+        <v>42744</v>
+      </c>
+      <c r="C747" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D747" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E747" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="748" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A748" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B748" s="21">
+        <v>42744</v>
+      </c>
+      <c r="C748" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D748" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E748" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F748" s="20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="749" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A749" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B749" s="21">
+        <v>42744</v>
+      </c>
+      <c r="C749" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D749" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E749" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="F749" s="20" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="750" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A750" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B750" s="21">
+        <v>42744</v>
+      </c>
+      <c r="C750" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D750" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E750" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="F750" s="20" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="751" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A751" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B751" s="21">
+        <v>42744</v>
+      </c>
+      <c r="C751" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="D751" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E751" s="19" t="s">
+        <v>478</v>
+      </c>
+      <c r="F751" s="20" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="752" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A752" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B752" s="21">
+        <v>42744</v>
+      </c>
+      <c r="C752" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="D752" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E752" s="19" t="s">
+        <v>478</v>
+      </c>
+      <c r="F752" s="20" t="s">
+        <v>405</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3345" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3539" uniqueCount="499">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1958,6 +1958,51 @@
   </si>
   <si>
     <t>Leave portable screen. Door code 7083* return to FDRS 156A.</t>
+  </si>
+  <si>
+    <t>East Bear Pit</t>
+  </si>
+  <si>
+    <t>3 wired mics, neck mic, stands, projector remote and presentation remote to back booth.</t>
+  </si>
+  <si>
+    <t>Web cam and tripod to Ross S120.</t>
+  </si>
+  <si>
+    <t>Meet instructor who shall remain nameless for the moment.</t>
+  </si>
+  <si>
+    <t>3009</t>
+  </si>
+  <si>
+    <t>3 flat screen TVs, wireless keyboards (turn off), 2 TV remotes and extension cords. Two of the PC's have wireless network receivers attached, the other is hard wired to the wall jack.  Return all to Vari 1155 and connect all 3 PC's to wired internet router there.</t>
+  </si>
+  <si>
+    <t>Return lectern mic, 2 desk mics, stands, projector remote and presentation remote to back booth.</t>
+  </si>
+  <si>
+    <t>Meet instructor Asma Sidddiqi</t>
+  </si>
+  <si>
+    <t>Meet instructor Carole Bigwood.  Monitor cutting out?</t>
+  </si>
+  <si>
+    <t>No mics were used. Pc and projector only.</t>
+  </si>
+  <si>
+    <t>Pick up amplifier, 2 speaker cables and 2 large speakers. Return to Van 040 basement storeroom.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pick up all matts and ac cords and return to Van 040 basement. Key for room in Fdrs 164 storeroom keyrack. </t>
+  </si>
+  <si>
+    <t>Built in PC not working - roll in PC cart in room going thru document camera input. Press "Doc cam" to "Projector to get image on screen. Demo to prof.</t>
+  </si>
+  <si>
+    <t>Pick up roll in PC and return to Vari 1019 storeroom.</t>
+  </si>
+  <si>
+    <t>Open up Nat Taylor cinema.</t>
   </si>
 </sst>
 </file>
@@ -2494,11 +2539,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I752"/>
+  <dimension ref="A1:I797"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A728" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A752" sqref="A752"/>
+      <pane ySplit="1" topLeftCell="A778" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F800" sqref="F800"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16241,6 +16286,825 @@
       </c>
       <c r="F752" s="20" t="s">
         <v>405</v>
+      </c>
+    </row>
+    <row r="753" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A753" s="6"/>
+      <c r="B753" s="23"/>
+      <c r="C753" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D753" s="6"/>
+      <c r="E753" s="27"/>
+      <c r="F753" s="29"/>
+    </row>
+    <row r="754" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A754" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B754" s="21">
+        <v>42745</v>
+      </c>
+      <c r="C754" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D754" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E754" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F754" s="20" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="755" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A755" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B755" s="21">
+        <v>42745</v>
+      </c>
+      <c r="C755" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D755" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E755" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="F755" s="20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="756" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A756" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B756" s="21">
+        <v>42745</v>
+      </c>
+      <c r="C756" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D756" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E756" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="F756" s="20" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="757" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A757" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B757" s="21">
+        <v>42745</v>
+      </c>
+      <c r="C757" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D757" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E757" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="758" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A758" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B758" s="21">
+        <v>42745</v>
+      </c>
+      <c r="C758" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D758" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E758" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F758" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="759" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A759" s="6"/>
+      <c r="B759" s="23"/>
+      <c r="C759" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D759" s="6"/>
+      <c r="E759" s="27"/>
+      <c r="F759" s="29"/>
+    </row>
+    <row r="760" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A760" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B760" s="21">
+        <v>42746</v>
+      </c>
+      <c r="C760" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D760" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E760" s="19" t="s">
+        <v>484</v>
+      </c>
+      <c r="F760" s="20" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="761" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A761" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B761" s="21">
+        <v>42746</v>
+      </c>
+      <c r="C761" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D761" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E761" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F761" s="20" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="762" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A762" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B762" s="21">
+        <v>42746</v>
+      </c>
+      <c r="C762" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D762" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E762" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F762" s="20" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="763" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A763" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B763" s="21">
+        <v>42746</v>
+      </c>
+      <c r="C763" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D763" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E763" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F763" s="20" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="764" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A764" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B764" s="21">
+        <v>42746</v>
+      </c>
+      <c r="C764" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D764" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E764" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="F764" s="20" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="765" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A765" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B765" s="21">
+        <v>42746</v>
+      </c>
+      <c r="C765" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D765" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E765" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F765" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="766" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A766" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B766" s="21">
+        <v>42746</v>
+      </c>
+      <c r="C766" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D766" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E766" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="767" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A767" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B767" s="21">
+        <v>42746</v>
+      </c>
+      <c r="C767" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D767" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E767" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F767" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="768" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A768" s="6"/>
+      <c r="B768" s="23"/>
+      <c r="C768" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D768" s="6"/>
+      <c r="E768" s="27"/>
+      <c r="F768" s="29"/>
+    </row>
+    <row r="769" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A769" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B769" s="21">
+        <v>42747</v>
+      </c>
+      <c r="C769" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D769" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E769" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="F769" s="20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="770" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A770" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B770" s="21">
+        <v>42747</v>
+      </c>
+      <c r="C770" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D770" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E770" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F770" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="771" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A771" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B771" s="21">
+        <v>42747</v>
+      </c>
+      <c r="C771" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D771" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E771" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F771" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="772" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A772" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B772" s="21">
+        <v>42747</v>
+      </c>
+      <c r="C772" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D772" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E772" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F772" s="20" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="773" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A773" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B773" s="21">
+        <v>42747</v>
+      </c>
+      <c r="C773" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D773" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E773" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="774" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A774" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B774" s="21">
+        <v>42747</v>
+      </c>
+      <c r="C774" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D774" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E774" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="775" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A775" s="6"/>
+      <c r="B775" s="23"/>
+      <c r="C775" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D775" s="6"/>
+      <c r="E775" s="27"/>
+      <c r="F775" s="29"/>
+    </row>
+    <row r="776" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A776" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B776" s="21">
+        <v>42748</v>
+      </c>
+      <c r="C776" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D776" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E776" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F776" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="777" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A777" s="6"/>
+      <c r="B777" s="23"/>
+      <c r="C777" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D777" s="6"/>
+      <c r="E777" s="27"/>
+      <c r="F777" s="29"/>
+    </row>
+    <row r="778" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A778" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B778" s="21">
+        <v>42751</v>
+      </c>
+      <c r="C778" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="D778" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E778" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="F778" s="20" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="779" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A779" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B779" s="21">
+        <v>42751</v>
+      </c>
+      <c r="C779" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D779" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E779" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="F779" s="20" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="780" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A780" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B780" s="21">
+        <v>42751</v>
+      </c>
+      <c r="C780" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D780" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E780" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F780" s="20" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="781" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A781" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B781" s="21">
+        <v>42751</v>
+      </c>
+      <c r="C781" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D781" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E781" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="F781" s="20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="782" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A782" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B782" s="21">
+        <v>42751</v>
+      </c>
+      <c r="C782" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D782" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E782" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="783" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A783" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B783" s="21">
+        <v>42751</v>
+      </c>
+      <c r="C783" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D783" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E783" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="784" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A784" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B784" s="21">
+        <v>42751</v>
+      </c>
+      <c r="C784" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D784" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E784" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F784" s="20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="785" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A785" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B785" s="21">
+        <v>42751</v>
+      </c>
+      <c r="C785" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D785" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E785" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="F785" s="20" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="786" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A786" s="6"/>
+      <c r="B786" s="23"/>
+      <c r="C786" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D786" s="6"/>
+      <c r="E786" s="27"/>
+      <c r="F786" s="29"/>
+    </row>
+    <row r="787" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A787" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B787" s="21">
+        <v>42752</v>
+      </c>
+      <c r="C787" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D787" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E787" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="F787" s="20" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="788" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A788" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B788" s="21">
+        <v>42752</v>
+      </c>
+      <c r="C788" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D788" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E788" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="789" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A789" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B789" s="21">
+        <v>42752</v>
+      </c>
+      <c r="C789" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D789" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E789" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F789" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="790" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A790" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B790" s="21">
+        <v>42752</v>
+      </c>
+      <c r="C790" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D790" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E790" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F790" s="20" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="791" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A791" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B791" s="21">
+        <v>42752</v>
+      </c>
+      <c r="C791" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D791" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E791" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F791" s="20" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="792" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A792" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B792" s="21">
+        <v>42752</v>
+      </c>
+      <c r="C792" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D792" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E792" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F792" s="20" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="793" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A793" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B793" s="21">
+        <v>42752</v>
+      </c>
+      <c r="C793" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D793" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E793" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="F793" s="20" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="794" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A794" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B794" s="21">
+        <v>42752</v>
+      </c>
+      <c r="C794" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D794" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E794" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="F794" s="20" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="795" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A795" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B795" s="21">
+        <v>42752</v>
+      </c>
+      <c r="C795" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="D795" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E795" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="F795" s="20" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="796" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A796" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B796" s="21">
+        <v>42752</v>
+      </c>
+      <c r="C796" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="D796" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E796" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F796" s="20" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="797" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A797" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B797" s="21">
+        <v>42752</v>
+      </c>
+      <c r="C797" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="D797" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E797" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F797" s="20" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhan\Documents\Visual Studio 2015\Projects\ClassOpsLogCreator\CLASSOPS\Derek\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="90" yWindow="150" windowWidth="14865" windowHeight="10785" tabRatio="440"/>
   </bookViews>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3539" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3613" uniqueCount="507">
   <si>
     <t>Staff Name</t>
   </si>
@@ -2004,11 +2009,35 @@
   <si>
     <t>Open up Nat Taylor cinema.</t>
   </si>
+  <si>
+    <t>Projector remote and presentation remote to back booth. No mics.</t>
+  </si>
+  <si>
+    <t>Rotunda</t>
+  </si>
+  <si>
+    <t>Flat screen TV, with PC,wireless keyboard and extension cord. Turn off wireless keyboard and place in the bag before transporting to Vari 1155. Connect ethernet cable to PC in 1155.</t>
+  </si>
+  <si>
+    <t>001-D.H.</t>
+  </si>
+  <si>
+    <t>Event starts at 6pm. No mics needed. Client is playing music from another source. They have their own auxilliary cable. Get from Vanier 040 storeroom.</t>
+  </si>
+  <si>
+    <t>Carpets, cables, tripods etc. Return to Vanier 040 storeroom.</t>
+  </si>
+  <si>
+    <t>Meet instructor Chima Osakwe. No one showed up last week.</t>
+  </si>
+  <si>
+    <t>Cart PC is connected to laptop input. Disconnect and bring to Vari 1155 with orange ext. cord. Put VGA cable and internet cable back in the drawer of Vari A.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -2245,6 +2274,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2292,7 +2324,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2325,9 +2357,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2360,6 +2409,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2539,11 +2605,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I797"/>
+  <dimension ref="A1:I815"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A778" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F800" sqref="F800"/>
+      <pane ySplit="1" topLeftCell="A807" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A815" sqref="A815"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16927,29 +16993,29 @@
         <v>106</v>
       </c>
     </row>
-    <row r="789" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A789" s="10" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="B789" s="21">
         <v>42752</v>
       </c>
       <c r="C789" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="D789" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D789" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E789" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F789" s="16" t="s">
-        <v>128</v>
+      <c r="E789" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F789" s="20" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="790" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A790" s="10" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B790" s="21">
         <v>42752</v>
@@ -16964,12 +17030,12 @@
         <v>158</v>
       </c>
       <c r="F790" s="20" t="s">
-        <v>354</v>
+        <v>494</v>
       </c>
     </row>
     <row r="791" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A791" s="10" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="B791" s="21">
         <v>42752</v>
@@ -16984,27 +17050,27 @@
         <v>158</v>
       </c>
       <c r="F791" s="20" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="792" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="792" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A792" s="10" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B792" s="21">
         <v>42752</v>
       </c>
       <c r="C792" s="17" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="D792" s="18" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E792" s="19" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
       <c r="F792" s="20" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="793" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -17015,7 +17081,7 @@
         <v>42752</v>
       </c>
       <c r="C793" s="17" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="D793" s="18" t="s">
         <v>51</v>
@@ -17027,15 +17093,15 @@
         <v>496</v>
       </c>
     </row>
-    <row r="794" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A794" s="10" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="B794" s="21">
         <v>42752</v>
       </c>
       <c r="C794" s="17" t="s">
-        <v>110</v>
+        <v>226</v>
       </c>
       <c r="D794" s="18" t="s">
         <v>51</v>
@@ -17044,38 +17110,38 @@
         <v>199</v>
       </c>
       <c r="F794" s="20" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="795" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A795" s="10" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="B795" s="21">
         <v>42752</v>
       </c>
       <c r="C795" s="17" t="s">
-        <v>226</v>
+        <v>185</v>
       </c>
       <c r="D795" s="18" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E795" s="19" t="s">
-        <v>199</v>
+        <v>136</v>
       </c>
       <c r="F795" s="20" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="796" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A796" s="10" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="B796" s="21">
         <v>42752</v>
       </c>
       <c r="C796" s="17" t="s">
-        <v>185</v>
+        <v>226</v>
       </c>
       <c r="D796" s="18" t="s">
         <v>59</v>
@@ -17084,27 +17150,345 @@
         <v>136</v>
       </c>
       <c r="F796" s="20" t="s">
-        <v>498</v>
+        <v>205</v>
       </c>
     </row>
     <row r="797" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A797" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B797" s="21">
-        <v>42752</v>
-      </c>
-      <c r="C797" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="D797" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E797" s="19" t="s">
+      <c r="A797" s="6"/>
+      <c r="B797" s="23"/>
+      <c r="C797" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D797" s="6"/>
+      <c r="E797" s="27"/>
+      <c r="F797" s="29"/>
+    </row>
+    <row r="798" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A798" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B798" s="21">
+        <v>42753</v>
+      </c>
+      <c r="C798" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D798" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E798" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="F798" s="20" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="799" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A799" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B799" s="21">
+        <v>42753</v>
+      </c>
+      <c r="C799" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D799" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E799" s="19" t="s">
+        <v>502</v>
+      </c>
+      <c r="F799" s="20" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="800" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A800" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B800" s="21">
+        <v>42753</v>
+      </c>
+      <c r="C800" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D800" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E800" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F800" s="20" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="801" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A801" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B801" s="21">
+        <v>42753</v>
+      </c>
+      <c r="C801" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D801" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E801" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="F801" s="20" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="802" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A802" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B802" s="21">
+        <v>42753</v>
+      </c>
+      <c r="C802" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D802" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E802" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F802" s="20" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="803" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A803" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B803" s="21">
+        <v>42753</v>
+      </c>
+      <c r="C803" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D803" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E803" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="F797" s="20" t="s">
+      <c r="F803" s="20" t="s">
         <v>205</v>
+      </c>
+    </row>
+    <row r="804" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A804" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B804" s="21">
+        <v>42753</v>
+      </c>
+      <c r="C804" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D804" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E804" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="805" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A805" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B805" s="21">
+        <v>42753</v>
+      </c>
+      <c r="C805" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="D805" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E805" s="19" t="s">
+        <v>502</v>
+      </c>
+      <c r="F805" s="20" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="806" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A806" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B806" s="21">
+        <v>42753</v>
+      </c>
+      <c r="C806" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D806" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E806" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="807" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A807" s="6"/>
+      <c r="B807" s="23"/>
+      <c r="C807" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D807" s="6"/>
+      <c r="E807" s="27"/>
+      <c r="F807" s="29"/>
+    </row>
+    <row r="808" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A808" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B808" s="21">
+        <v>42754</v>
+      </c>
+      <c r="C808" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="D808" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E808" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="F808" s="20" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="809" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A809" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B809" s="21">
+        <v>42754</v>
+      </c>
+      <c r="C809" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D809" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E809" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F809" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="810" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A810" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B810" s="21">
+        <v>42754</v>
+      </c>
+      <c r="C810" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D810" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E810" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F810" s="20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="811" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A811" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B811" s="21">
+        <v>42754</v>
+      </c>
+      <c r="C811" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D811" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E811" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="812" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A812" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B812" s="21">
+        <v>42754</v>
+      </c>
+      <c r="C812" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D812" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E812" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="813" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A813" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B813" s="21">
+        <v>42754</v>
+      </c>
+      <c r="C813" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D813" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E813" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="F813" s="20" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="814" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A814" s="6"/>
+      <c r="B814" s="23"/>
+      <c r="C814" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D814" s="6"/>
+      <c r="E814" s="27"/>
+      <c r="F814" s="29"/>
+    </row>
+    <row r="815" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A815" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B815" s="21">
+        <v>42755</v>
+      </c>
+      <c r="C815" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D815" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E815" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="F815" s="20" t="s">
+        <v>380</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhan\Documents\Visual Studio 2015\Projects\ClassOpsLogCreator\CLASSOPS\Derek\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="90" yWindow="150" windowWidth="14865" windowHeight="10785" tabRatio="440"/>
   </bookViews>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3613" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3890" uniqueCount="533">
   <si>
     <t>Staff Name</t>
   </si>
@@ -2033,15 +2028,162 @@
   <si>
     <t>Cart PC is connected to laptop input. Disconnect and bring to Vari 1155 with orange ext. cord. Put VGA cable and internet cable back in the drawer of Vari A.</t>
   </si>
+  <si>
+    <t>Meet Jill Prindiville. No one showed for her demo on Jan. 9th.</t>
+  </si>
+  <si>
+    <t>S757</t>
+  </si>
+  <si>
+    <t>Includes portable screen. To Vanier 040 storeroom.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pick up webcam with tripod and USB extension cable </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if supplied</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Return to FDRS 164. BE ON TIME - CRUCIAL.</t>
+    </r>
+  </si>
+  <si>
+    <t>Amplifier, speakers, cables and carpets. To Vanier 040 storeroom.</t>
+  </si>
+  <si>
+    <t>Neck mic. To Vanier 040 storeroom with large PA.</t>
+  </si>
+  <si>
+    <t>Turn off PA system. Computer not used.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3 desk mics, 1 neck mic, audio mixer, carpets, stands, cables, but </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the cable to the lectern area. To FDRS 156A</t>
+    </r>
+  </si>
+  <si>
+    <t>Log in and demo the DVD player so it's ready to play for Terry Conlin. Note: This is a repeating request for assistance. Make sure the DVD operation is fully understood by the professor.</t>
+  </si>
+  <si>
+    <t>Meet Bahar Nasirzadeh.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Includes portable screen. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lock room and set the alarm if you know how</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. To Vanier 040 store.</t>
+    </r>
+  </si>
+  <si>
+    <t>Event starts at 6pm. Need portable screen also from Vanier 040.</t>
+  </si>
+  <si>
+    <t>Return lectern mic, 2 desk mics, stands, projector remote and presentation remote to back booth. Lock room-both entrances.</t>
+  </si>
+  <si>
+    <t>SET UP FROM VC 040</t>
+  </si>
+  <si>
+    <t>Return to VC 040</t>
+  </si>
+  <si>
+    <t>Pick up the small PA + wireless mic on a cart, return to FC 156A</t>
+  </si>
+  <si>
+    <t>Return lectern mic, 2 desk mics, 2 audience mics, stands, projector remote and presentation remote to back audio booth. Lock booth and both exits when leaving.</t>
+  </si>
+  <si>
+    <t>Flat screen TV and extension cord goes back to Vari 1155. Use care when going through doorways to avoid scratching the TV screen. Check that the wireless keyboard is turned off before transporting in the bag. Check that the TV remote is in the bag also.</t>
+  </si>
+  <si>
+    <t>Lectern mic and small PA under PC cart, cables, stand and carpets. To Vanier 040 storeroom.</t>
+  </si>
+  <si>
+    <t>N783</t>
+  </si>
+  <si>
+    <t>Meet Marie-Christine Pioffet. Needs assistance playing a DVD.</t>
+  </si>
+  <si>
+    <t>Flat screen TV and extension cord goes back to Vari 1155. Reconnect the ethernet cable from the router to the PC in 1155.Use care when going through doorways to avoid scratching the TV screen. Check that the wireless keyboard is turned off before transporting in the bag. Check that the TV remote is in the bag also.  Be on time. Room may be locked if you are late.</t>
+  </si>
+  <si>
+    <t>2230</t>
+  </si>
+  <si>
+    <t>Meet Steve Chan. Wants to hook his laptop up to use Skype.</t>
+  </si>
+  <si>
+    <t>Flat screen TV, wireless keyboard, TV remote, ethernet cable and extension cord. Turn off wireless keyboard and place in the bag before transporting to Vari 1155. Reconnect ethernet cable to the PC from the router and plug into power once inside 1155.</t>
+  </si>
+  <si>
+    <t>Pickup web cam and triod. Return kit to SLH 114L MCR.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2083,6 +2225,13 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2172,7 +2321,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2262,6 +2411,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -2273,9 +2443,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2324,7 +2491,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2357,26 +2524,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2409,23 +2559,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2605,11 +2738,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I815"/>
+  <dimension ref="A1:I879"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A807" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A815" sqref="A815"/>
+      <pane ySplit="1" topLeftCell="A857" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B873" sqref="B873"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17489,6 +17622,1173 @@
       </c>
       <c r="F815" s="20" t="s">
         <v>380</v>
+      </c>
+    </row>
+    <row r="816" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A816" s="6"/>
+      <c r="B816" s="23"/>
+      <c r="C816" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D816" s="6"/>
+      <c r="E816" s="27"/>
+      <c r="F816" s="29"/>
+    </row>
+    <row r="817" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A817" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B817" s="21">
+        <v>42758</v>
+      </c>
+      <c r="C817" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D817" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E817" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="F817" s="20" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="818" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A818" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B818" s="21">
+        <v>42758</v>
+      </c>
+      <c r="C818" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D818" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E818" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="F818" s="20" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="819" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A819" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B819" s="21">
+        <v>42758</v>
+      </c>
+      <c r="C819" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D819" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E819" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="820" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A820" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B820" s="21">
+        <v>42758</v>
+      </c>
+      <c r="C820" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D820" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E820" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="821" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A821" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B821" s="21">
+        <v>42758</v>
+      </c>
+      <c r="C821" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D821" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E821" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F821" s="20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="822" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A822" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B822" s="21">
+        <v>42758</v>
+      </c>
+      <c r="C822" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D822" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E822" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="F822" s="20" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="823" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A823" s="6"/>
+      <c r="B823" s="23"/>
+      <c r="C823" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D823" s="6"/>
+      <c r="E823" s="27"/>
+      <c r="F823" s="29"/>
+    </row>
+    <row r="824" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A824" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B824" s="21">
+        <v>42759</v>
+      </c>
+      <c r="C824" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D824" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E824" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F824" s="20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="825" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A825" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B825" s="21">
+        <v>42759</v>
+      </c>
+      <c r="C825" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="D825" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E825" s="19" t="s">
+        <v>508</v>
+      </c>
+      <c r="F825" s="20" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="826" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A826" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B826" s="21">
+        <v>42759</v>
+      </c>
+      <c r="C826" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D826" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E826" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="F826" s="20" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="827" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A827" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B827" s="21">
+        <v>42759</v>
+      </c>
+      <c r="C827" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D827" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E827" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="828" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A828" s="6"/>
+      <c r="B828" s="23"/>
+      <c r="C828" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D828" s="6"/>
+      <c r="E828" s="27"/>
+      <c r="F828" s="29"/>
+    </row>
+    <row r="829" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A829" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B829" s="21">
+        <v>42760</v>
+      </c>
+      <c r="C829" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D829" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E829" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="F829" s="20" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="830" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A830" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B830" s="21">
+        <v>42760</v>
+      </c>
+      <c r="C830" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D830" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E830" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="F830" s="20" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="831" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A831" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B831" s="21">
+        <v>42760</v>
+      </c>
+      <c r="C831" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D831" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E831" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="F831" s="20" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="832" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A832" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B832" s="21">
+        <v>42705</v>
+      </c>
+      <c r="C832" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="D832" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E832" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="F832" s="20" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="833" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A833" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B833" s="21">
+        <v>42760</v>
+      </c>
+      <c r="C833" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D833" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E833" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F833" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="834" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A834" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B834" s="21">
+        <v>42760</v>
+      </c>
+      <c r="C834" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D834" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E834" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="835" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A835" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B835" s="21">
+        <v>42760</v>
+      </c>
+      <c r="C835" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D835" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E835" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="F835" s="20" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="836" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A836" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B836" s="21">
+        <v>42760</v>
+      </c>
+      <c r="C836" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D836" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E836" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="837" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A837" s="6"/>
+      <c r="B837" s="23"/>
+      <c r="C837" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D837" s="6"/>
+      <c r="E837" s="27"/>
+      <c r="F837" s="29"/>
+    </row>
+    <row r="838" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A838" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B838" s="21">
+        <v>42761</v>
+      </c>
+      <c r="C838" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D838" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E838" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F838" s="20" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="839" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A839" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B839" s="21">
+        <v>42761</v>
+      </c>
+      <c r="C839" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D839" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E839" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F839" s="20" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="840" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A840" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B840" s="21">
+        <v>42761</v>
+      </c>
+      <c r="C840" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D840" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E840" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="841" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A841" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B841" s="21">
+        <v>42761</v>
+      </c>
+      <c r="C841" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="D841" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E841" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="F841" s="20" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="842" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A842" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B842" s="21">
+        <v>42761</v>
+      </c>
+      <c r="C842" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D842" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E842" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F842" s="20" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="843" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A843" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B843" s="21">
+        <v>42761</v>
+      </c>
+      <c r="C843" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="D843" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E843" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="F843" s="20" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="844" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A844" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B844" s="21">
+        <v>42761</v>
+      </c>
+      <c r="C844" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D844" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E844" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F844" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="845" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A845" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B845" s="21">
+        <v>42761</v>
+      </c>
+      <c r="C845" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D845" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E845" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="F845" s="20" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="846" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A846" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B846" s="21">
+        <v>42761</v>
+      </c>
+      <c r="C846" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D846" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E846" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="F846" s="20" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="847" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A847" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B847" s="21">
+        <v>42761</v>
+      </c>
+      <c r="C847" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D847" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E847" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="848" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A848" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B848" s="21">
+        <v>42761</v>
+      </c>
+      <c r="C848" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="D848" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E848" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="F848" s="20" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="849" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A849" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B849" s="21">
+        <v>42761</v>
+      </c>
+      <c r="C849" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="D849" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E849" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="F849" s="20" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="850" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A850" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B850" s="21">
+        <v>42761</v>
+      </c>
+      <c r="C850" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D850" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E850" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="F850" s="20" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="851" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A851" s="6"/>
+      <c r="B851" s="23"/>
+      <c r="C851" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D851" s="6"/>
+      <c r="E851" s="27"/>
+      <c r="F851" s="29"/>
+    </row>
+    <row r="852" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A852" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B852" s="21">
+        <v>42762</v>
+      </c>
+      <c r="C852" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D852" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E852" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F852" s="20" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="853" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A853" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B853" s="21">
+        <v>42762</v>
+      </c>
+      <c r="C853" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D853" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E853" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F853" s="20" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="854" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A854" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B854" s="21">
+        <v>42762</v>
+      </c>
+      <c r="C854" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="D854" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E854" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="F854" s="20" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="855" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A855" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B855" s="21">
+        <v>42762</v>
+      </c>
+      <c r="C855" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="D855" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E855" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="F855" s="20" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="856" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A856" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B856" s="21">
+        <v>42762</v>
+      </c>
+      <c r="C856" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="D856" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E856" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="F856" s="20" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="857" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A857" s="6"/>
+      <c r="B857" s="23"/>
+      <c r="C857" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D857" s="6"/>
+      <c r="E857" s="27"/>
+      <c r="F857" s="29"/>
+    </row>
+    <row r="858" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A858" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B858" s="21">
+        <v>42765</v>
+      </c>
+      <c r="C858" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D858" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E858" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="F858" s="20" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="859" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A859" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B859" s="21">
+        <v>42765</v>
+      </c>
+      <c r="C859" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D859" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E859" s="19" t="s">
+        <v>526</v>
+      </c>
+      <c r="F859" s="20" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="860" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A860" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B860" s="21">
+        <v>42765</v>
+      </c>
+      <c r="C860" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D860" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E860" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="F860" s="20" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="861" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A861" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B861" s="21">
+        <v>42765</v>
+      </c>
+      <c r="C861" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D861" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E861" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="862" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A862" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B862" s="21">
+        <v>42765</v>
+      </c>
+      <c r="C862" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D862" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E862" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="863" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A863" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B863" s="21">
+        <v>42765</v>
+      </c>
+      <c r="C863" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D863" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E863" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F863" s="20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="864" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A864" s="6"/>
+      <c r="B864" s="23"/>
+      <c r="C864" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D864" s="6"/>
+      <c r="E864" s="27"/>
+      <c r="F864" s="29"/>
+    </row>
+    <row r="865" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A865" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B865" s="21">
+        <v>42766</v>
+      </c>
+      <c r="C865" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D865" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E865" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F865" s="20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="866" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A866" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B866" s="21">
+        <v>42766</v>
+      </c>
+      <c r="C866" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D866" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E866" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="F866" s="20" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="867" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A867" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B867" s="21">
+        <v>42766</v>
+      </c>
+      <c r="C867" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D867" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E867" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="F867" s="20" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="868" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A868" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B868" s="21">
+        <v>42766</v>
+      </c>
+      <c r="C868" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D868" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E868" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="F868" s="20" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="869" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A869" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B869" s="21">
+        <v>42766</v>
+      </c>
+      <c r="C869" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D869" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E869" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="870" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A870" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B870" s="21">
+        <v>42766</v>
+      </c>
+      <c r="C870" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="D870" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E870" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="F870" s="20" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="871" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A871" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B871" s="34">
+        <v>42766</v>
+      </c>
+      <c r="C871" s="35" t="s">
+        <v>529</v>
+      </c>
+      <c r="D871" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E871" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="F871" s="38" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="872" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A872" s="6"/>
+      <c r="B872" s="23"/>
+      <c r="C872" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D872" s="6"/>
+      <c r="E872" s="27"/>
+      <c r="F872" s="29"/>
+    </row>
+    <row r="873" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A873" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B873" s="21">
+        <v>42766</v>
+      </c>
+      <c r="C873" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D873" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E873" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F873" s="20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="874" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A874" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B874" s="21">
+        <v>42766</v>
+      </c>
+      <c r="C874" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D874" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E874" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="F874" s="20" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="875" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A875" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B875" s="21">
+        <v>42766</v>
+      </c>
+      <c r="C875" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D875" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E875" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="F875" s="20" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="876" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A876" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B876" s="21">
+        <v>42766</v>
+      </c>
+      <c r="C876" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D876" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E876" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="F876" s="20" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="877" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A877" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B877" s="21">
+        <v>42766</v>
+      </c>
+      <c r="C877" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D877" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E877" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="878" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A878" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B878" s="21">
+        <v>42766</v>
+      </c>
+      <c r="C878" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="D878" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E878" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="F878" s="20" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="879" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A879" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B879" s="34">
+        <v>42766</v>
+      </c>
+      <c r="C879" s="35" t="s">
+        <v>529</v>
+      </c>
+      <c r="D879" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E879" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="F879" s="38" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3890" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4536" uniqueCount="572">
   <si>
     <t>Staff Name</t>
   </si>
@@ -2170,10 +2170,283 @@
     <t>Meet Steve Chan. Wants to hook his laptop up to use Skype.</t>
   </si>
   <si>
-    <t>Flat screen TV, wireless keyboard, TV remote, ethernet cable and extension cord. Turn off wireless keyboard and place in the bag before transporting to Vari 1155. Reconnect ethernet cable to the PC from the router and plug into power once inside 1155.</t>
-  </si>
-  <si>
     <t>Pickup web cam and triod. Return kit to SLH 114L MCR.</t>
+  </si>
+  <si>
+    <t>Return lectern mic, audience mic, stands, projector remote and presentation remote to back booth. Lock room-both entrances.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pick up webcam with tripod and USB extension cable </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if supplied</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Return kit to FDRS 164. BE ON TIME - CRUCIAL.</t>
+    </r>
+  </si>
+  <si>
+    <t>DLP flat screen TV. To  Vanier 132 storeroom.</t>
+  </si>
+  <si>
+    <t>Flat screen TV, wireless keyboard, TV remote, ethernet cable and extension cord. Turn off wireless keyboard and place in the bag before transporting to Vari 1155. Reconnect ethernet cable to the PC from the router and plug into power, once inside 1155.</t>
+  </si>
+  <si>
+    <t>DLP flat screen TV. Lock room after leaving. To Vanier 132 store.</t>
+  </si>
+  <si>
+    <t>Student group here. Please return the wireless keyboard and remote for the projector to FC 156A</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 lectern mic, stand, but </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the cable to the lectern area. Turn off PA system. To FDRS 156A.</t>
+    </r>
+  </si>
+  <si>
+    <t>Return wireless keyboard and projector remote to FDRS 156A.</t>
+  </si>
+  <si>
+    <t>Return lectern mic, 2 audience mics, stands, projector remote and presentation remote to back booth. Lock room-both entrances.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meet Steve Chan. Wants to hook up his laptop to use Skype. This is his second request...was shown this last week. </t>
+  </si>
+  <si>
+    <r>
+      <t>DLP flat screen TV ,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wireless keyboard and TV remote control</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. To  Vanier 132 storeroom.</t>
+    </r>
+  </si>
+  <si>
+    <t>Meet Susan Ehrlich and show how to use the VHS player.</t>
+  </si>
+  <si>
+    <t>Disconnect the VHS player from the auxilliary inputs and take to Ross S120 storeroom. RCA cables stay with the player.</t>
+  </si>
+  <si>
+    <t>Roll in a VHS player and connect RCA cables to auxilliary inputs.</t>
+  </si>
+  <si>
+    <t>Return lectern mic, 2 desk mic, stands, projector remote and presentation remote to back booth. Lock room-both entrances.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Flat screen TV, wireless keyboard, TV remote, ethernet cable and extension cord. Turn off wireless keyboard and place in the bag before transporting to Vari 1155. Reconnect ethernet cable to the PC from the router and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PLUG INTO POWER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, once inside 1155.</t>
+    </r>
+  </si>
+  <si>
+    <t>Leave portable screen. Door code 7083* Return to FDRS 156A.</t>
+  </si>
+  <si>
+    <t>Lectern mic and small PA under projector cart, cables, stand and carpets. To Vanier 040 storeroom.</t>
+  </si>
+  <si>
+    <t>Return lectern mic, audience mic, 2 desk mics, stands, projector remote and presentation remote to back booth. Lock room-both entrances.</t>
+  </si>
+  <si>
+    <t>Subsequent demo for Terry Conlin at this location.</t>
+  </si>
+  <si>
+    <t>Wireless keyboard and projector remote should be there already from earlier today. Please check.</t>
+  </si>
+  <si>
+    <t>1 audience mic, 2 desk mics, wireless neck mic.  Lectern mic is already in place from earlier today. Turn on large PA if it is not on already. Mics, stands and cables are in FDRS 156A. Event begins at 5pm.</t>
+  </si>
+  <si>
+    <t>Leave all in room, just shut off PC, projector and amplifier. Lock room overnight for continuation of this event on Saturday morning.</t>
+  </si>
+  <si>
+    <t>Meet Karen Murray.</t>
+  </si>
+  <si>
+    <t>Leave all in room, just turn off PC and projector. Lock room.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>READ CAREFULLY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Pickup 4 mics only. Unclip them and leave all stands, clips, cables etc. Turn off PA system. To FDRS 156A.</t>
+    </r>
+  </si>
+  <si>
+    <t>Lectern mic, stand, cables and small PA to FDRS 156A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return webcam, tripod and USB extension if supplied to FDRS 164. </t>
+  </si>
+  <si>
+    <r>
+      <t>3 floor mics, 1 lectern mic, stands, carpets and cables, but</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> not the carpet and cable to the lectern area</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. (This particular instruction has not been adhered to recently). Turn off PA system. To FDRS 156A.</t>
+    </r>
+  </si>
+  <si>
+    <t>Neck mic and small PA under projector cart. To Vanier 040 store.</t>
+  </si>
+  <si>
+    <t>Includes portable screen. Lock room. To Vanier 040 store.</t>
+  </si>
+  <si>
+    <t>DLP flat screen TV. Leave their network cable and portable screen. Lock room. To Vanier 132 store.</t>
+  </si>
+  <si>
+    <t>2 neck mics, mixer, small PA to FDRS 156A.</t>
+  </si>
+  <si>
+    <r>
+      <t>1 lectern mic and stand. Leave</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> carpet and cable to the lectern area</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Turn off PA system. To FDRS 156A.</t>
+    </r>
+  </si>
+  <si>
+    <t>Turn off PC and projector. Leave in and lock room.</t>
+  </si>
+  <si>
+    <t>TOA neck mic and receiver with small PA at the back of the room. Neck mic is most likely at the front of the room. To Ross S120 store.</t>
+  </si>
+  <si>
+    <t>TOA neck mic and receiver with small PA to FDRS 156A.</t>
+  </si>
+  <si>
+    <t>Includes projector. Leave their network cable and portable screen. Lock room. To Vanier 132 store.</t>
+  </si>
+  <si>
+    <t>Lectern mic and stand. Leave cable in positon. Turn off PA system and lock the assembly hall. To FDRS 156A.</t>
+  </si>
+  <si>
+    <t>Lectern mic and stand. Cable is in positon already. Turn on PA system. From FDRS 156A.</t>
   </si>
 </sst>
 </file>
@@ -2183,7 +2456,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2232,6 +2505,19 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2321,7 +2607,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2426,11 +2712,26 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2738,11 +3039,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I879"/>
+  <dimension ref="A1:I1028"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A857" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B873" sqref="B873"/>
+      <pane ySplit="1" topLeftCell="A1011" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1020" sqref="F1020"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18544,7 +18845,7 @@
         <v>191</v>
       </c>
       <c r="F866" s="20" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="867" spans="1:6" x14ac:dyDescent="0.25">
@@ -18621,10 +18922,10 @@
         <v>275</v>
       </c>
       <c r="F870" s="20" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="871" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="871" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A871" s="33" t="s">
         <v>80</v>
       </c>
@@ -18640,7 +18941,7 @@
       <c r="E871" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="F871" s="38" t="s">
+      <c r="F871" s="39" t="s">
         <v>271</v>
       </c>
     </row>
@@ -18648,101 +18949,98 @@
       <c r="A872" s="6"/>
       <c r="B872" s="23"/>
       <c r="C872" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D872" s="6"/>
       <c r="E872" s="27"/>
       <c r="F872" s="29"/>
     </row>
-    <row r="873" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="10" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="B873" s="21">
-        <v>42766</v>
+        <v>42767</v>
       </c>
       <c r="C873" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="D873" s="18" t="s">
-        <v>49</v>
+        <v>284</v>
+      </c>
+      <c r="D873" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="E873" s="19" t="s">
-        <v>277</v>
+        <v>466</v>
       </c>
       <c r="F873" s="20" t="s">
-        <v>364</v>
+        <v>432</v>
       </c>
     </row>
     <row r="874" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A874" s="10" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="B874" s="21">
-        <v>42766</v>
+        <v>42767</v>
       </c>
       <c r="C874" s="17" t="s">
-        <v>207</v>
+        <v>110</v>
       </c>
       <c r="D874" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E874" s="19" t="s">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="F874" s="20" t="s">
-        <v>532</v>
+        <v>205</v>
       </c>
     </row>
     <row r="875" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A875" s="10" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="B875" s="21">
-        <v>42766</v>
+        <v>42767</v>
       </c>
       <c r="C875" s="17" t="s">
-        <v>207</v>
+        <v>110</v>
       </c>
       <c r="D875" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E875" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="876" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A876" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B876" s="21">
+        <v>42767</v>
+      </c>
+      <c r="C876" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D876" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E875" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="F875" s="20" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="876" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A876" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B876" s="21">
-        <v>42766</v>
-      </c>
-      <c r="C876" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="D876" s="18" t="s">
-        <v>57</v>
-      </c>
       <c r="E876" s="19" t="s">
-        <v>246</v>
+        <v>466</v>
       </c>
       <c r="F876" s="20" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="877" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A877" s="10" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="B877" s="21">
-        <v>42766</v>
+        <v>42767</v>
       </c>
       <c r="C877" s="17" t="s">
-        <v>110</v>
+        <v>225</v>
       </c>
       <c r="D877" s="18" t="s">
         <v>59</v>
@@ -18751,44 +19049,2766 @@
         <v>106</v>
       </c>
     </row>
-    <row r="878" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A878" s="10" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="B878" s="21">
-        <v>42766</v>
+        <v>42767</v>
       </c>
       <c r="C878" s="17" t="s">
-        <v>253</v>
+        <v>129</v>
       </c>
       <c r="D878" s="18" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E878" s="19" t="s">
-        <v>275</v>
+        <v>149</v>
       </c>
       <c r="F878" s="20" t="s">
-        <v>531</v>
+        <v>395</v>
       </c>
     </row>
     <row r="879" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A879" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B879" s="34">
-        <v>42766</v>
-      </c>
-      <c r="C879" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="B879" s="21">
+        <v>42767</v>
+      </c>
+      <c r="C879" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D879" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E879" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F879" s="20" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="880" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A880" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B880" s="34">
+        <v>42767</v>
+      </c>
+      <c r="C880" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="D880" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="E880" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="F880" s="39" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="881" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A881" s="6"/>
+      <c r="B881" s="23"/>
+      <c r="C881" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D881" s="6"/>
+      <c r="E881" s="27"/>
+      <c r="F881" s="29"/>
+    </row>
+    <row r="882" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A882" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B882" s="21">
+        <v>42768</v>
+      </c>
+      <c r="C882" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D882" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E882" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="883" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A883" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B883" s="21">
+        <v>42768</v>
+      </c>
+      <c r="C883" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D883" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E883" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="F883" s="20" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="884" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A884" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B884" s="21">
+        <v>42768</v>
+      </c>
+      <c r="C884" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D884" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E884" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="F884" s="20" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="885" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A885" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B885" s="21">
+        <v>42768</v>
+      </c>
+      <c r="C885" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D885" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E885" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F885" s="20" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="886" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A886" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B886" s="21">
+        <v>42768</v>
+      </c>
+      <c r="C886" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D886" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E886" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F886" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="887" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A887" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B887" s="21">
+        <v>42768</v>
+      </c>
+      <c r="C887" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D887" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E887" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="888" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A888" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B888" s="41">
+        <v>42768</v>
+      </c>
+      <c r="C888" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="D888" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="E888" s="44" t="s">
+        <v>275</v>
+      </c>
+      <c r="F888" s="39" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="889" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A889" s="6"/>
+      <c r="B889" s="23"/>
+      <c r="C889" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D889" s="6"/>
+      <c r="E889" s="27"/>
+      <c r="F889" s="29"/>
+    </row>
+    <row r="890" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A890" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B890" s="21">
+        <v>42769</v>
+      </c>
+      <c r="C890" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D890" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E890" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="F890" s="20" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="891" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A891" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B891" s="21">
+        <v>42769</v>
+      </c>
+      <c r="C891" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="D891" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="E891" s="44" t="s">
+        <v>275</v>
+      </c>
+      <c r="F891" s="39" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="892" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A892" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B892" s="21">
+        <v>42769</v>
+      </c>
+      <c r="C892" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="D892" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E892" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F892" s="20" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="893" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A893" s="6"/>
+      <c r="B893" s="23"/>
+      <c r="C893" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D893" s="6"/>
+      <c r="E893" s="27"/>
+      <c r="F893" s="29"/>
+    </row>
+    <row r="894" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A894" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B894" s="21">
+        <v>42772</v>
+      </c>
+      <c r="C894" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D894" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E894" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F894" s="20" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="895" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A895" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B895" s="21">
+        <v>42772</v>
+      </c>
+      <c r="C895" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D895" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E895" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F895" s="20" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="896" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A896" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B896" s="21">
+        <v>42772</v>
+      </c>
+      <c r="C896" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D896" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E896" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="F896" s="20" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="897" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A897" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B897" s="21">
+        <v>42772</v>
+      </c>
+      <c r="C897" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D897" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E897" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="898" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A898" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B898" s="21">
+        <v>42772</v>
+      </c>
+      <c r="C898" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D898" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E898" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="899" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A899" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B899" s="21">
+        <v>42772</v>
+      </c>
+      <c r="C899" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D899" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E899" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F899" s="20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="900" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A900" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B900" s="34">
+        <v>42772</v>
+      </c>
+      <c r="C900" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="D900" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="E900" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="F900" s="39" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="901" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A901" s="6"/>
+      <c r="B901" s="23"/>
+      <c r="C901" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D901" s="6"/>
+      <c r="E901" s="27"/>
+      <c r="F901" s="29"/>
+    </row>
+    <row r="902" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A902" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B902" s="21">
+        <v>42773</v>
+      </c>
+      <c r="C902" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D902" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E902" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F902" s="20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="903" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A903" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B903" s="21">
+        <v>42773</v>
+      </c>
+      <c r="C903" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D903" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E903" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F903" s="20" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="904" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A904" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B904" s="21">
+        <v>42773</v>
+      </c>
+      <c r="C904" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D904" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E904" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="F904" s="20" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="905" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A905" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B905" s="21">
+        <v>42773</v>
+      </c>
+      <c r="C905" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D905" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E905" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="F905" s="20" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="906" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A906" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B906" s="21">
+        <v>42773</v>
+      </c>
+      <c r="C906" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D906" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E906" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="907" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A907" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B907" s="21">
+        <v>42773</v>
+      </c>
+      <c r="C907" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="D907" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E907" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="F907" s="20" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="908" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A908" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B908" s="41">
+        <v>42773</v>
+      </c>
+      <c r="C908" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="D908" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E908" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="F908" s="39" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="909" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A909" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B909" s="41">
+        <v>42773</v>
+      </c>
+      <c r="C909" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="D909" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E909" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="F909" s="20" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="910" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A910" s="6"/>
+      <c r="B910" s="23"/>
+      <c r="C910" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D910" s="6"/>
+      <c r="E910" s="27"/>
+      <c r="F910" s="29"/>
+    </row>
+    <row r="911" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A911" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B911" s="21">
+        <v>42774</v>
+      </c>
+      <c r="C911" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="D911" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E911" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="F911" s="20" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="912" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A912" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B912" s="21">
+        <v>42774</v>
+      </c>
+      <c r="C912" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="D912" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E912" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="F912" s="20" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="913" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A913" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B913" s="21">
+        <v>42774</v>
+      </c>
+      <c r="C913" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D913" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E913" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="F913" s="20" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="914" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A914" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B914" s="21">
+        <v>42774</v>
+      </c>
+      <c r="C914" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D914" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E914" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F914" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="915" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A915" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B915" s="21">
+        <v>42774</v>
+      </c>
+      <c r="C915" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D915" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E915" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="916" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A916" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B916" s="21">
+        <v>42774</v>
+      </c>
+      <c r="C916" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D916" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E916" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="917" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A917" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B917" s="34">
+        <v>42774</v>
+      </c>
+      <c r="C917" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="D917" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="E917" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="F917" s="39" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="918" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A918" s="6"/>
+      <c r="B918" s="23"/>
+      <c r="C918" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D918" s="6"/>
+      <c r="E918" s="27"/>
+      <c r="F918" s="29"/>
+    </row>
+    <row r="919" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A919" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B919" s="21">
+        <v>42775</v>
+      </c>
+      <c r="C919" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D919" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E919" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F919" s="20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="920" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A920" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B920" s="21">
+        <v>42775</v>
+      </c>
+      <c r="C920" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D920" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E920" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F920" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="921" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A921" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B921" s="21">
+        <v>42775</v>
+      </c>
+      <c r="C921" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D921" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E921" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F921" s="20" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="922" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A922" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B922" s="21">
+        <v>42775</v>
+      </c>
+      <c r="C922" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D922" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E922" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="923" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A923" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B923" s="21">
+        <v>42775</v>
+      </c>
+      <c r="C923" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D923" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E923" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="924" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A924" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B924" s="21">
+        <v>42775</v>
+      </c>
+      <c r="C924" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="D924" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="E924" s="44" t="s">
+        <v>275</v>
+      </c>
+      <c r="F924" s="39" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="925" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A925" s="6"/>
+      <c r="B925" s="23"/>
+      <c r="C925" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D925" s="6"/>
+      <c r="E925" s="27"/>
+      <c r="F925" s="29"/>
+    </row>
+    <row r="926" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A926" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B926" s="21">
+        <v>42776</v>
+      </c>
+      <c r="C926" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="D926" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="E926" s="44" t="s">
+        <v>275</v>
+      </c>
+      <c r="F926" s="39" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="927" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A927" s="6"/>
+      <c r="B927" s="23"/>
+      <c r="C927" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D927" s="6"/>
+      <c r="E927" s="27"/>
+      <c r="F927" s="29"/>
+    </row>
+    <row r="928" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A928" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B928" s="21">
+        <v>42779</v>
+      </c>
+      <c r="C928" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D928" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E928" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="F928" s="20" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="929" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A929" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B929" s="21">
+        <v>42779</v>
+      </c>
+      <c r="C929" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D929" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E929" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="930" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A930" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B930" s="21">
+        <v>42779</v>
+      </c>
+      <c r="C930" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D930" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E930" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F930" s="20" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="931" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A931" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B931" s="21">
+        <v>42779</v>
+      </c>
+      <c r="C931" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D931" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E931" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="932" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A932" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B932" s="21">
+        <v>42779</v>
+      </c>
+      <c r="C932" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D932" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E932" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F932" s="20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="933" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A933" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B933" s="34">
+        <v>42779</v>
+      </c>
+      <c r="C933" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="D933" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="E933" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="F933" s="39" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="934" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A934" s="6"/>
+      <c r="B934" s="23"/>
+      <c r="C934" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D934" s="6"/>
+      <c r="E934" s="27"/>
+      <c r="F934" s="29"/>
+    </row>
+    <row r="935" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A935" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B935" s="21">
+        <v>42780</v>
+      </c>
+      <c r="C935" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D935" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E935" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F935" s="20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="936" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A936" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B936" s="21">
+        <v>42780</v>
+      </c>
+      <c r="C936" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D936" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E936" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="F936" s="20" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="937" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A937" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B937" s="21">
+        <v>42780</v>
+      </c>
+      <c r="C937" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="D937" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E937" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="F937" s="39" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="938" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A938" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B938" s="21">
+        <v>42780</v>
+      </c>
+      <c r="C938" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D938" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E938" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="939" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A939" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B939" s="21">
+        <v>42780</v>
+      </c>
+      <c r="C939" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="D939" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E939" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="F939" s="39" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="940" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A940" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B940" s="21">
+        <v>42780</v>
+      </c>
+      <c r="C940" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D940" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E940" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F940" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="941" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A941" s="6"/>
+      <c r="B941" s="23"/>
+      <c r="C941" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D941" s="6"/>
+      <c r="E941" s="27"/>
+      <c r="F941" s="29"/>
+    </row>
+    <row r="942" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A942" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B942" s="21">
+        <v>42781</v>
+      </c>
+      <c r="C942" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D942" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E942" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F942" s="20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="943" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A943" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B943" s="21">
+        <v>42781</v>
+      </c>
+      <c r="C943" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D943" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E943" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F943" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="944" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A944" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B944" s="21">
+        <v>42781</v>
+      </c>
+      <c r="C944" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D944" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E944" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="945" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A945" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B945" s="21">
+        <v>42781</v>
+      </c>
+      <c r="C945" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="D945" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E945" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="F945" s="20" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="946" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A946" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B946" s="21">
+        <v>42781</v>
+      </c>
+      <c r="C946" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D946" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E946" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="947" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A947" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B947" s="34">
+        <v>42781</v>
+      </c>
+      <c r="C947" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="D947" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="E947" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="F947" s="39" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="948" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A948" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B948" s="34">
+        <v>42779</v>
+      </c>
+      <c r="C948" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="D948" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E948" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="F948" s="20" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="949" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A949" s="6"/>
+      <c r="B949" s="23"/>
+      <c r="C949" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D949" s="6"/>
+      <c r="E949" s="27"/>
+      <c r="F949" s="29"/>
+    </row>
+    <row r="950" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A950" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B950" s="21">
+        <v>42782</v>
+      </c>
+      <c r="C950" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D950" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E950" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F950" s="20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="951" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A951" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B951" s="21">
+        <v>42782</v>
+      </c>
+      <c r="C951" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="D951" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E951" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="F951" s="20" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="952" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A952" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B952" s="21">
+        <v>42782</v>
+      </c>
+      <c r="C952" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D952" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E952" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F952" s="20" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="953" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A953" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B953" s="21">
+        <v>42782</v>
+      </c>
+      <c r="C953" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="D953" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E953" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="F953" s="20" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="954" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A954" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B954" s="21">
+        <v>42782</v>
+      </c>
+      <c r="C954" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D954" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E954" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="955" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A955" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B955" s="21">
+        <v>42782</v>
+      </c>
+      <c r="C955" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="D955" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E955" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="956" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A956" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B956" s="21">
+        <v>42782</v>
+      </c>
+      <c r="C956" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D956" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E956" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="F956" s="20" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="957" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A957" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B957" s="21">
+        <v>42782</v>
+      </c>
+      <c r="C957" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="D957" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="E957" s="44" t="s">
+        <v>275</v>
+      </c>
+      <c r="F957" s="39" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="958" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A958" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B958" s="34">
+        <v>42782</v>
+      </c>
+      <c r="C958" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="D958" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E958" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="F958" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="959" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A959" s="6"/>
+      <c r="B959" s="23"/>
+      <c r="C959" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D959" s="6"/>
+      <c r="E959" s="27"/>
+      <c r="F959" s="29"/>
+    </row>
+    <row r="960" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A960" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B960" s="21">
+        <v>42783</v>
+      </c>
+      <c r="C960" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D960" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E960" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F960" s="20" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="961" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A961" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B961" s="21">
+        <v>42783</v>
+      </c>
+      <c r="C961" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D961" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E961" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F961" s="20" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="962" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A962" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B962" s="21">
+        <v>42783</v>
+      </c>
+      <c r="C962" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="D962" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="E962" s="44" t="s">
+        <v>275</v>
+      </c>
+      <c r="F962" s="39" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="963" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A963" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B963" s="34">
+        <v>42783</v>
+      </c>
+      <c r="C963" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="D963" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="E963" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="F963" s="20" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="964" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A964" s="6"/>
+      <c r="B964" s="23"/>
+      <c r="C964" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D964" s="6"/>
+      <c r="E964" s="27"/>
+      <c r="F964" s="29"/>
+    </row>
+    <row r="965" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A965" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B965" s="21">
+        <v>42793</v>
+      </c>
+      <c r="C965" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D965" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E965" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F965" s="20" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="966" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A966" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B966" s="21">
+        <v>42793</v>
+      </c>
+      <c r="C966" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D966" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E966" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F966" s="20" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="967" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A967" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B967" s="21">
+        <v>42793</v>
+      </c>
+      <c r="C967" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D967" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E967" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="F967" s="20" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="968" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A968" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B968" s="21">
+        <v>42793</v>
+      </c>
+      <c r="C968" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D968" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E968" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="F968" s="20" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="969" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A969" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B969" s="21">
+        <v>42793</v>
+      </c>
+      <c r="C969" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D969" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E969" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="970" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A970" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B970" s="21">
+        <v>42793</v>
+      </c>
+      <c r="C970" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D970" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E970" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="971" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A971" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B971" s="21">
+        <v>42793</v>
+      </c>
+      <c r="C971" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D971" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E971" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F971" s="20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="972" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A972" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B972" s="21">
+        <v>42793</v>
+      </c>
+      <c r="C972" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D972" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E972" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="F972" s="20" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="973" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A973" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B973" s="34">
+        <v>42793</v>
+      </c>
+      <c r="C973" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="D973" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="E973" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="F973" s="39" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="974" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A974" s="6"/>
+      <c r="B974" s="23"/>
+      <c r="C974" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D974" s="6"/>
+      <c r="E974" s="27"/>
+      <c r="F974" s="29"/>
+    </row>
+    <row r="975" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A975" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B975" s="21">
+        <v>42794</v>
+      </c>
+      <c r="C975" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D975" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E975" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F975" s="20" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="976" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A976" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B976" s="21">
+        <v>42794</v>
+      </c>
+      <c r="C976" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D976" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E976" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F976" s="20" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="977" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A977" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B977" s="21">
+        <v>42794</v>
+      </c>
+      <c r="C977" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D977" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E977" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F977" s="20" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="978" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A978" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B978" s="21">
+        <v>42794</v>
+      </c>
+      <c r="C978" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D978" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E978" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F978" s="20" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="979" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A979" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B979" s="21">
+        <v>42794</v>
+      </c>
+      <c r="C979" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D979" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E979" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F979" s="20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="980" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A980" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B980" s="21">
+        <v>42794</v>
+      </c>
+      <c r="C980" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D980" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E980" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="F980" s="20" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="981" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A981" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B981" s="21">
+        <v>42794</v>
+      </c>
+      <c r="C981" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D981" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E981" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="F981" s="20" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="982" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A982" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B982" s="21">
+        <v>42794</v>
+      </c>
+      <c r="C982" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D982" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E982" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="983" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A983" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B983" s="21">
+        <v>42794</v>
+      </c>
+      <c r="C983" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="D983" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E983" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="F983" s="20" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="984" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A984" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B984" s="34">
+        <v>42794</v>
+      </c>
+      <c r="C984" s="35" t="s">
         <v>529</v>
       </c>
-      <c r="D879" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="E879" s="37" t="s">
+      <c r="D984" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E984" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="F879" s="38" t="s">
+      <c r="F984" s="39" t="s">
         <v>271</v>
+      </c>
+    </row>
+    <row r="985" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A985" s="6"/>
+      <c r="B985" s="23"/>
+      <c r="C985" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D985" s="6"/>
+      <c r="E985" s="27"/>
+      <c r="F985" s="29"/>
+    </row>
+    <row r="986" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A986" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B986" s="21">
+        <v>42795</v>
+      </c>
+      <c r="C986" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D986" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E986" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F986" s="20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="987" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A987" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B987" s="21">
+        <v>42795</v>
+      </c>
+      <c r="C987" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D987" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E987" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="F987" s="20" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="988" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A988" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B988" s="21">
+        <v>42795</v>
+      </c>
+      <c r="C988" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D988" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E988" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="F988" s="20" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="989" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A989" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B989" s="21">
+        <v>42795</v>
+      </c>
+      <c r="C989" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D989" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E989" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="F989" s="20" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="990" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A990" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B990" s="21">
+        <v>42795</v>
+      </c>
+      <c r="C990" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D990" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E990" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="F990" s="20" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="991" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A991" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B991" s="21">
+        <v>42795</v>
+      </c>
+      <c r="C991" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D991" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E991" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F991" s="20" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="992" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A992" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B992" s="21">
+        <v>42795</v>
+      </c>
+      <c r="C992" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D992" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E992" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F992" s="20" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="993" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A993" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B993" s="21">
+        <v>42795</v>
+      </c>
+      <c r="C993" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D993" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E993" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F993" s="20" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="994" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A994" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B994" s="21">
+        <v>42795</v>
+      </c>
+      <c r="C994" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D994" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E994" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F994" s="20" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="995" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A995" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B995" s="21">
+        <v>42795</v>
+      </c>
+      <c r="C995" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D995" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E995" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F995" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="996" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A996" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B996" s="21">
+        <v>42795</v>
+      </c>
+      <c r="C996" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D996" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E996" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="997" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A997" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B997" s="21">
+        <v>42795</v>
+      </c>
+      <c r="C997" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D997" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E997" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="F997" s="20" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="998" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A998" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B998" s="21">
+        <v>42795</v>
+      </c>
+      <c r="C998" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D998" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E998" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="999" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A999" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B999" s="34">
+        <v>42795</v>
+      </c>
+      <c r="C999" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="D999" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="E999" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="F999" s="39" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1000" s="6"/>
+      <c r="B1000" s="23"/>
+      <c r="C1000" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1000" s="6"/>
+      <c r="E1000" s="27"/>
+      <c r="F1000" s="29"/>
+    </row>
+    <row r="1001" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1001" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1001" s="21">
+        <v>42796</v>
+      </c>
+      <c r="C1001" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1001" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1001" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1001" s="20" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1002" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1002" s="21">
+        <v>42796</v>
+      </c>
+      <c r="C1002" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1002" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1002" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1002" s="20" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1003" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1003" s="41">
+        <v>42796</v>
+      </c>
+      <c r="C1003" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1003" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1003" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1003" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1004" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1004" s="21">
+        <v>42796</v>
+      </c>
+      <c r="C1004" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1004" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1004" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1004" s="20" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1005" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1005" s="21">
+        <v>42796</v>
+      </c>
+      <c r="C1005" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1005" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1005" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1006" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1006" s="21">
+        <v>42796</v>
+      </c>
+      <c r="C1006" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="D1006" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1006" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1007" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1007" s="21">
+        <v>42796</v>
+      </c>
+      <c r="C1007" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1007" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1007" s="44" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1007" s="39" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1008" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1008" s="21">
+        <v>42796</v>
+      </c>
+      <c r="C1008" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1008" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1008" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F1008" s="20" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1009" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1009" s="21">
+        <v>42796</v>
+      </c>
+      <c r="C1009" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1009" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1009" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F1009" s="20" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1010" s="6"/>
+      <c r="B1010" s="23"/>
+      <c r="C1010" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1010" s="6"/>
+      <c r="E1010" s="27"/>
+      <c r="F1010" s="29"/>
+    </row>
+    <row r="1011" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1011" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1011" s="21">
+        <v>42797</v>
+      </c>
+      <c r="C1011" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1011" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1011" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1011" s="20" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1012" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1012" s="21">
+        <v>42797</v>
+      </c>
+      <c r="C1012" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1012" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1012" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1012" s="20" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1013" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1013" s="21">
+        <v>42797</v>
+      </c>
+      <c r="C1013" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1013" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1013" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1013" s="20" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1014" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1014" s="21">
+        <v>42796</v>
+      </c>
+      <c r="C1014" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1014" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1014" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1015" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1015" s="21">
+        <v>42797</v>
+      </c>
+      <c r="C1015" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1015" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1015" s="44" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1015" s="39" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1016" s="6"/>
+      <c r="B1016" s="23"/>
+      <c r="C1016" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1016" s="6"/>
+      <c r="E1016" s="27"/>
+      <c r="F1016" s="29"/>
+    </row>
+    <row r="1017" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1017" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1017" s="21">
+        <v>42800</v>
+      </c>
+      <c r="C1017" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1017" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1017" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="F1017" s="20" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1018" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1018" s="21">
+        <v>42795</v>
+      </c>
+      <c r="C1018" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1018" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1018" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1018" s="20" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1019" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1019" s="21">
+        <v>42800</v>
+      </c>
+      <c r="C1019" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1019" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1019" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1020" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1020" s="21">
+        <v>42795</v>
+      </c>
+      <c r="C1020" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="D1020" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1020" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F1020" s="20" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1021" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1021" s="21">
+        <v>42795</v>
+      </c>
+      <c r="C1021" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="D1021" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1021" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F1021" s="20" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1022" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1022" s="21">
+        <v>42800</v>
+      </c>
+      <c r="C1022" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1022" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1022" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1023" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1023" s="41">
+        <v>42800</v>
+      </c>
+      <c r="C1023" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1023" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1023" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1023" s="20" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1024" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1024" s="21">
+        <v>42800</v>
+      </c>
+      <c r="C1024" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1024" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1024" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1024" s="20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1025" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1025" s="41">
+        <v>42800</v>
+      </c>
+      <c r="C1025" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="D1025" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1025" s="44" t="s">
+        <v>419</v>
+      </c>
+      <c r="F1025" s="39" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1026" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1026" s="34">
+        <v>42795</v>
+      </c>
+      <c r="C1026" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1026" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1026" s="37" t="s">
+        <v>381</v>
+      </c>
+      <c r="F1026" s="20" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1027" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1027" s="34">
+        <v>42795</v>
+      </c>
+      <c r="C1027" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1027" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1027" s="37" t="s">
+        <v>381</v>
+      </c>
+      <c r="F1027" s="20" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1028" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1028" s="34">
+        <v>42800</v>
+      </c>
+      <c r="C1028" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1028" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1028" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1028" s="39" t="s">
+        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -18798,10 +21818,10 @@
     <sortCondition ref="D427:D515"/>
   </sortState>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A104 B105 A106:A109 B110 A111:A120 B121 A122:A133 B134 A135:A145 B146 A147:A176 B177 A178:A195 B196 A197:A203 B204 A205:A219 B220 A221:A227 B228 A229:A246 B247 A248:A264 B265 A266:A272 B273 A274:A278 B279 A280:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A104 B105 A106:A109 B110 A111:A120 B121 A122:A133 B134 A135:A145 B146 A147:A176 B177 A178:A195 B196 A197:A203 B204 A205:A219 B220 A221:A227 B228 A229:A246 B247 A248:A264 B265 A266:A272 B273 A274:A278 B279 A280:A1028 A1029:A1048576">
       <formula1>Task_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D104 E105 D106:D109 E110 D111:D120 E121 D122:D133 E134 D135:D145 E146 D147:D176 E177 D178:D195 E196 D197:D203 E204 D205:D219 E220 D221:D227 E228 D229:D246 E247 D248:D264 E265 D266:D272 E273 D274:D278 E279 D280:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D104 E105 D106:D109 E110 D111:D120 E121 D122:D133 E134 D135:D145 E146 D147:D176 E177 D178:D195 E196 D197:D203 E204 D205:D219 E220 D221:D227 E228 D229:D246 E247 D248:D264 E265 D266:D272 E273 D274:D278 E279 D280:D1028 D1029:D1048576">
       <formula1>Building</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A2 A9 A17 A21 A24 A28 A32 A35 A38 A54 A58 A64 A81 A86 A105 A110 A121 A134 A146 A177 A196 A204 A220 A228 A247 A265 A273 A279">

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4536" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4561" uniqueCount="573">
   <si>
     <t>Staff Name</t>
   </si>
@@ -2447,6 +2447,9 @@
   </si>
   <si>
     <t>Lectern mic and stand. Cable is in positon already. Turn on PA system. From FDRS 156A.</t>
+  </si>
+  <si>
+    <t>Includes projector. Leave their network cable and portable screen. Lock room. To Vanier 040 store.</t>
   </si>
 </sst>
 </file>
@@ -3039,11 +3042,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I1028"/>
+  <dimension ref="A1:I1034"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1011" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1020" sqref="F1020"/>
+      <pane ySplit="1" topLeftCell="A1020" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1038" sqref="E1038"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21602,7 +21605,7 @@
         <v>87</v>
       </c>
       <c r="B1018" s="21">
-        <v>42795</v>
+        <v>42800</v>
       </c>
       <c r="C1018" s="17" t="s">
         <v>133</v>
@@ -21639,7 +21642,7 @@
         <v>90</v>
       </c>
       <c r="B1020" s="21">
-        <v>42795</v>
+        <v>42800</v>
       </c>
       <c r="C1020" s="17" t="s">
         <v>284</v>
@@ -21659,7 +21662,7 @@
         <v>81</v>
       </c>
       <c r="B1021" s="21">
-        <v>42795</v>
+        <v>42800</v>
       </c>
       <c r="C1021" s="17" t="s">
         <v>284</v>
@@ -21756,7 +21759,7 @@
         <v>91</v>
       </c>
       <c r="B1026" s="34">
-        <v>42795</v>
+        <v>42800</v>
       </c>
       <c r="C1026" s="35" t="s">
         <v>188</v>
@@ -21776,7 +21779,7 @@
         <v>80</v>
       </c>
       <c r="B1027" s="34">
-        <v>42795</v>
+        <v>42800</v>
       </c>
       <c r="C1027" s="35" t="s">
         <v>188</v>
@@ -21809,6 +21812,113 @@
       </c>
       <c r="F1028" s="39" t="s">
         <v>535</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1029" s="6"/>
+      <c r="B1029" s="23"/>
+      <c r="C1029" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1029" s="6"/>
+      <c r="E1029" s="27"/>
+      <c r="F1029" s="29"/>
+    </row>
+    <row r="1030" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1030" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1030" s="41">
+        <v>42801</v>
+      </c>
+      <c r="C1030" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1030" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1030" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1030" s="20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1031" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1031" s="41">
+        <v>42801</v>
+      </c>
+      <c r="C1031" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1031" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1031" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1031" s="20" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1032" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1032" s="41">
+        <v>42801</v>
+      </c>
+      <c r="C1032" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1032" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1032" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="F1032" s="20" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1033" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1033" s="41">
+        <v>42801</v>
+      </c>
+      <c r="C1033" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1033" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1033" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1033" s="20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1034" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1034" s="41">
+        <v>42801</v>
+      </c>
+      <c r="C1034" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1034" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1034" s="19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -21818,10 +21928,10 @@
     <sortCondition ref="D427:D515"/>
   </sortState>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A104 B105 A106:A109 B110 A111:A120 B121 A122:A133 B134 A135:A145 B146 A147:A176 B177 A178:A195 B196 A197:A203 B204 A205:A219 B220 A221:A227 B228 A229:A246 B247 A248:A264 B265 A266:A272 B273 A274:A278 B279 A280:A1028 A1029:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A104 B105 A106:A109 B110 A111:A120 B121 A122:A133 B134 A135:A145 B146 A147:A176 B177 A178:A195 B196 A197:A203 B204 A205:A219 B220 A221:A227 B228 A229:A246 B247 A248:A264 B265 A266:A272 B273 A274:A278 B279 A280:A1034 A1035:A1048576">
       <formula1>Task_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D104 E105 D106:D109 E110 D111:D120 E121 D122:D133 E134 D135:D145 E146 D147:D176 E177 D178:D195 E196 D197:D203 E204 D205:D219 E220 D221:D227 E228 D229:D246 E247 D248:D264 E265 D266:D272 E273 D274:D278 E279 D280:D1028 D1029:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D104 E105 D106:D109 E110 D111:D120 E121 D122:D133 E134 D135:D145 E146 D147:D176 E177 D178:D195 E196 D197:D203 E204 D205:D219 E220 D221:D227 E228 D229:D246 E247 D248:D264 E265 D266:D272 E273 D274:D278 E279 D280:D1034 D1035:D1048576">
       <formula1>Building</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A2 A9 A17 A21 A24 A28 A32 A35 A38 A54 A58 A64 A81 A86 A105 A110 A121 A134 A146 A177 A196 A204 A220 A228 A247 A265 A273 A279">

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4561" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4756" uniqueCount="592">
   <si>
     <t>Staff Name</t>
   </si>
@@ -2450,6 +2450,86 @@
   </si>
   <si>
     <t>Includes projector. Leave their network cable and portable screen. Lock room. To Vanier 040 store.</t>
+  </si>
+  <si>
+    <t>Return lectern mic, 2 audience mics, neck mic, stands, projector remote and presentation remote to back booth. Lock room-both entrances.</t>
+  </si>
+  <si>
+    <t>Send tech support person to assist with their presentation.</t>
+  </si>
+  <si>
+    <t>Lectern mic, stand, neck mic and small PA under projector cart, carpets etc. To Vanier 040 store.</t>
+  </si>
+  <si>
+    <t>PC and projector, no screen. Lock room. To Vanier 040 store.</t>
+  </si>
+  <si>
+    <t>Additional DLP TV. To Vanier 132 store.</t>
+  </si>
+  <si>
+    <t>DLP TV and computer, wireless keyboard and TV remote. To Vanier 132 store.</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TOA neck mic and receiver with small PA to Vari 1019.  This room is in the </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>second floor offices section</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> at the extreme south end of the building. Enter the area via the door marked SOCIOLOGY just down from Vari D.</t>
+    </r>
+  </si>
+  <si>
+    <t>152 A-Hall</t>
+  </si>
+  <si>
+    <t>5 mics, stands, cables, and 4 channel mixer to FDRS 156A. Leave lectern cable and carpet for it in place. Turn off PA system and lock the assembly hall.</t>
+  </si>
+  <si>
+    <t>Meet instructor Gail Vanstone in the cinema.</t>
+  </si>
+  <si>
+    <t>4 stand mics on stage for a choir and one boom stand mic overtop of a piano.  Small 4 channel mixer is already on stage for the choir mics. Lectern mic is in place from earlier today. Reposition this stand and mic for the piano. Get remaining mics and cables etc. from FDRS 156A storeroom.</t>
+  </si>
+  <si>
+    <t>Pickup Skype web cam and tripod.  To FDRS 164 store.</t>
+  </si>
+  <si>
+    <t>Meet instructor Brenda Blondeau.</t>
+  </si>
+  <si>
+    <t>If room is locked use the Ross N203 key to access.</t>
+  </si>
+  <si>
+    <t>DLP TV and computer. Leave their network cable and portable screen. Lock room with key from FDRS 164. To Vanier 132 store.</t>
+  </si>
+  <si>
+    <t>Turn off PC and projector. Leave all in and lock room with key from FDRS 164.</t>
+  </si>
+  <si>
+    <t>PC and projector, no screen. Lock room with key from FDRS 164. To Vanier 040 store.</t>
+  </si>
+  <si>
+    <t>Lectern mic, stand, and small PA under projector cart, carpets etc. Lock room with key from FDRS 164. To Vanier 040 store.</t>
   </si>
 </sst>
 </file>
@@ -3042,11 +3122,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I1034"/>
+  <dimension ref="A1:I1081"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1020" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1038" sqref="E1038"/>
+      <pane ySplit="1" topLeftCell="A1071" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1097" sqref="F1097"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21921,6 +22001,842 @@
         <v>106</v>
       </c>
     </row>
+    <row r="1035" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1035" s="6"/>
+      <c r="B1035" s="23"/>
+      <c r="C1035" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1035" s="6"/>
+      <c r="E1035" s="27"/>
+      <c r="F1035" s="29"/>
+    </row>
+    <row r="1036" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1036" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1036" s="21">
+        <v>42802</v>
+      </c>
+      <c r="C1036" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1036" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1036" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1036" s="20" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1037" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1037" s="21">
+        <v>42802</v>
+      </c>
+      <c r="C1037" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1037" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1037" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1037" s="20" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1038" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1038" s="21">
+        <v>42802</v>
+      </c>
+      <c r="C1038" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1038" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1038" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1038" s="20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1039" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1039" s="21">
+        <v>42802</v>
+      </c>
+      <c r="C1039" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1039" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1039" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1040" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1040" s="21">
+        <v>42802</v>
+      </c>
+      <c r="C1040" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1040" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1040" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1041" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1041" s="34">
+        <v>42802</v>
+      </c>
+      <c r="C1041" s="35" t="s">
+        <v>529</v>
+      </c>
+      <c r="D1041" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1041" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1041" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1042" s="6"/>
+      <c r="B1042" s="23"/>
+      <c r="C1042" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1042" s="6"/>
+      <c r="E1042" s="27"/>
+      <c r="F1042" s="29"/>
+    </row>
+    <row r="1043" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1043" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1043" s="21">
+        <v>42803</v>
+      </c>
+      <c r="C1043" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1043" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1043" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1043" s="20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1044" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1044" s="21">
+        <v>42803</v>
+      </c>
+      <c r="C1044" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1044" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1044" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1044" s="20" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1045" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1045" s="21">
+        <v>42803</v>
+      </c>
+      <c r="C1045" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1045" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1045" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1045" s="20" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1046" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1046" s="21">
+        <v>42803</v>
+      </c>
+      <c r="C1046" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1046" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1046" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1046" s="20" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1047" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1047" s="21">
+        <v>42803</v>
+      </c>
+      <c r="C1047" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1047" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1047" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="F1047" s="20" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1048" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1048" s="21">
+        <v>42803</v>
+      </c>
+      <c r="C1048" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1048" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1048" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1049" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1049" s="21">
+        <v>42803</v>
+      </c>
+      <c r="C1049" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1049" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1049" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1049" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1050" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1050" s="21">
+        <v>42803</v>
+      </c>
+      <c r="C1050" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1050" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1050" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1050" s="20" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1051" s="6"/>
+      <c r="B1051" s="23"/>
+      <c r="C1051" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1051" s="6"/>
+      <c r="E1051" s="27"/>
+      <c r="F1051" s="29"/>
+    </row>
+    <row r="1052" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1052" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1052" s="21">
+        <v>42804</v>
+      </c>
+      <c r="C1052" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1052" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1052" s="19" t="s">
+        <v>579</v>
+      </c>
+      <c r="F1052" s="20" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1053" s="6"/>
+      <c r="B1053" s="23"/>
+      <c r="C1053" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1053" s="6"/>
+      <c r="E1053" s="27"/>
+      <c r="F1053" s="29"/>
+    </row>
+    <row r="1054" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1054" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1054" s="21">
+        <v>42807</v>
+      </c>
+      <c r="C1054" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1054" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1054" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="F1054" s="20" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1055" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1055" s="21">
+        <v>42807</v>
+      </c>
+      <c r="C1055" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1055" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1055" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1056" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1056" s="21">
+        <v>42807</v>
+      </c>
+      <c r="C1056" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1056" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1056" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1056" s="20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1057" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1057" s="21">
+        <v>42807</v>
+      </c>
+      <c r="C1057" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1057" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1057" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1058" s="6"/>
+      <c r="B1058" s="23"/>
+      <c r="C1058" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1058" s="6"/>
+      <c r="E1058" s="27"/>
+      <c r="F1058" s="29"/>
+    </row>
+    <row r="1059" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1059" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1059" s="41">
+        <v>42808</v>
+      </c>
+      <c r="C1059" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1059" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1059" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="F1059" s="20" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1060" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1060" s="41">
+        <v>42808</v>
+      </c>
+      <c r="C1060" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1060" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1060" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1060" s="20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1061" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1061" s="41">
+        <v>42808</v>
+      </c>
+      <c r="C1061" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1061" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1061" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1062" s="6"/>
+      <c r="B1062" s="23"/>
+      <c r="C1062" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1062" s="6"/>
+      <c r="E1062" s="27"/>
+      <c r="F1062" s="29"/>
+    </row>
+    <row r="1063" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1063" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1063" s="21">
+        <v>42809</v>
+      </c>
+      <c r="C1063" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1063" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1063" s="19" t="s">
+        <v>581</v>
+      </c>
+      <c r="F1063" s="20" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1064" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1064" s="21">
+        <v>42809</v>
+      </c>
+      <c r="C1064" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1064" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1064" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="F1064" s="20" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1065" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1065" s="21">
+        <v>42809</v>
+      </c>
+      <c r="C1065" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1065" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1065" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1065" s="20" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1066" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1066" s="21">
+        <v>42809</v>
+      </c>
+      <c r="C1066" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1066" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1066" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1067" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1067" s="21">
+        <v>42809</v>
+      </c>
+      <c r="C1067" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1067" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1067" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1068" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1068" s="21">
+        <v>42809</v>
+      </c>
+      <c r="C1068" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1068" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1068" s="19" t="s">
+        <v>581</v>
+      </c>
+      <c r="F1068" s="20" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1069" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1069" s="21">
+        <v>42809</v>
+      </c>
+      <c r="C1069" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1069" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1069" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="F1069" s="20" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1070" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1070" s="34">
+        <v>42809</v>
+      </c>
+      <c r="C1070" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1070" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1070" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1070" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1071" s="6"/>
+      <c r="B1071" s="23"/>
+      <c r="C1071" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1071" s="6"/>
+      <c r="E1071" s="27"/>
+      <c r="F1071" s="29"/>
+    </row>
+    <row r="1072" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1072" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1072" s="21">
+        <v>42810</v>
+      </c>
+      <c r="C1072" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1072" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1072" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1072" s="20" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1073" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1073" s="21">
+        <v>42810</v>
+      </c>
+      <c r="C1073" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1073" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1073" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1073" s="20" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1074" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1074" s="21">
+        <v>42810</v>
+      </c>
+      <c r="C1074" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1074" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1074" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1074" s="20" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1075" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1075" s="21">
+        <v>42810</v>
+      </c>
+      <c r="C1075" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1075" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1075" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1075" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1076" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1076" s="21">
+        <v>42810</v>
+      </c>
+      <c r="C1076" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="D1076" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1076" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="F1076" s="20" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1077" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1077" s="21">
+        <v>42810</v>
+      </c>
+      <c r="C1077" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1077" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1077" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1077" s="20" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1078" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1078" s="21">
+        <v>42810</v>
+      </c>
+      <c r="C1078" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1078" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1078" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1078" s="20" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1079" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1079" s="21">
+        <v>42810</v>
+      </c>
+      <c r="C1079" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="D1079" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1079" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1079" s="20" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1080" s="6"/>
+      <c r="B1080" s="23"/>
+      <c r="C1080" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1080" s="6"/>
+      <c r="E1080" s="27"/>
+      <c r="F1080" s="29"/>
+    </row>
+    <row r="1081" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1081" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1081" s="21">
+        <v>42811</v>
+      </c>
+      <c r="C1081" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1081" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1081" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1081" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0"/>
   <sortState ref="A427:G515">
@@ -21928,10 +22844,10 @@
     <sortCondition ref="D427:D515"/>
   </sortState>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A104 B105 A106:A109 B110 A111:A120 B121 A122:A133 B134 A135:A145 B146 A147:A176 B177 A178:A195 B196 A197:A203 B204 A205:A219 B220 A221:A227 B228 A229:A246 B247 A248:A264 B265 A266:A272 B273 A274:A278 B279 A280:A1034 A1035:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22:A23 B6 B2 A7:A8 B9 A10:A16 B17 A18:A20 B21 A3:A5 B24 A25:A27 B28 B32 A29:A31 A33:A34 B35 A36:A37 B38 A39:A53 B54 A55:A57 B58 A59:A63 B64 A65:A80 B81 A82:A85 B86 A87:A104 B105 A106:A109 B110 A111:A120 B121 A122:A133 B134 A135:A145 B146 A147:A176 B177 A178:A195 B196 A197:A203 B204 A205:A219 B220 A221:A227 B228 A229:A246 B247 A248:A264 B265 A266:A272 B273 A274:A278 B279 A280:A1048576">
       <formula1>Task_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D104 E105 D106:D109 E110 D111:D120 E121 D122:D133 E134 D135:D145 E146 D147:D176 E177 D178:D195 E196 D197:D203 E204 D205:D219 E220 D221:D227 E228 D229:D246 E247 D248:D264 E265 D266:D272 E273 D274:D278 E279 D280:D1034 D1035:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2 D22:D23 D7:D8 E9 D10:D16 E17 D18:D20 E21 D3:D5 E24 D25:D27 E28 E32 D29:D31 D33:D34 E35 D36:D37 E38 D39:D53 E54 D55:D57 E58 D59:D63 E64 D65:D80 E81 D82:D85 E86 D87:D104 E105 D106:D109 E110 D111:D120 E121 D122:D133 E134 D135:D145 E146 D147:D176 E177 D178:D195 E196 D197:D203 E204 D205:D219 E220 D221:D227 E228 D229:D246 E247 D248:D264 E265 D266:D272 E273 D274:D278 E279 D280:D1048576">
       <formula1>Building</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A2 A9 A17 A21 A24 A28 A32 A35 A38 A54 A58 A64 A81 A86 A105 A110 A121 A134 A146 A177 A196 A204 A220 A228 A247 A265 A273 A279">

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4756" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5199" uniqueCount="637">
   <si>
     <t>Staff Name</t>
   </si>
@@ -2530,6 +2530,391 @@
   </si>
   <si>
     <t>Lectern mic, stand, and small PA under projector cart, carpets etc. Lock room with key from FDRS 164. To Vanier 040 store.</t>
+  </si>
+  <si>
+    <t>Web cam, tripod and USB extension if supplied, to FDRS 164.</t>
+  </si>
+  <si>
+    <t>Includes projector. Leave their network cable and portable screen. Lock room with key from FDRS 164. To Vanier 040 store.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set up the computer for the client and demo to Arthur McLuhan. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lectern mic and stand to FDRS 156A. Leave lectern cable and carpet for it in place. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note: Additional rental equipment is there from Long and McQuade.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Make sure they don't take our mic, stand and cable by mistake.Turn off PA system and lock the assembly hall with key from FDRS 164. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">LTS is setting up mics here and will need access to the back booth. Please grab keys from R S120 to grant LTS access to the back booth. They are going to use our stands. </t>
+  </si>
+  <si>
+    <t>Get webcam and tripod from FDRS 164. Masi has Marta's contact info and they want to connect at 5:45pm, so plan to return.</t>
+  </si>
+  <si>
+    <t>Jeannine is bringing a second skype kit to FDRS 164 before 5pm as there are 2 needed today in MC. Masi has Skype contact info from Roopa Trilokekar. Starts at 5:30pm. No class beforehand.</t>
+  </si>
+  <si>
+    <t>Lectern mic, mixer, stand, cables and small PA.  Leave all carpets in place and lock the room with key from FDRS 164. To FDRS 156A.</t>
+  </si>
+  <si>
+    <t>Pickup Skype web cam and tripod and USB extension if supplied. To FDRS 164 store.</t>
+  </si>
+  <si>
+    <t>DLP TV, computer, wireless keyboard and TV remote. Leave their network cable and portable screen. Lock room with key from FDRS 164. To Vanier 132 store.</t>
+  </si>
+  <si>
+    <r>
+      <t>Return lectern mic, audience mic, stands, projector remote and presentation remote to back booth. Lock booth and room (</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2 entrances</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) with keys from Ross S120 store.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Return lectern mic, audience mic, 2 desk mics, stands, projector remote and presentation remote to back booth and lock it. Retract the electric screen and turn off all lights. Lock room (</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2 entrances</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) with keys from Ross S120 store.</t>
+    </r>
+  </si>
+  <si>
+    <t>Flat screen TV, wireless keyboard, and extension cord. Turn off wireless keyboard and place in the bag before transporting to Vari 1155. Reconnect storeroom ethernet cable to the PC from the router and plug into power, once inside 1155.</t>
+  </si>
+  <si>
+    <t>Flat screen TV, long VGA cable and extension cord. Keyboard is in the bag--not used. To Vari 1155. Reconnect storeroom ethernet cable to the PC from the router and plug into power, once inside 1155.</t>
+  </si>
+  <si>
+    <t>LEAVE BIG SCREEN TV IN ROOM - Just pick up wireless keyboard and TV remote control - see above.</t>
+  </si>
+  <si>
+    <t>EQUIPMENT IS ALL IN ROOM ALREADY - JUST DEMO VOLUME CONTROLS AND PC AND MAKE SURE CLIENT IS OKAY WITH EQUIPMENT. PC with network, projector, Lec mic, Neck mic, mixer and small PA speaker.</t>
+  </si>
+  <si>
+    <t>Pick up Lecturn mic, neck mic, mixer, stand, mic cables.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">305 </t>
+  </si>
+  <si>
+    <t>LEAVE PC AND PROJECTOR IN ROOM. LOCK ROOM  WITH KEY FROM FDRS 164</t>
+  </si>
+  <si>
+    <t>Pick up small PA speaker and return equipment to Fdrs 156A.</t>
+  </si>
+  <si>
+    <t>012-JCR</t>
+  </si>
+  <si>
+    <t>3 floor mics and audio mixer connected to XLR input on the rack. To Vanier 040 storeroom.</t>
+  </si>
+  <si>
+    <t>Support needed for start of session.</t>
+  </si>
+  <si>
+    <r>
+      <t>Return neck mic, projector remote and presentation remote to back booth and lock it. Retract the electric screen and turn off all lights. Lock room (</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2 entrances</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) with keys from Ross S120 store.</t>
+    </r>
+  </si>
+  <si>
+    <t>Log in for client and provide presentation remote and projector remote from booth.</t>
+  </si>
+  <si>
+    <t>Lectern mic, audience mic, 2 desk mics, stands, cables, carpets and mixer, but leave lectern carpet and cable in place. Turn off PA system. To FDRS 156A.</t>
+  </si>
+  <si>
+    <t>Pickup Skype web cam, tripod and USB extension if supplied. To FDRS 164 store.</t>
+  </si>
+  <si>
+    <t>Web cam and tripod are in FDRS 164 store. Masi has Skype contact info from Roopa Trilokekar. Starts at 5:30pm. No class beforehand.</t>
+  </si>
+  <si>
+    <t>Neck mic from back booth. Turn on PA system.</t>
+  </si>
+  <si>
+    <t>PC is there 24/7. Get wireless keyboard and projector remote from FDRS 156A.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Neck mic, lectern mic, audience mic and 2 desk mics.  Stands, cables and mixer are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>already in place on the stage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Turn on PA system as usual.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Turn off PA system</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and return wireless keyboard and projector remote to FDRS 156A. Lock room with key from FDRS 164 store.</t>
+    </r>
+  </si>
+  <si>
+    <t>Turn off PC and projector. Leave in and lock room with key from FDRS 164.</t>
+  </si>
+  <si>
+    <t>Lectern mic, neck mic, mixer, stand, cables and small PA to FDRS 156A. Leave carpets in place.</t>
+  </si>
+  <si>
+    <t>S802</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pick up webcam with tripod and USB extension cable </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if supplied</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Return kit to Ross S120 store. BE ON TIME - CRUCIAL.</t>
+    </r>
+  </si>
+  <si>
+    <t>Lectern mic, cable, mixer and patch cord into XLR input. Return to Vari 1019 MCR.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DLP TV, computer, wireless keyboard and TV remote. Leave their network cable and portable screen. Lock room with key from FDRS 164. To </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vanier 132</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> store.</t>
+    </r>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>Pickup web cam, tripod and USB extension if supplied. To Ross S120 store. Lock room with the S802 key from Ross keyrack.</t>
+  </si>
+  <si>
+    <t>Turn off PC and projector. Leave all in and lock room with key from FDRS 164 keyrack.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Return webcam, tripod and USB extension if supplied to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vari 1019 MCR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Return neck mic, lectern mic, desk mic, audience mic, projector remote and presentation remote to back booth and lock it. Retract the electric screen and turn off all lights. Lock room (</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2 entrances</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) with N940 keys from Ross S120 store.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Return lectern mic, audience mic, projector remote and presentation remote to back booth and lock it. Retract the electric screen and turn off all lights. Lock room (</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2 entrances</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) with N940 keys from Ross S120 store.</t>
+    </r>
+  </si>
+  <si>
+    <t>No tasks today, only Crestron Logouts where applicable.</t>
   </si>
 </sst>
 </file>
@@ -3122,11 +3507,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I1081"/>
+  <dimension ref="A1:I1187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1071" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1097" sqref="F1097"/>
+      <pane ySplit="1" topLeftCell="A1175" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1187" sqref="B1187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21429,7 +21814,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="1004" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A1004" s="10" t="s">
         <v>80</v>
       </c>
@@ -21446,7 +21831,7 @@
         <v>149</v>
       </c>
       <c r="F1004" s="20" t="s">
-        <v>532</v>
+        <v>602</v>
       </c>
     </row>
     <row r="1005" spans="1:6" x14ac:dyDescent="0.25">
@@ -22835,6 +23220,1897 @@
       </c>
       <c r="F1081" s="20" t="s">
         <v>205</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1082" s="6"/>
+      <c r="B1082" s="23"/>
+      <c r="C1082" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1082" s="6"/>
+      <c r="E1082" s="27"/>
+      <c r="F1082" s="29"/>
+    </row>
+    <row r="1083" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1083" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1083" s="21">
+        <v>42814</v>
+      </c>
+      <c r="C1083" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1083" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1083" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="F1083" s="20" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1084" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1084" s="21">
+        <v>42814</v>
+      </c>
+      <c r="C1084" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1084" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1084" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1084" s="20" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1085" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1085" s="21">
+        <v>42814</v>
+      </c>
+      <c r="C1085" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1085" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1085" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1085" s="20" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1086" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1086" s="21">
+        <v>42814</v>
+      </c>
+      <c r="C1086" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1086" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1086" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1086" s="20" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1087" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1087" s="21">
+        <v>42814</v>
+      </c>
+      <c r="C1087" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1087" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1087" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1088" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1088" s="21">
+        <v>42814</v>
+      </c>
+      <c r="C1088" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1088" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1088" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1088" s="20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1089" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1089" s="21">
+        <v>42814</v>
+      </c>
+      <c r="C1089" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1089" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1089" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1090" s="6"/>
+      <c r="B1090" s="23"/>
+      <c r="C1090" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1090" s="6"/>
+      <c r="E1090" s="27"/>
+      <c r="F1090" s="29"/>
+    </row>
+    <row r="1091" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1091" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1091" s="41">
+        <v>42815</v>
+      </c>
+      <c r="C1091" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1091" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1091" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1091" s="20" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1092" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1092" s="41">
+        <v>42815</v>
+      </c>
+      <c r="C1092" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1092" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1092" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="F1092" s="20" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1093" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1093" s="41">
+        <v>42815</v>
+      </c>
+      <c r="C1093" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1093" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1093" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1093" s="20" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1094" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1094" s="41">
+        <v>42815</v>
+      </c>
+      <c r="C1094" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1094" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1094" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1094" s="20" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1095" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1095" s="41">
+        <v>42815</v>
+      </c>
+      <c r="C1095" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1095" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1095" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="F1095" s="20" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1096" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1096" s="41">
+        <v>42815</v>
+      </c>
+      <c r="C1096" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1096" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1096" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1096" s="20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1097" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1097" s="41">
+        <v>42815</v>
+      </c>
+      <c r="C1097" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1097" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1097" s="19" t="s">
+        <v>581</v>
+      </c>
+      <c r="F1097" s="20" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1098" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1098" s="41">
+        <v>42815</v>
+      </c>
+      <c r="C1098" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1098" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1098" s="44" t="s">
+        <v>381</v>
+      </c>
+      <c r="F1098" s="20" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1099" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1099" s="41">
+        <v>42815</v>
+      </c>
+      <c r="C1099" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1099" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1099" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1100" s="6"/>
+      <c r="B1100" s="23"/>
+      <c r="C1100" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1100" s="6"/>
+      <c r="E1100" s="27"/>
+      <c r="F1100" s="29"/>
+    </row>
+    <row r="1101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1101" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1101" s="41">
+        <v>42816</v>
+      </c>
+      <c r="C1101" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1101" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1101" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="F1101" s="20" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1102" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1102" s="41">
+        <v>42816</v>
+      </c>
+      <c r="C1102" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1102" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1102" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1102" s="20" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1103" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1103" s="41">
+        <v>42816</v>
+      </c>
+      <c r="C1103" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1103" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1103" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1103" s="20" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1104" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1104" s="21">
+        <v>42816</v>
+      </c>
+      <c r="C1104" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1104" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1104" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="F1104" s="20" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1105" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1105" s="41">
+        <v>42816</v>
+      </c>
+      <c r="C1105" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1105" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1105" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="F1105" s="20" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1106" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1106" s="41">
+        <v>42816</v>
+      </c>
+      <c r="C1106" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1106" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1106" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1106" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1107" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1107" s="21">
+        <v>42816</v>
+      </c>
+      <c r="C1107" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1107" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1107" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1108" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1108" s="21">
+        <v>42816</v>
+      </c>
+      <c r="C1108" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1108" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1108" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="F1108" s="20" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1109" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1109" s="21">
+        <v>42816</v>
+      </c>
+      <c r="C1109" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1109" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1109" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1110" s="6"/>
+      <c r="B1110" s="23"/>
+      <c r="C1110" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1110" s="6"/>
+      <c r="E1110" s="27"/>
+      <c r="F1110" s="29"/>
+    </row>
+    <row r="1111" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1111" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1111" s="21">
+        <v>42817</v>
+      </c>
+      <c r="C1111" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1111" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1111" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1111" s="20" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1112" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1112" s="21">
+        <v>42817</v>
+      </c>
+      <c r="C1112" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1112" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1112" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1112" s="20" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1113" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1113" s="21">
+        <v>42817</v>
+      </c>
+      <c r="C1113" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1113" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1113" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1113" s="20" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1114" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1114" s="21">
+        <v>42817</v>
+      </c>
+      <c r="C1114" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1114" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1114" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1114" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1115" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1115" s="21">
+        <v>42817</v>
+      </c>
+      <c r="C1115" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1115" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1115" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1115" s="20" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1116" s="6"/>
+      <c r="B1116" s="23"/>
+      <c r="C1116" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1116" s="6"/>
+      <c r="E1116" s="27"/>
+      <c r="F1116" s="29"/>
+    </row>
+    <row r="1117" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1117" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1117" s="21">
+        <v>42818</v>
+      </c>
+      <c r="C1117" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1117" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1117" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="F1117" s="39" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1118" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1118" s="21">
+        <v>42818</v>
+      </c>
+      <c r="C1118" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1118" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1118" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="F1118" s="39" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1119" s="6"/>
+      <c r="B1119" s="23"/>
+      <c r="C1119" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1119" s="6"/>
+      <c r="E1119" s="27"/>
+      <c r="F1119" s="29"/>
+    </row>
+    <row r="1120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1120" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1120" s="21">
+        <v>42821</v>
+      </c>
+      <c r="C1120" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1120" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1120" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="F1120" s="20" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1121" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1121" s="21">
+        <v>42821</v>
+      </c>
+      <c r="C1121" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1121" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1121" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="F1121" s="20" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1122" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1122" s="21">
+        <v>42821</v>
+      </c>
+      <c r="C1122" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1122" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1122" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1122" s="20" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1123" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1123" s="21">
+        <v>42821</v>
+      </c>
+      <c r="C1123" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="D1123" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1123" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1123" s="20" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1124" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1124" s="21">
+        <v>42821</v>
+      </c>
+      <c r="C1124" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="D1124" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1124" s="19" t="s">
+        <v>609</v>
+      </c>
+      <c r="F1124" s="20" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1125" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1125" s="21">
+        <v>42821</v>
+      </c>
+      <c r="C1125" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="D1125" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1125" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1125" s="20" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1126" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1126" s="21">
+        <v>42821</v>
+      </c>
+      <c r="C1126" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1126" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1126" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1127" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1127" s="21">
+        <v>42821</v>
+      </c>
+      <c r="C1127" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1127" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1127" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1127" s="20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1128" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1128" s="21">
+        <v>42821</v>
+      </c>
+      <c r="C1128" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1128" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1128" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1129" s="6"/>
+      <c r="B1129" s="23"/>
+      <c r="C1129" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1129" s="6"/>
+      <c r="E1129" s="27"/>
+      <c r="F1129" s="29"/>
+    </row>
+    <row r="1130" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1130" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1130" s="41">
+        <v>42822</v>
+      </c>
+      <c r="C1130" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1130" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1130" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1130" s="20" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1131" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1131" s="41">
+        <v>42822</v>
+      </c>
+      <c r="C1131" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1131" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1131" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="F1131" s="20" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1132" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1132" s="41">
+        <v>42822</v>
+      </c>
+      <c r="C1132" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1132" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1132" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1133" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1133" s="34">
+        <v>42822</v>
+      </c>
+      <c r="C1133" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1133" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1133" s="37" t="s">
+        <v>612</v>
+      </c>
+      <c r="F1133" s="20" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1134" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1134" s="34">
+        <v>42822</v>
+      </c>
+      <c r="C1134" s="35" t="s">
+        <v>529</v>
+      </c>
+      <c r="D1134" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1134" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1134" s="20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1135" s="6"/>
+      <c r="B1135" s="23"/>
+      <c r="C1135" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1135" s="6"/>
+      <c r="E1135" s="27"/>
+      <c r="F1135" s="29"/>
+    </row>
+    <row r="1136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1136" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1136" s="41">
+        <v>42823</v>
+      </c>
+      <c r="C1136" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1136" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1136" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1136" s="20" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1137" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1137" s="41">
+        <v>42823</v>
+      </c>
+      <c r="C1137" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1137" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1137" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1137" s="20" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1138" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1138" s="41">
+        <v>42823</v>
+      </c>
+      <c r="C1138" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1138" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1138" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1138" s="20" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1139" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1139" s="41">
+        <v>42823</v>
+      </c>
+      <c r="C1139" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1139" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1139" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F1139" s="20" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1140" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1140" s="41">
+        <v>42823</v>
+      </c>
+      <c r="C1140" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1140" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1140" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F1140" s="20" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1141" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1141" s="41">
+        <v>42823</v>
+      </c>
+      <c r="C1141" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1141" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1141" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="F1141" s="20" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1142" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1142" s="41">
+        <v>42823</v>
+      </c>
+      <c r="C1142" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1142" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1142" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1142" s="20" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1143" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1143" s="41">
+        <v>42823</v>
+      </c>
+      <c r="C1143" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1143" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1143" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1143" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1144" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1144" s="41">
+        <v>42823</v>
+      </c>
+      <c r="C1144" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1144" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1144" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1145" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1145" s="41">
+        <v>42823</v>
+      </c>
+      <c r="C1145" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1145" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1145" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="F1145" s="20" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1146" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1146" s="41">
+        <v>42823</v>
+      </c>
+      <c r="C1146" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1146" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1146" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1147" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1147" s="41">
+        <v>42823</v>
+      </c>
+      <c r="C1147" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1147" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1147" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F1147" s="20" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1148" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1148" s="41">
+        <v>42823</v>
+      </c>
+      <c r="C1148" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1148" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1148" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F1148" s="20" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1149" s="6"/>
+      <c r="B1149" s="23"/>
+      <c r="C1149" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1149" s="6"/>
+      <c r="E1149" s="27"/>
+      <c r="F1149" s="29"/>
+    </row>
+    <row r="1150" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1150" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1150" s="21">
+        <v>42824</v>
+      </c>
+      <c r="C1150" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1150" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1150" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F1150" s="20" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1151" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1151" s="21">
+        <v>42824</v>
+      </c>
+      <c r="C1151" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1151" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1151" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1151" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1152" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1152" s="21">
+        <v>42824</v>
+      </c>
+      <c r="C1152" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1152" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1152" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1152" s="20" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1153" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1153" s="21">
+        <v>42824</v>
+      </c>
+      <c r="C1153" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1153" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1153" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1153" s="20" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1154" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1154" s="21">
+        <v>42824</v>
+      </c>
+      <c r="C1154" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1154" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1154" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1154" s="20" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1155" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1155" s="21">
+        <v>42824</v>
+      </c>
+      <c r="C1155" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1155" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1155" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1155" s="20" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1156" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1156" s="21">
+        <v>42824</v>
+      </c>
+      <c r="C1156" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1156" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1156" s="19" t="s">
+        <v>626</v>
+      </c>
+      <c r="F1156" s="20" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1157" s="6"/>
+      <c r="B1157" s="23"/>
+      <c r="C1157" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1157" s="6"/>
+      <c r="E1157" s="27"/>
+      <c r="F1157" s="29"/>
+    </row>
+    <row r="1158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1158" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1158" s="21">
+        <v>42825</v>
+      </c>
+      <c r="C1158" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1158" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1158" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1158" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1159" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1159" s="21">
+        <v>42825</v>
+      </c>
+      <c r="C1159" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="D1159" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1159" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="F1159" s="39" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1160" s="6"/>
+      <c r="B1160" s="23"/>
+      <c r="C1160" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1160" s="6"/>
+      <c r="E1160" s="27"/>
+      <c r="F1160" s="29"/>
+    </row>
+    <row r="1161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1161" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1161" s="21">
+        <v>42828</v>
+      </c>
+      <c r="C1161" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1161" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1161" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="F1161" s="20" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1162" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1162" s="21">
+        <v>42828</v>
+      </c>
+      <c r="C1162" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1162" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1162" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1162" s="20" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1163" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1163" s="21">
+        <v>42828</v>
+      </c>
+      <c r="C1163" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1163" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1163" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1163" s="20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1164" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1164" s="21">
+        <v>42828</v>
+      </c>
+      <c r="C1164" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1164" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1164" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1165" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1165" s="21">
+        <v>42828</v>
+      </c>
+      <c r="C1165" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1165" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1165" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1166" s="6"/>
+      <c r="B1166" s="23"/>
+      <c r="C1166" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1166" s="6"/>
+      <c r="E1166" s="27"/>
+      <c r="F1166" s="29"/>
+    </row>
+    <row r="1167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1167" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1167" s="41">
+        <v>42829</v>
+      </c>
+      <c r="C1167" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1167" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1167" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="F1167" s="20" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1168" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1168" s="41">
+        <v>42829</v>
+      </c>
+      <c r="C1168" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1168" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1168" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1168" s="20" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1169" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1169" s="41">
+        <v>42829</v>
+      </c>
+      <c r="C1169" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1169" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1169" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1169" s="20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1170" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1170" s="41">
+        <v>42829</v>
+      </c>
+      <c r="C1170" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1170" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1170" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1171" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1171" s="41">
+        <v>42829</v>
+      </c>
+      <c r="C1171" s="17" t="s">
+        <v>630</v>
+      </c>
+      <c r="D1171" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1171" s="19" t="s">
+        <v>626</v>
+      </c>
+      <c r="F1171" s="20" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1172" s="6"/>
+      <c r="B1172" s="23"/>
+      <c r="C1172" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1172" s="6"/>
+      <c r="E1172" s="27"/>
+      <c r="F1172" s="29"/>
+    </row>
+    <row r="1173" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1173" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1173" s="41">
+        <v>42830</v>
+      </c>
+      <c r="C1173" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1173" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1173" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1173" s="20" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1174" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1174" s="41">
+        <v>42830</v>
+      </c>
+      <c r="C1174" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1174" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1174" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1174" s="20" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1175" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1175" s="41">
+        <v>42830</v>
+      </c>
+      <c r="C1175" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1175" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1175" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1175" s="20" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1176" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1176" s="41">
+        <v>42830</v>
+      </c>
+      <c r="C1176" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1176" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1176" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1176" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1177" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1177" s="41">
+        <v>42830</v>
+      </c>
+      <c r="C1177" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1177" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1177" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1178" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1178" s="41">
+        <v>42830</v>
+      </c>
+      <c r="C1178" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1178" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1178" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1179" s="6"/>
+      <c r="B1179" s="23"/>
+      <c r="C1179" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1179" s="6"/>
+      <c r="E1179" s="27"/>
+      <c r="F1179" s="29"/>
+    </row>
+    <row r="1180" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1180" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1180" s="41">
+        <v>42831</v>
+      </c>
+      <c r="C1180" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1180" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1180" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1180" s="20" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1181" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1181" s="41">
+        <v>42831</v>
+      </c>
+      <c r="C1181" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1181" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1181" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1181" s="20" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1182" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1182" s="41">
+        <v>42831</v>
+      </c>
+      <c r="C1182" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1182" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1182" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1182" s="20" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1183" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1183" s="41">
+        <v>42831</v>
+      </c>
+      <c r="C1183" s="42" t="s">
+        <v>253</v>
+      </c>
+      <c r="D1183" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1183" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1183" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1184" s="6"/>
+      <c r="B1184" s="23"/>
+      <c r="C1184" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1184" s="6"/>
+      <c r="E1184" s="27"/>
+      <c r="F1184" s="29"/>
+    </row>
+    <row r="1185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1185" s="41">
+        <v>42832</v>
+      </c>
+      <c r="F1185" s="20" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1186" s="6"/>
+      <c r="B1186" s="23"/>
+      <c r="C1186" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1186" s="6"/>
+      <c r="E1186" s="27"/>
+      <c r="F1186" s="29"/>
+    </row>
+    <row r="1187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1187" s="41">
+        <v>42835</v>
+      </c>
+      <c r="F1187" s="20" t="s">
+        <v>636</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5199" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5230" uniqueCount="642">
   <si>
     <t>Staff Name</t>
   </si>
@@ -2915,6 +2915,67 @@
   </si>
   <si>
     <t>No tasks today, only Crestron Logouts where applicable.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">No tasks today, only Crestron Logouts where applicable. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Please note: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Nat Taylor Cinema is not is use today.</t>
+    </r>
+  </si>
+  <si>
+    <t>Set out the neck microphone and test the batteries.</t>
+  </si>
+  <si>
+    <t>Login for the client--no codes. Event starts at 6pm but they want setup done at 5pm. Event ends at 7pm.</t>
+  </si>
+  <si>
+    <t>Return neck mic to drawer and log out of the PC and Crestron. I mention this because the event is not shown on the RAC report for today and would not have come up as a Crestron logout.</t>
+  </si>
+  <si>
+    <r>
+      <t>Return lectern mic, 2 desk mic, projector remote and presentation remote to back booth and lock it. Retract the electric screen and turn off all lights. Lock room (</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2 entrances</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) with N940 keys from Ross S120 store.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3507,11 +3568,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I1187"/>
+  <dimension ref="A1:I1198"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1175" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1187" sqref="B1187"/>
+      <pane ySplit="1" topLeftCell="A1184" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1199" sqref="C1199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25111,6 +25172,162 @@
       </c>
       <c r="F1187" s="20" t="s">
         <v>636</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1188" s="6"/>
+      <c r="B1188" s="23"/>
+      <c r="C1188" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1188" s="6"/>
+      <c r="E1188" s="27"/>
+      <c r="F1188" s="29"/>
+    </row>
+    <row r="1189" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1189" s="41">
+        <v>42836</v>
+      </c>
+      <c r="F1189" s="20" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1190" s="6"/>
+      <c r="B1190" s="23"/>
+      <c r="C1190" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1190" s="6"/>
+      <c r="E1190" s="27"/>
+      <c r="F1190" s="29"/>
+    </row>
+    <row r="1191" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1191" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1191" s="41">
+        <v>42837</v>
+      </c>
+      <c r="C1191" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1191" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1191" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="F1191" s="20" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1192" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1192" s="41">
+        <v>42837</v>
+      </c>
+      <c r="C1192" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1192" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1192" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="F1192" s="20" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1193" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1193" s="41">
+        <v>42837</v>
+      </c>
+      <c r="C1193" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1193" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1193" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="F1193" s="20" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1194" s="6"/>
+      <c r="B1194" s="23"/>
+      <c r="C1194" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1194" s="6"/>
+      <c r="E1194" s="27"/>
+      <c r="F1194" s="29"/>
+    </row>
+    <row r="1195" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1195" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1195" s="41">
+        <v>42838</v>
+      </c>
+      <c r="C1195" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1195" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1195" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1195" s="20" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1196" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1196" s="41">
+        <v>42838</v>
+      </c>
+      <c r="C1196" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1196" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1196" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1196" s="20" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1197" s="6"/>
+      <c r="B1197" s="23"/>
+      <c r="C1197" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1197" s="6"/>
+      <c r="E1197" s="27"/>
+      <c r="F1197" s="29"/>
+    </row>
+    <row r="1198" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1198" s="41">
+        <v>42843</v>
+      </c>
+      <c r="F1198" s="20" t="s">
+        <v>637</v>
       </c>
     </row>
   </sheetData>

--- a/CLASSOPS/Derek/Derek's Log.xlsx
+++ b/CLASSOPS/Derek/Derek's Log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5230" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5309" uniqueCount="647">
   <si>
     <t>Staff Name</t>
   </si>
@@ -2976,6 +2976,67 @@
       </rPr>
       <t>) with N940 keys from Ross S120 store.</t>
     </r>
+  </si>
+  <si>
+    <t>2 audience mic, 2 desk mics, stands, cables, carpets and mixer, but leave lectern carpet and cable in place. Turn off PA system and lock room with key from FDRS 164. Equipment to FDRS 156A.</t>
+  </si>
+  <si>
+    <r>
+      <t>Return neck mic, projector remote and presentation remote to back booth and lock it. Retract the electric screen and turn off all lights. Lock room (</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2 entrances</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) with N940 keys from Ross S120 store.</t>
+    </r>
+  </si>
+  <si>
+    <t>Return web cam and tripod to Ross S120 store.</t>
+  </si>
+  <si>
+    <r>
+      <t>Leave mics and mixer in place (not Skype kit) for Saturday's continuation of this conference. Turn off projector, computer and audio rack in the back. Turn off all lights and lock room (</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2 entrances</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) with N940 keys from Ross S120 store.</t>
+    </r>
+  </si>
+  <si>
+    <t>1 audience mic, 1 neck mic, stand, cables, and carpets, but leave lectern carpet and cable in place. Turn off PA system and lock room with key from FDRS 164. Equipment to FDRS 156A.</t>
   </si>
 </sst>
 </file>
@@ -3568,11 +3629,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I1198"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1184" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1199" sqref="C1199"/>
+      <pane ySplit="1" topLeftCell="A1202" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1214" sqref="A1214:F1217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25328,6 +25389,346 @@
       </c>
       <c r="F1198" s="20" t="s">
         <v>637</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1199" s="6"/>
+      <c r="B1199" s="23"/>
+      <c r="C1199" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1199" s="6"/>
+      <c r="E1199" s="27"/>
+      <c r="F1199" s="29"/>
+    </row>
+    <row r="1200" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1200" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1200" s="41">
+        <v>42844</v>
+      </c>
+      <c r="C1200" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1200" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1200" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1200" s="20" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1201" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1201" s="41">
+        <v>42844</v>
+      </c>
+      <c r="C1201" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1201" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1201" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F1201" s="20" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1202" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1202" s="41">
+        <v>42844</v>
+      </c>
+      <c r="C1202" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1202" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1202" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F1202" s="20" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1203" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1203" s="34">
+        <v>42844</v>
+      </c>
+      <c r="C1203" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1203" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1203" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1203" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1204" s="6"/>
+      <c r="B1204" s="23"/>
+      <c r="C1204" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1204" s="6"/>
+      <c r="E1204" s="27"/>
+      <c r="F1204" s="29"/>
+    </row>
+    <row r="1205" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1205" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1205" s="41">
+        <v>42845</v>
+      </c>
+      <c r="C1205" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1205" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1205" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1205" s="20" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1206" s="6"/>
+      <c r="B1206" s="23"/>
+      <c r="C1206" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1206" s="6"/>
+      <c r="E1206" s="27"/>
+      <c r="F1206" s="29"/>
+    </row>
+    <row r="1207" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1207" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1207" s="41">
+        <v>42846</v>
+      </c>
+      <c r="C1207" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1207" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1207" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1207" s="20" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1208" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1208" s="41">
+        <v>42846</v>
+      </c>
+      <c r="C1208" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1208" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1208" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1208" s="20" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1209" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1209" s="41">
+        <v>42846</v>
+      </c>
+      <c r="C1209" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1209" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1209" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1209" s="20" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1210" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1210" s="41">
+        <v>42846</v>
+      </c>
+      <c r="C1210" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1210" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1210" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F1210" s="20" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1211" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1211" s="41">
+        <v>42846</v>
+      </c>
+      <c r="C1211" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1211" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1211" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F1211" s="20" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1212" s="6"/>
+      <c r="B1212" s="23"/>
+      <c r="C1212" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1212" s="6"/>
+      <c r="E1212" s="27"/>
+      <c r="F1212" s="29"/>
+    </row>
+    <row r="1213" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1213" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1213" s="41">
+        <v>42849</v>
+      </c>
+      <c r="C1213" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1213" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1213" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1213" s="20" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1214" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1214" s="41">
+        <v>42849</v>
+      </c>
+      <c r="C1214" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1214" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1214" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1214" s="20" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1215" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1215" s="41">
+        <v>42849</v>
+      </c>
+      <c r="C1215" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1215" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1215" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1215" s="20" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1216" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1216" s="41">
+        <v>42849</v>
+      </c>
+      <c r="C1216" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1216" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1216" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F1216" s="20" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1217" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1217" s="41">
+        <v>42849</v>
+      </c>
+      <c r="C1217" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1217" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1217" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F1217" s="20" t="s">
+        <v>646</v>
       </c>
     </row>
   </sheetData>
